--- a/data_clean/Aker 16.12.2020.xlsx
+++ b/data_clean/Aker 16.12.2020.xlsx
@@ -1290,7 +1290,7 @@
         <v>1.348332772163849</v>
       </c>
       <c r="K2">
-        <v>50.87063561494566</v>
+        <v>0.008706356149456354</v>
       </c>
       <c r="L2">
         <v>0.002779559805416607</v>
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1361,7 +1361,7 @@
         <v>1.348332772163849</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.1206273279921208</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1432,7 +1432,7 @@
         <v>7.599999999999999</v>
       </c>
       <c r="K4">
-        <v>88.37209302325581</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="L4">
         <v>0.08348481185077651</v>
@@ -1462,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000945179584121</v>
+        <v>0.000945179584120881</v>
       </c>
       <c r="V4">
-        <v>1.000945179584121</v>
+        <v>0.000945179584120881</v>
       </c>
       <c r="W4">
-        <v>0.9990583804143126</v>
+        <v>-0.0009416195856873921</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1503,7 +1503,7 @@
         <v>9.705263157894736</v>
       </c>
       <c r="K5">
-        <v>90.65880039331367</v>
+        <v>0.4065880039331367</v>
       </c>
       <c r="L5">
         <v>0.06934170131484187</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000944287063267</v>
+        <v>0.0009442870632672129</v>
       </c>
       <c r="V5">
-        <v>1.000944287063267</v>
+        <v>0.0009442870632672129</v>
       </c>
       <c r="W5">
-        <v>1.001885014137606</v>
+        <v>0.001885014137606111</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1574,7 +1574,7 @@
         <v>4.603942181340342</v>
       </c>
       <c r="K6">
-        <v>82.15541903109319</v>
+        <v>0.3215541903109319</v>
       </c>
       <c r="L6">
         <v>0.05791875249527953</v>
@@ -1604,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000377358490566</v>
+        <v>0.0003773584905661931</v>
       </c>
       <c r="V6">
-        <v>1.000377358490566</v>
+        <v>0.0003773584905661931</v>
       </c>
       <c r="W6">
-        <v>0.9990592662276576</v>
+        <v>-0.0009407337723423836</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1645,7 +1645,7 @@
         <v>5.71051939968186</v>
       </c>
       <c r="K7">
-        <v>85.09802385717849</v>
+        <v>0.3509802385717848</v>
       </c>
       <c r="L7">
         <v>0.05185624532374777</v>
@@ -1675,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000565824217276</v>
+        <v>0.0005658242172763561</v>
       </c>
       <c r="V7">
-        <v>1.000565824217276</v>
+        <v>0.0005658242172763561</v>
       </c>
       <c r="W7">
-        <v>1.001883239171375</v>
+        <v>0.001883239171374784</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1716,7 +1716,7 @@
         <v>7.457746586536888</v>
       </c>
       <c r="K8">
-        <v>88.17651971753554</v>
+        <v>0.3817651971753554</v>
       </c>
       <c r="L8">
         <v>0.05063594618662206</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000807863201831</v>
+        <v>0.0008078632018311271</v>
       </c>
       <c r="V8">
-        <v>1.000807863201831</v>
+        <v>0.0008078632018311271</v>
       </c>
       <c r="W8">
-        <v>1.00281954887218</v>
+        <v>0.0028195488721805</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1787,7 +1787,7 @@
         <v>8.68387092818954</v>
       </c>
       <c r="K9">
-        <v>89.67355092384574</v>
+        <v>0.3967355092384574</v>
       </c>
       <c r="L9">
         <v>0.05196694784755974</v>
@@ -1817,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000840844880936</v>
+        <v>0.0008408448809362756</v>
       </c>
       <c r="V9">
-        <v>1.000840844880936</v>
+        <v>0.0008408448809362756</v>
       </c>
       <c r="W9">
-        <v>1.001874414245548</v>
+        <v>0.001874414245548239</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1858,7 +1858,7 @@
         <v>2.957736008284331</v>
       </c>
       <c r="K10">
-        <v>74.73302923927214</v>
+        <v>0.2473302923927214</v>
       </c>
       <c r="L10">
         <v>0.05112661145050999</v>
@@ -1888,13 +1888,13 @@
         <v>0.5694444444444571</v>
       </c>
       <c r="U10">
-        <v>1.000339789330615</v>
+        <v>0.0003397893306149591</v>
       </c>
       <c r="V10">
-        <v>1.000339789330615</v>
+        <v>0.0003397893306149591</v>
       </c>
       <c r="W10">
-        <v>0.9971936389148737</v>
+        <v>-0.00280636108512633</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1929,7 +1929,7 @@
         <v>2.401991870618467</v>
       </c>
       <c r="K11">
-        <v>70.60545592020463</v>
+        <v>0.2060545592020463</v>
       </c>
       <c r="L11">
         <v>0.04852636413517436</v>
@@ -1959,13 +1959,13 @@
         <v>0.6625000000000227</v>
       </c>
       <c r="U11">
-        <v>1.000177675585284</v>
+        <v>0.0001776755852842538</v>
       </c>
       <c r="V11">
-        <v>1.000177675585284</v>
+        <v>0.0001776755852842538</v>
       </c>
       <c r="W11">
-        <v>0.99906191369606</v>
+        <v>-0.0009380863039399889</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2000,7 +2000,7 @@
         <v>2.401991870618467</v>
       </c>
       <c r="K12">
-        <v>70.60545592020465</v>
+        <v>0.2060545592020465</v>
       </c>
       <c r="L12">
         <v>0.04518438294773526</v>
@@ -2030,13 +2030,13 @@
         <v>0.8352272727272521</v>
       </c>
       <c r="U12">
-        <v>1.000145345109137</v>
+        <v>0.0001453451091371072</v>
       </c>
       <c r="V12">
-        <v>1.000145345109137</v>
+        <v>0.0001453451091371072</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2071,7 +2071,7 @@
         <v>2.81837992979506</v>
       </c>
       <c r="K13">
-        <v>73.81088266788392</v>
+        <v>0.2381088266788391</v>
       </c>
       <c r="L13">
         <v>0.04265983788303908</v>
@@ -2101,13 +2101,13 @@
         <v>0.9375</v>
       </c>
       <c r="U13">
-        <v>1.000277825269277</v>
+        <v>0.0002778252692767769</v>
       </c>
       <c r="V13">
-        <v>1.000277825269277</v>
+        <v>0.0002778252692767769</v>
       </c>
       <c r="W13">
-        <v>1.001877934272301</v>
+        <v>0.001877934272300541</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2142,7 +2142,7 @@
         <v>3.256683149980948</v>
       </c>
       <c r="K14">
-        <v>76.50753028201134</v>
+        <v>0.2650753028201135</v>
       </c>
       <c r="L14">
         <v>0.04150366962404765</v>
@@ -2172,13 +2172,13 @@
         <v>1.173076923076906</v>
       </c>
       <c r="U14">
-        <v>1.000379643857905</v>
+        <v>0.0003796438579046768</v>
       </c>
       <c r="V14">
-        <v>1.000379643857905</v>
+        <v>0.0003796438579046768</v>
       </c>
       <c r="W14">
-        <v>1.001874414245548</v>
+        <v>0.001874414245548239</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2213,7 +2213,7 @@
         <v>3.256683149980948</v>
       </c>
       <c r="K15">
-        <v>76.50753028201134</v>
+        <v>0.2650753028201135</v>
       </c>
       <c r="L15">
         <v>0.04089000653216226</v>
@@ -2243,13 +2243,13 @@
         <v>1.3125</v>
       </c>
       <c r="U15">
-        <v>1.000325285528408</v>
+        <v>0.0003252855284081591</v>
       </c>
       <c r="V15">
-        <v>1.000325285528408</v>
+        <v>0.0003252855284081591</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2284,7 +2284,7 @@
         <v>2.620382760930783</v>
       </c>
       <c r="K16">
-        <v>72.37861115704504</v>
+        <v>0.2237861115704505</v>
       </c>
       <c r="L16">
         <v>0.03994908162169791</v>
@@ -2314,13 +2314,13 @@
         <v>1.258333333333326</v>
       </c>
       <c r="U16">
-        <v>1.000219195240332</v>
+        <v>0.0002191952403318709</v>
       </c>
       <c r="V16">
-        <v>1.000219195240332</v>
+        <v>0.0002191952403318709</v>
       </c>
       <c r="W16">
-        <v>0.9990645463049579</v>
+        <v>-0.00093545369504211</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2355,7 +2355,7 @@
         <v>3.03171530534157</v>
       </c>
       <c r="K17">
-        <v>75.19666136457819</v>
+        <v>0.2519666136457819</v>
       </c>
       <c r="L17">
         <v>0.03957126429846394</v>
@@ -2385,13 +2385,13 @@
         <v>1.15625</v>
       </c>
       <c r="U17">
-        <v>1.000309154091791</v>
+        <v>0.0003091540917914415</v>
       </c>
       <c r="V17">
-        <v>1.001001815791121</v>
+        <v>0.001001815791121352</v>
       </c>
       <c r="W17">
-        <v>1.00187265917603</v>
+        <v>0.001872659176029856</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2426,7 +2426,7 @@
         <v>3.897678556732701</v>
       </c>
       <c r="K18">
-        <v>79.58216350018871</v>
+        <v>0.2958216350018872</v>
       </c>
       <c r="L18">
         <v>0.04097999208967004</v>
@@ -2456,13 +2456,13 @@
         <v>1.03125</v>
       </c>
       <c r="U18">
-        <v>1.000493619195228</v>
+        <v>0.0004936191952280566</v>
       </c>
       <c r="V18">
-        <v>1.00075060987052</v>
+        <v>0.0007506098705196695</v>
       </c>
       <c r="W18">
-        <v>1.003738317757009</v>
+        <v>0.003738317757009391</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2497,7 +2497,7 @@
         <v>4.353448689043823</v>
       </c>
       <c r="K19">
-        <v>81.32045232736489</v>
+        <v>0.3132045232736489</v>
       </c>
       <c r="L19">
         <v>0.04386274023317448</v>
@@ -2527,13 +2527,13 @@
         <v>1.28125</v>
       </c>
       <c r="U19">
-        <v>1.000542828227068</v>
+        <v>0.0005428282270678597</v>
       </c>
       <c r="V19">
-        <v>1.000937558597412</v>
+        <v>0.0009375585974122913</v>
       </c>
       <c r="W19">
-        <v>1.001862197392924</v>
+        <v>0.001862197392923592</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2568,7 +2568,7 @@
         <v>3.511188292835889</v>
       </c>
       <c r="K20">
-        <v>77.83289157785597</v>
+        <v>0.2783289157785598</v>
       </c>
       <c r="L20">
         <v>0.04676168515338403</v>
@@ -2598,13 +2598,13 @@
         <v>1.46875</v>
       </c>
       <c r="U20">
-        <v>1.000436059666126</v>
+        <v>0.0004360596661261429</v>
       </c>
       <c r="V20">
-        <v>1.000749344323717</v>
+        <v>0.0007493443237169828</v>
       </c>
       <c r="W20">
-        <v>0.9990706319702602</v>
+        <v>-0.0009293680297397522</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2639,7 +2639,7 @@
         <v>2.494973890443789</v>
       </c>
       <c r="K21">
-        <v>71.38748295847725</v>
+        <v>0.2138748295847726</v>
       </c>
       <c r="L21">
         <v>0.04849393437659383</v>
@@ -2669,13 +2669,13 @@
         <v>1.53125</v>
       </c>
       <c r="U21">
-        <v>1.000298529556893</v>
+        <v>0.0002985295568933566</v>
       </c>
       <c r="V21">
-        <v>1.000686384624984</v>
+        <v>0.0006863846249844929</v>
       </c>
       <c r="W21">
-        <v>0.998139534883721</v>
+        <v>-0.00186046511627902</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2710,7 +2710,7 @@
         <v>2.95195566487111</v>
       </c>
       <c r="K22">
-        <v>74.69607240564491</v>
+        <v>0.2469607240564491</v>
       </c>
       <c r="L22">
         <v>0.05036027861197436</v>
@@ -2740,13 +2740,13 @@
         <v>1.53125</v>
       </c>
       <c r="U22">
-        <v>1.000403910568398</v>
+        <v>0.0004039105683979471</v>
       </c>
       <c r="V22">
-        <v>1.000748269626489</v>
+        <v>0.0007482696264886624</v>
       </c>
       <c r="W22">
-        <v>1.002795899347624</v>
+        <v>0.002795899347623587</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2781,7 +2781,7 @@
         <v>3.43298911163671</v>
       </c>
       <c r="K23">
-        <v>77.44185751832833</v>
+        <v>0.2744185751832834</v>
       </c>
       <c r="L23">
         <v>0.05307302840256607</v>
@@ -2811,13 +2811,13 @@
         <v>1.6875</v>
       </c>
       <c r="U23">
-        <v>1.000494798531828</v>
+        <v>0.000494798531827545</v>
       </c>
       <c r="V23">
-        <v>1.000747710137703</v>
+        <v>0.0007477101377031392</v>
       </c>
       <c r="W23">
-        <v>1.002788104089219</v>
+        <v>0.002788104089219257</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2852,7 +2852,7 @@
         <v>3.6017727771685</v>
       </c>
       <c r="K24">
-        <v>78.26924430164267</v>
+        <v>0.2826924430164267</v>
       </c>
       <c r="L24">
         <v>0.05623712661288358</v>
@@ -2882,13 +2882,13 @@
         <v>2.03125</v>
       </c>
       <c r="U24">
-        <v>1.000492262594335</v>
+        <v>0.0004922625943348802</v>
       </c>
       <c r="V24">
-        <v>1.000684888861217</v>
+        <v>0.0006848888612165371</v>
       </c>
       <c r="W24">
-        <v>1.000926784059314</v>
+        <v>0.000926784059314123</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2923,7 +2923,7 @@
         <v>3.957106809867005</v>
       </c>
       <c r="K25">
-        <v>79.82694264304486</v>
+        <v>0.2982694264304486</v>
       </c>
       <c r="L25">
         <v>0.05994418550234152</v>
@@ -2953,13 +2953,13 @@
         <v>2.375</v>
       </c>
       <c r="U25">
-        <v>1.000529014405469</v>
+        <v>0.0005290144054690415</v>
       </c>
       <c r="V25">
-        <v>1.000995520159283</v>
+        <v>0.0009955201592830587</v>
       </c>
       <c r="W25">
-        <v>1.001851851851852</v>
+        <v>0.001851851851851771</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2994,7 +2994,7 @@
         <v>4.331142633760169</v>
       </c>
       <c r="K26">
-        <v>81.24229515700129</v>
+        <v>0.312422951570013</v>
       </c>
       <c r="L26">
         <v>0.06419592298707537</v>
@@ -3024,13 +3024,13 @@
         <v>2.4375</v>
       </c>
       <c r="U26">
-        <v>1.000561272217025</v>
+        <v>0.0005612722170251772</v>
       </c>
       <c r="V26">
-        <v>1.001181004475385</v>
+        <v>0.001181004475385272</v>
       </c>
       <c r="W26">
-        <v>1.00184842883549</v>
+        <v>0.001848428835489857</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3065,7 +3065,7 @@
         <v>4.528003593703938</v>
       </c>
       <c r="K27">
-        <v>81.91028672378326</v>
+        <v>0.3191028672378325</v>
       </c>
       <c r="L27">
         <v>0.068585519958877</v>
@@ -3095,13 +3095,13 @@
         <v>2.375</v>
       </c>
       <c r="U27">
-        <v>1.000553765606122</v>
+        <v>0.0005537656061216367</v>
       </c>
       <c r="V27">
-        <v>1.001241696156951</v>
+        <v>0.001241696156950578</v>
       </c>
       <c r="W27">
-        <v>1.000922509225092</v>
+        <v>0.0009225092250921829</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3136,7 +3136,7 @@
         <v>4.528003593703938</v>
       </c>
       <c r="K28">
-        <v>81.91028672378326</v>
+        <v>0.3191028672378325</v>
       </c>
       <c r="L28">
         <v>0.07249691326983038</v>
@@ -3166,13 +3166,13 @@
         <v>2.375</v>
       </c>
       <c r="U28">
-        <v>1.000512462147682</v>
+        <v>0.0005124621476821911</v>
       </c>
       <c r="V28">
-        <v>1.00111614063372</v>
+        <v>0.001116140633719676</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3207,7 +3207,7 @@
         <v>5.182389056120902</v>
       </c>
       <c r="K29">
-        <v>83.82502312742764</v>
+        <v>0.3382502312742764</v>
       </c>
       <c r="L29">
         <v>0.07663622611098911</v>
@@ -3237,13 +3237,13 @@
         <v>2.65625</v>
       </c>
       <c r="U29">
-        <v>1.000575678213174</v>
+        <v>0.0005756782131740579</v>
       </c>
       <c r="V29">
-        <v>1.001176834933416</v>
+        <v>0.001176834933415805</v>
       </c>
       <c r="W29">
-        <v>1.002764976958525</v>
+        <v>0.0027649769585254</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3278,7 +3278,7 @@
         <v>6.100824792846465</v>
       </c>
       <c r="K30">
-        <v>85.91712893680432</v>
+        <v>0.3591712893680432</v>
       </c>
       <c r="L30">
         <v>0.0817374149098939</v>
@@ -3308,13 +3308,13 @@
         <v>2.9375</v>
       </c>
       <c r="U30">
-        <v>1.000664412110233</v>
+        <v>0.0006644121102326039</v>
       </c>
       <c r="V30">
-        <v>1.00142291512002</v>
+        <v>0.001422915120020019</v>
       </c>
       <c r="W30">
-        <v>1.003676470588235</v>
+        <v>0.003676470588235281</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3349,7 +3349,7 @@
         <v>3.536544279240834</v>
       </c>
       <c r="K31">
-        <v>77.9567896079845</v>
+        <v>0.279567896079845</v>
       </c>
       <c r="L31">
         <v>0.08572290710188928</v>
@@ -3379,13 +3379,13 @@
         <v>2.9375</v>
       </c>
       <c r="U31">
-        <v>1.000526428648011</v>
+        <v>0.0005264286480113345</v>
       </c>
       <c r="V31">
-        <v>1.001297337369494</v>
+        <v>0.001297337369494</v>
       </c>
       <c r="W31">
-        <v>0.9972527472527473</v>
+        <v>-0.002747252747252737</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3420,7 +3420,7 @@
         <v>3.082010436768142</v>
       </c>
       <c r="K32">
-        <v>75.50226743683361</v>
+        <v>0.255022674368336</v>
       </c>
       <c r="L32">
         <v>0.08810941779155482</v>
@@ -3450,13 +3450,13 @@
         <v>2.8125</v>
       </c>
       <c r="U32">
-        <v>1.001056589701358</v>
+        <v>0.001056589701357913</v>
       </c>
       <c r="V32">
-        <v>1.001110562685094</v>
+        <v>0.001110562685093797</v>
       </c>
       <c r="W32">
-        <v>0.9990817263544536</v>
+        <v>-0.0009182736455464191</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3491,7 +3491,7 @@
         <v>1.309881135289765</v>
       </c>
       <c r="K33">
-        <v>56.70772903755699</v>
+        <v>0.06707729037556986</v>
       </c>
       <c r="L33">
         <v>0.08560744765840836</v>
@@ -3521,13 +3521,13 @@
         <v>2.3125</v>
       </c>
       <c r="U33">
-        <v>1.000496693881352</v>
+        <v>0.0004966938813522059</v>
       </c>
       <c r="V33">
-        <v>1.00024651793418</v>
+        <v>0.0002465179341797352</v>
       </c>
       <c r="W33">
-        <v>0.9908088235294118</v>
+        <v>-0.009191176470588203</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3562,7 +3562,7 @@
         <v>1.491457346952777</v>
       </c>
       <c r="K34">
-        <v>59.86284889753106</v>
+        <v>0.09862848897531062</v>
       </c>
       <c r="L34">
         <v>0.08105031091035055</v>
@@ -3592,13 +3592,13 @@
         <v>1.90625</v>
       </c>
       <c r="U34">
-        <v>1.000620559123771</v>
+        <v>0.0006205591237706809</v>
       </c>
       <c r="V34">
-        <v>1.000308071472582</v>
+        <v>0.0003080714725816058</v>
       </c>
       <c r="W34">
-        <v>1.00278293135436</v>
+        <v>0.002782931354359919</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3633,7 +3633,7 @@
         <v>1.402126531558863</v>
       </c>
       <c r="K35">
-        <v>58.37021960075313</v>
+        <v>0.08370219600753126</v>
       </c>
       <c r="L35">
         <v>0.07491274696152581</v>
@@ -3663,13 +3663,13 @@
         <v>1.46875</v>
       </c>
       <c r="U35">
-        <v>1.000527148128624</v>
+        <v>0.0005271481286239776</v>
       </c>
       <c r="V35">
-        <v>1.000307976593779</v>
+        <v>0.0003079765937790135</v>
       </c>
       <c r="W35">
-        <v>0.9990749306197965</v>
+        <v>-0.0009250693802035359</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3704,7 +3704,7 @@
         <v>1.245123101155029</v>
       </c>
       <c r="K36">
-        <v>55.45901249309944</v>
+        <v>0.05459012493099435</v>
       </c>
       <c r="L36">
         <v>0.06726327163347201</v>
@@ -3734,13 +3734,13 @@
         <v>0.9375</v>
       </c>
       <c r="U36">
-        <v>1.000495878014009</v>
+        <v>0.0004958780140085217</v>
       </c>
       <c r="V36">
-        <v>1.000307881773399</v>
+        <v>0.0003078817733990213</v>
       </c>
       <c r="W36">
-        <v>0.9981481481481481</v>
+        <v>-0.001851851851851882</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3775,7 +3775,7 @@
         <v>1.362991756462764</v>
       </c>
       <c r="K37">
-        <v>57.68076645781738</v>
+        <v>0.0768076645781739</v>
       </c>
       <c r="L37">
         <v>0.05963292658586797</v>
@@ -3805,13 +3805,13 @@
         <v>0.21875</v>
       </c>
       <c r="U37">
-        <v>1.000495632240877</v>
+        <v>0.0004956322408773417</v>
       </c>
       <c r="V37">
-        <v>1.000246229609111</v>
+        <v>0.000246229609110582</v>
       </c>
       <c r="W37">
-        <v>1.001855287569573</v>
+        <v>0.001855287569573205</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3846,7 +3846,7 @@
         <v>1.149129162967215</v>
       </c>
       <c r="K38">
-        <v>53.46952536722637</v>
+        <v>0.03469525367226378</v>
       </c>
       <c r="L38">
         <v>0.05126586991145415</v>
@@ -3876,13 +3876,13 @@
         <v>-0.75</v>
       </c>
       <c r="U38">
-        <v>1.000309616694532</v>
+        <v>0.0003096166945322221</v>
       </c>
       <c r="V38">
-        <v>0.9998769155024926</v>
+        <v>-0.0001230844975074197</v>
       </c>
       <c r="W38">
-        <v>0.9972222222222222</v>
+        <v>-0.002777777777777768</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3917,7 +3917,7 @@
         <v>1.204184159546511</v>
       </c>
       <c r="K39">
-        <v>54.63174001732504</v>
+        <v>0.04631740017325048</v>
       </c>
       <c r="L39">
         <v>0.04314527571682592</v>
@@ -3947,13 +3947,13 @@
         <v>-1.40625</v>
       </c>
       <c r="U39">
-        <v>1.000278568775535</v>
+        <v>0.0002785687755353372</v>
       </c>
       <c r="V39">
-        <v>0.9998769003508339</v>
+        <v>-0.0001230996491661251</v>
       </c>
       <c r="W39">
-        <v>1.000928505106778</v>
+        <v>0.0009285051067779992</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3988,7 +3988,7 @@
         <v>1.262136787524717</v>
       </c>
       <c r="K40">
-        <v>55.7940083236866</v>
+        <v>0.05794008323686595</v>
       </c>
       <c r="L40">
         <v>0.03587629711426017</v>
@@ -4018,13 +4018,13 @@
         <v>-1.9375</v>
       </c>
       <c r="U40">
-        <v>1.000402265061732</v>
+        <v>0.0004022650617323542</v>
       </c>
       <c r="V40">
-        <v>0.9998153277931671</v>
+        <v>-0.0001846722068329365</v>
       </c>
       <c r="W40">
-        <v>1.000927643784787</v>
+        <v>0.0009276437847867136</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4059,7 +4059,7 @@
         <v>1.323139553817566</v>
       </c>
       <c r="K41">
-        <v>56.95480289349295</v>
+        <v>0.06954802893492951</v>
       </c>
       <c r="L41">
         <v>0.02979515981540693</v>
@@ -4089,13 +4089,13 @@
         <v>-1.75</v>
       </c>
       <c r="U41">
-        <v>1.000463965357253</v>
+        <v>0.0004639653572533486</v>
       </c>
       <c r="V41">
-        <v>0.9997537249107253</v>
+        <v>-0.0002462750892746612</v>
       </c>
       <c r="W41">
-        <v>1.000926784059314</v>
+        <v>0.000926784059314123</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4130,7 +4130,7 @@
         <v>1.243302805921886</v>
       </c>
       <c r="K42">
-        <v>55.42287036060433</v>
+        <v>0.05422870360604326</v>
       </c>
       <c r="L42">
         <v>0.02437316794844613</v>
@@ -4160,13 +4160,13 @@
         <v>-1.71875</v>
       </c>
       <c r="U42">
-        <v>1.000432833513681</v>
+        <v>0.0004328335136807304</v>
       </c>
       <c r="V42">
-        <v>0.9996304963665478</v>
+        <v>-0.0003695036334522284</v>
       </c>
       <c r="W42">
-        <v>0.9990740740740741</v>
+        <v>-0.0009259259259258856</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4201,7 +4201,7 @@
         <v>1.169050997251355</v>
       </c>
       <c r="K43">
-        <v>53.89688848868881</v>
+        <v>0.0389688848868881</v>
       </c>
       <c r="L43">
         <v>0.01926896730822538</v>
@@ -4231,13 +4231,13 @@
         <v>-1.625</v>
       </c>
       <c r="U43">
-        <v>1.000339936339194</v>
+        <v>0.000339936339194491</v>
       </c>
       <c r="V43">
-        <v>0.9995687530803351</v>
+        <v>-0.000431246919664896</v>
       </c>
       <c r="W43">
-        <v>0.9990732159406858</v>
+        <v>-0.000926784059314234</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4272,7 +4272,7 @@
         <v>1.231915649553499</v>
       </c>
       <c r="K44">
-        <v>55.19543938857846</v>
+        <v>0.0519543938857846</v>
       </c>
       <c r="L44">
         <v>0.01495122587716418</v>
@@ -4302,13 +4302,13 @@
         <v>-1.375</v>
       </c>
       <c r="U44">
-        <v>1.000308928019771</v>
+        <v>0.0003089280197712263</v>
       </c>
       <c r="V44">
-        <v>0.9994453004622494</v>
+        <v>-0.0005546995377505581</v>
       </c>
       <c r="W44">
-        <v>1.000927643784787</v>
+        <v>0.0009276437847867136</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4343,7 +4343,7 @@
         <v>1.628955558830195</v>
       </c>
       <c r="K45">
-        <v>61.96208046799507</v>
+        <v>0.1196208046799507</v>
       </c>
       <c r="L45">
         <v>0.01335884242489283</v>
@@ -4373,13 +4373,13 @@
         <v>-0.96875</v>
       </c>
       <c r="U45">
-        <v>1.000494132180358</v>
+        <v>0.0004941321803582088</v>
       </c>
       <c r="V45">
-        <v>0.999568327577701</v>
+        <v>-0.0004316724222990231</v>
       </c>
       <c r="W45">
-        <v>1.005560704355885</v>
+        <v>0.005560704355885182</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4414,7 +4414,7 @@
         <v>1.347393029297407</v>
       </c>
       <c r="K46">
-        <v>57.39954973371853</v>
+        <v>0.07399549733718525</v>
       </c>
       <c r="L46">
         <v>0.01245390852241379</v>
@@ -4444,13 +4444,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U46">
-        <v>1.000432152117545</v>
+        <v>0.0004321521175454368</v>
       </c>
       <c r="V46">
-        <v>0.999568141156148</v>
+        <v>-0.0004318588438519955</v>
       </c>
       <c r="W46">
-        <v>0.9972350230414746</v>
+        <v>-0.0027649769585254</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4485,7 +4485,7 @@
         <v>1.408041626784285</v>
       </c>
       <c r="K47">
-        <v>58.47247867822756</v>
+        <v>0.08472478678227557</v>
       </c>
       <c r="L47">
         <v>0.01231497671628659</v>
@@ -4515,13 +4515,13 @@
         <v>0.15625</v>
       </c>
       <c r="U47">
-        <v>1.000401110768282</v>
+        <v>0.0004011107682815318</v>
       </c>
       <c r="V47">
-        <v>0.9996913961239352</v>
+        <v>-0.0003086038760647947</v>
       </c>
       <c r="W47">
-        <v>1.000924214417745</v>
+        <v>0.0009242144177448175</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4556,7 +4556,7 @@
         <v>1.323545640662148</v>
       </c>
       <c r="K48">
-        <v>56.96232591691089</v>
+        <v>0.06962325916910894</v>
       </c>
       <c r="L48">
         <v>0.01226570004398266</v>
@@ -4586,13 +4586,13 @@
         <v>0.53125</v>
       </c>
       <c r="U48">
-        <v>1.000246738426426</v>
+        <v>0.0002467384264257522</v>
       </c>
       <c r="V48">
-        <v>1.000246959313453</v>
+        <v>0.0002469593134530879</v>
       </c>
       <c r="W48">
-        <v>0.9990766389658357</v>
+        <v>-0.0009233610341643494</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4627,7 +4627,7 @@
         <v>1.112687063048143</v>
       </c>
       <c r="K49">
-        <v>52.66691326460721</v>
+        <v>0.02666913264607207</v>
       </c>
       <c r="L49">
         <v>0.01121625066204346</v>
@@ -4657,13 +4657,13 @@
         <v>0.4375</v>
       </c>
       <c r="U49">
-        <v>1.000092504085597</v>
+        <v>9.250408559724477E-05</v>
       </c>
       <c r="V49">
-        <v>0.9998765508301958</v>
+        <v>-0.0001234491698042239</v>
       </c>
       <c r="W49">
-        <v>0.9972273567467652</v>
+        <v>-0.002772643253234786</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4698,7 +4698,7 @@
         <v>1.053781275334615</v>
       </c>
       <c r="K50">
-        <v>51.30932334373951</v>
+        <v>0.0130932334373951</v>
       </c>
       <c r="L50">
         <v>0.009250088189533523</v>
@@ -4728,13 +4728,13 @@
         <v>0.46875</v>
       </c>
       <c r="U50">
-        <v>1.000092495529383</v>
+        <v>9.249552938261907E-05</v>
       </c>
       <c r="V50">
-        <v>0.9998765355886164</v>
+        <v>-0.0001234644113835559</v>
       </c>
       <c r="W50">
-        <v>0.9990732159406858</v>
+        <v>-0.000926784059314234</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4769,7 +4769,7 @@
         <v>0.9481115109595795</v>
       </c>
       <c r="K51">
-        <v>48.66823616747529</v>
+        <v>-0.01331763832524707</v>
       </c>
       <c r="L51">
         <v>0.006145986307829981</v>
@@ -4799,13 +4799,13 @@
         <v>0.46875</v>
       </c>
       <c r="U51">
-        <v>1.000092486974751</v>
+        <v>9.248697475094936E-05</v>
       </c>
       <c r="V51">
-        <v>0.9998765203432736</v>
+        <v>-0.0001234796567264329</v>
       </c>
       <c r="W51">
-        <v>0.9981447124304267</v>
+        <v>-0.001855287569573316</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4840,7 +4840,7 @@
         <v>1.05366598751428</v>
       </c>
       <c r="K52">
-        <v>51.30658996741812</v>
+        <v>0.01306589967418115</v>
       </c>
       <c r="L52">
         <v>0.00320334424345097</v>
@@ -4870,13 +4870,13 @@
         <v>0.40625</v>
       </c>
       <c r="U52">
-        <v>1.000061652281135</v>
+        <v>6.16522811345277E-05</v>
       </c>
       <c r="V52">
-        <v>0.9998765050941648</v>
+        <v>-0.0001234949058351864</v>
       </c>
       <c r="W52">
-        <v>1.00185873605948</v>
+        <v>0.001858736059479504</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4911,7 +4911,7 @@
         <v>0.8620919556756294</v>
       </c>
       <c r="K53">
-        <v>46.29695934446124</v>
+        <v>-0.03703040655538764</v>
       </c>
       <c r="L53">
         <v>-0.0008149140902238037</v>
@@ -4941,13 +4941,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U53">
-        <v>0.9998458787990875</v>
+        <v>-0.0001541212009125159</v>
       </c>
       <c r="V53">
-        <v>0.9998147347619342</v>
+        <v>-0.0001852652380658348</v>
       </c>
       <c r="W53">
-        <v>0.9962894248608535</v>
+        <v>-0.003710575139146521</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4982,7 +4982,7 @@
         <v>0.7868006565298744</v>
       </c>
       <c r="K54">
-        <v>44.03404787515084</v>
+        <v>-0.05965952124849161</v>
       </c>
       <c r="L54">
         <v>-0.005900228053899777</v>
@@ -5012,13 +5012,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U54">
-        <v>0.9997533680673305</v>
+        <v>-0.0002466319326694943</v>
       </c>
       <c r="V54">
-        <v>0.9996294008647314</v>
+        <v>-0.0003705991352686011</v>
       </c>
       <c r="W54">
-        <v>0.9981378026070763</v>
+        <v>-0.001862197392923703</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5053,7 +5053,7 @@
         <v>0.8327667501577186</v>
       </c>
       <c r="K55">
-        <v>45.43768322325003</v>
+        <v>-0.04562316776749964</v>
       </c>
       <c r="L55">
         <v>-0.01094953883335687</v>
@@ -5083,13 +5083,13 @@
         <v>-1.03125</v>
       </c>
       <c r="U55">
-        <v>0.9997224706281416</v>
+        <v>-0.0002775293718584315</v>
       </c>
       <c r="V55">
-        <v>0.9996292634700938</v>
+        <v>-0.0003707365299061571</v>
       </c>
       <c r="W55">
-        <v>1.000932835820896</v>
+        <v>0.000932835820895539</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5124,7 +5124,7 @@
         <v>0.9295374735847591</v>
       </c>
       <c r="K56">
-        <v>48.17410837105088</v>
+        <v>-0.01825891628949117</v>
       </c>
       <c r="L56">
         <v>-0.01494163427203765</v>
@@ -5154,13 +5154,13 @@
         <v>-1.34375</v>
       </c>
       <c r="U56">
-        <v>0.9997223935842071</v>
+        <v>-0.0002776064157928859</v>
       </c>
       <c r="V56">
-        <v>0.999690938311287</v>
+        <v>-0.0003090616887130304</v>
       </c>
       <c r="W56">
-        <v>1.001863932898416</v>
+        <v>0.001863932898415577</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5195,7 +5195,7 @@
         <v>0.9804694332832015</v>
       </c>
       <c r="K57">
-        <v>49.50692077371725</v>
+        <v>-0.004930792262827499</v>
       </c>
       <c r="L57">
         <v>-0.01764781550317218</v>
@@ -5225,13 +5225,13 @@
         <v>-1.40625</v>
       </c>
       <c r="U57">
-        <v>0.9997223164974854</v>
+        <v>-0.0002776835025145585</v>
       </c>
       <c r="V57">
-        <v>0.9998145056575775</v>
+        <v>-0.000185494342422543</v>
       </c>
       <c r="W57">
-        <v>1.00093023255814</v>
+        <v>0.0009302325581395099</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5266,7 +5266,7 @@
         <v>0.8446222726032929</v>
       </c>
       <c r="K58">
-        <v>45.78835922930107</v>
+        <v>-0.04211640770698932</v>
       </c>
       <c r="L58">
         <v>-0.02035081819392305</v>
@@ -5296,13 +5296,13 @@
         <v>-1.53125</v>
       </c>
       <c r="U58">
-        <v>0.9996296524905871</v>
+        <v>-0.0003703475094128938</v>
       </c>
       <c r="V58">
-        <v>0.9996907854050712</v>
+        <v>-0.0003092145949288305</v>
       </c>
       <c r="W58">
-        <v>0.9972118959107806</v>
+        <v>-0.002788104089219368</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5337,7 +5337,7 @@
         <v>0.9418525763658279</v>
       </c>
       <c r="K59">
-        <v>48.50278480606919</v>
+        <v>-0.01497215193930812</v>
       </c>
       <c r="L59">
         <v>-0.02213148155027438</v>
@@ -5367,13 +5367,13 @@
         <v>-1.5</v>
       </c>
       <c r="U59">
-        <v>0.9995986415560357</v>
+        <v>-0.0004013584439642726</v>
       </c>
       <c r="V59">
-        <v>0.9997525518094649</v>
+        <v>-0.0002474481905351267</v>
       </c>
       <c r="W59">
-        <v>1.001863932898416</v>
+        <v>0.001863932898415577</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5408,7 +5408,7 @@
         <v>0.8544060884533267</v>
       </c>
       <c r="K60">
-        <v>46.07437894932424</v>
+        <v>-0.03925621050675759</v>
       </c>
       <c r="L60">
         <v>-0.02383465742556112</v>
@@ -5438,13 +5438,13 @@
         <v>-1.625</v>
       </c>
       <c r="U60">
-        <v>0.999413163665565</v>
+        <v>-0.0005868363344350147</v>
       </c>
       <c r="V60">
-        <v>0.999257471691108</v>
+        <v>-0.0007425283088919876</v>
       </c>
       <c r="W60">
-        <v>0.998139534883721</v>
+        <v>-0.00186046511627902</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5479,7 +5479,7 @@
         <v>0.9032719815636434</v>
       </c>
       <c r="K61">
-        <v>47.45890184447288</v>
+        <v>-0.02541098155527122</v>
       </c>
       <c r="L61">
         <v>-0.02495869214962616</v>
@@ -5509,13 +5509,13 @@
         <v>-1.28125</v>
       </c>
       <c r="U61">
-        <v>0.9995364361208975</v>
+        <v>-0.0004635638791025132</v>
       </c>
       <c r="V61">
-        <v>0.9995046132887485</v>
+        <v>-0.0004953867112514887</v>
       </c>
       <c r="W61">
-        <v>1.000931966449208</v>
+        <v>0.0009319664492077884</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5550,7 +5550,7 @@
         <v>1.006147546006416</v>
       </c>
       <c r="K62">
-        <v>50.15321769374972</v>
+        <v>0.001532176937497187</v>
       </c>
       <c r="L62">
         <v>-0.02489436525036866</v>
@@ -5580,13 +5580,13 @@
         <v>-0.84375</v>
       </c>
       <c r="U62">
-        <v>0.9996289769038124</v>
+        <v>-0.0003710230961876393</v>
       </c>
       <c r="V62">
-        <v>0.9995663217892323</v>
+        <v>-0.000433678210767674</v>
       </c>
       <c r="W62">
-        <v>1.001862197392924</v>
+        <v>0.001862197392923592</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5621,7 +5621,7 @@
         <v>1.006147546006416</v>
       </c>
       <c r="K63">
-        <v>50.15321769374972</v>
+        <v>0.001532176937497187</v>
       </c>
       <c r="L63">
         <v>-0.02402322762931081</v>
@@ -5651,13 +5651,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U63">
-        <v>0.9999381398657635</v>
+        <v>-6.186013423647996E-05</v>
       </c>
       <c r="V63">
-        <v>0.9996281145407215</v>
+        <v>-0.0003718854592784648</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5692,7 +5692,7 @@
         <v>1.177131863639832</v>
       </c>
       <c r="K64">
-        <v>54.06800953580495</v>
+        <v>0.04068009535804951</v>
       </c>
       <c r="L64">
         <v>-0.02161755501536309</v>
@@ -5722,13 +5722,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U64">
-        <v>0.9999381360388504</v>
+        <v>-6.186396114959969E-05</v>
       </c>
       <c r="V64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>1.002788104089219</v>
+        <v>0.002788104089219257</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5763,7 +5763,7 @@
         <v>1.051020919913605</v>
       </c>
       <c r="K65">
-        <v>51.24379325969416</v>
+        <v>0.01243793259694159</v>
       </c>
       <c r="L65">
         <v>-0.01903158234003866</v>
@@ -5793,13 +5793,13 @@
         <v>0.03125</v>
       </c>
       <c r="U65">
-        <v>0.9999071983171962</v>
+        <v>-9.28016828037892E-05</v>
       </c>
       <c r="V65">
-        <v>0.999937996031746</v>
+        <v>-6.200396825395416E-05</v>
       </c>
       <c r="W65">
-        <v>0.9981464318813716</v>
+        <v>-0.001853568118628357</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5834,7 +5834,7 @@
         <v>0.9949209492034969</v>
       </c>
       <c r="K66">
-        <v>49.87270044964611</v>
+        <v>-0.001272995503538876</v>
       </c>
       <c r="L66">
         <v>-0.01676956075845223</v>
@@ -5864,13 +5864,13 @@
         <v>0.28125</v>
       </c>
       <c r="U66">
-        <v>0.9999381264694964</v>
+        <v>-6.187353050357558E-05</v>
       </c>
       <c r="V66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>0.9990714948932219</v>
+        <v>-0.0009285051067781103</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5905,7 +5905,7 @@
         <v>1.051106891489343</v>
       </c>
       <c r="K67">
-        <v>51.24583686255944</v>
+        <v>0.01245836862559446</v>
       </c>
       <c r="L67">
         <v>-0.01444889304087863</v>
@@ -5935,13 +5935,13 @@
         <v>0.375</v>
       </c>
       <c r="U67">
-        <v>0.9999071839613884</v>
+        <v>-9.281603861155396E-05</v>
       </c>
       <c r="V67">
-        <v>0.9999379921870154</v>
+        <v>-6.200781298459912E-05</v>
       </c>
       <c r="W67">
-        <v>1.00092936802974</v>
+        <v>0.0009293680297397522</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5976,7 +5976,7 @@
         <v>1.110249988632338</v>
       </c>
       <c r="K68">
-        <v>52.61224947817182</v>
+        <v>0.02612249478171824</v>
       </c>
       <c r="L68">
         <v>-0.01184976515715662</v>
@@ -6006,13 +6006,13 @@
         <v>0.6875</v>
       </c>
       <c r="U68">
-        <v>1.000030941551409</v>
+        <v>3.094155140925814E-05</v>
       </c>
       <c r="V68">
-        <v>1.000248046632767</v>
+        <v>0.0002480466327670072</v>
       </c>
       <c r="W68">
-        <v>1.000928505106778</v>
+        <v>0.0009285051067779992</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6047,7 +6047,7 @@
         <v>1.110249988632338</v>
       </c>
       <c r="K69">
-        <v>52.61224947817182</v>
+        <v>0.02612249478171824</v>
       </c>
       <c r="L69">
         <v>-0.009204202157010712</v>
@@ -6077,13 +6077,13 @@
         <v>0.8125</v>
       </c>
       <c r="U69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>1.000371977681339</v>
+        <v>0.0003719776813391196</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6118,7 +6118,7 @@
         <v>1.110249988632338</v>
       </c>
       <c r="K70">
-        <v>52.61224947817182</v>
+        <v>0.02612249478171824</v>
       </c>
       <c r="L70">
         <v>-0.006665481020688912</v>
@@ -6148,13 +6148,13 @@
         <v>0.75</v>
       </c>
       <c r="U70">
-        <v>0.9999690594059406</v>
+        <v>-3.094059405939209E-05</v>
       </c>
       <c r="V70">
-        <v>1.000309866137828</v>
+        <v>0.0003098661378284628</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6189,7 +6189,7 @@
         <v>1.110249988632338</v>
       </c>
       <c r="K71">
-        <v>52.61224947817182</v>
+        <v>0.02612249478171824</v>
       </c>
       <c r="L71">
         <v>-0.004328975457141387</v>
@@ -6219,13 +6219,13 @@
         <v>0.71875</v>
       </c>
       <c r="U71">
-        <v>0.9999381168971813</v>
+        <v>-6.188310281873832E-05</v>
       </c>
       <c r="V71">
-        <v>1.000185862090329</v>
+        <v>0.0001858620903290031</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6260,7 +6260,7 @@
         <v>1.035089830674887</v>
       </c>
       <c r="K72">
-        <v>50.86211994541906</v>
+        <v>0.008621199454190598</v>
       </c>
       <c r="L72">
         <v>-0.002586287625822018</v>
@@ -6290,13 +6290,13 @@
         <v>0.53125</v>
       </c>
       <c r="U72">
-        <v>0.9999381130674259</v>
+        <v>-6.188693257414002E-05</v>
       </c>
       <c r="V72">
-        <v>1.000061942517344</v>
+        <v>6.194251734381595E-05</v>
       </c>
       <c r="W72">
-        <v>0.9990723562152134</v>
+        <v>-0.0009276437847866026</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6331,7 +6331,7 @@
         <v>1.035089830674887</v>
       </c>
       <c r="K73">
-        <v>50.86211994541906</v>
+        <v>0.008621199454190598</v>
       </c>
       <c r="L73">
         <v>-0.001305055529719228</v>
@@ -6361,13 +6361,13 @@
         <v>0.5</v>
       </c>
       <c r="U73">
-        <v>0.9999690546185982</v>
+        <v>-3.094538140180347E-05</v>
       </c>
       <c r="V73">
-        <v>1.000247754722824</v>
+        <v>0.0002477547228243449</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6402,7 +6402,7 @@
         <v>1.18511001399963</v>
       </c>
       <c r="K74">
-        <v>54.23571382707648</v>
+        <v>0.04235713827076482</v>
       </c>
       <c r="L74">
         <v>0.0002960112961902247</v>
@@ -6432,13 +6432,13 @@
         <v>0.5</v>
       </c>
       <c r="U74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>1.000247693355626</v>
+        <v>0.0002476933556256888</v>
       </c>
       <c r="W74">
-        <v>1.001857010213556</v>
+        <v>0.001857010213556221</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6473,7 +6473,7 @@
         <v>1.098383832956929</v>
       </c>
       <c r="K75">
-        <v>52.34427637622168</v>
+        <v>0.02344276376221677</v>
       </c>
       <c r="L75">
         <v>0.001649542403911109</v>
@@ -6503,13 +6503,13 @@
         <v>0.46875</v>
       </c>
       <c r="U75">
-        <v>0.9997833756266633</v>
+        <v>-0.0002166243733366935</v>
       </c>
       <c r="V75">
-        <v>1.000309540023525</v>
+        <v>0.0003095400235251233</v>
       </c>
       <c r="W75">
-        <v>0.9990732159406858</v>
+        <v>-0.000926784059314234</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6544,7 +6544,7 @@
         <v>1.098383832956929</v>
       </c>
       <c r="K76">
-        <v>52.34427637622168</v>
+        <v>0.02344276376221677</v>
       </c>
       <c r="L76">
         <v>0.00276080013383187</v>
@@ -6574,13 +6574,13 @@
         <v>0.3125</v>
       </c>
       <c r="U76">
-        <v>0.9998761878230723</v>
+        <v>-0.0001238121769276956</v>
       </c>
       <c r="V76">
-        <v>1.000247555390519</v>
+        <v>0.0002475553905185723</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6615,7 +6615,7 @@
         <v>1.098383832956928</v>
       </c>
       <c r="K77">
-        <v>52.34427637622168</v>
+        <v>0.02344276376221677</v>
       </c>
       <c r="L77">
         <v>0.003644370659883846</v>
@@ -6645,13 +6645,13 @@
         <v>0.1875</v>
       </c>
       <c r="U77">
-        <v>0.9998452156146487</v>
+        <v>-0.0001547843853513253</v>
       </c>
       <c r="V77">
-        <v>1.000123747061007</v>
+        <v>0.0001237470610071512</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6686,7 +6686,7 @@
         <v>1.183737215942818</v>
       </c>
       <c r="K78">
-        <v>54.20694428343775</v>
+        <v>0.04206944283437752</v>
       </c>
       <c r="L78">
         <v>0.004658524508344847</v>
@@ -6716,13 +6716,13 @@
         <v>0.15625</v>
       </c>
       <c r="U78">
-        <v>0.9999071149916404</v>
+        <v>-9.28850083595778E-05</v>
       </c>
       <c r="V78">
-        <v>1.000185597624351</v>
+        <v>0.000185597624350553</v>
       </c>
       <c r="W78">
-        <v>1.000927643784787</v>
+        <v>0.0009276437847867136</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6757,7 +6757,7 @@
         <v>1.183737215942818</v>
       </c>
       <c r="K79">
-        <v>54.20694428343775</v>
+        <v>0.04206944283437752</v>
       </c>
       <c r="L79">
         <v>0.005670113689867499</v>
@@ -6787,13 +6787,13 @@
         <v>0.125</v>
       </c>
       <c r="U79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6828,7 +6828,7 @@
         <v>1.081458904518074</v>
       </c>
       <c r="K80">
-        <v>51.95677426878947</v>
+        <v>0.01956774268789474</v>
       </c>
       <c r="L80">
         <v>0.006256850226867066</v>
@@ -6858,13 +6858,13 @@
         <v>0.21875</v>
       </c>
       <c r="U80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>1.000061854394755</v>
+        <v>6.18543947545902E-05</v>
       </c>
       <c r="W80">
-        <v>0.9990732159406858</v>
+        <v>-0.000926784059314234</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6899,7 +6899,7 @@
         <v>1.263359716619094</v>
       </c>
       <c r="K81">
-        <v>55.81789352097528</v>
+        <v>0.0581789352097527</v>
       </c>
       <c r="L81">
         <v>0.007202173499373245</v>
@@ -6929,13 +6929,13 @@
         <v>0.3125</v>
       </c>
       <c r="U81">
-        <v>1.000123858182381</v>
+        <v>0.0001238581823812535</v>
       </c>
       <c r="V81">
-        <v>1.000247402276101</v>
+        <v>0.0002474022761012051</v>
       </c>
       <c r="W81">
-        <v>1.001855287569573</v>
+        <v>0.001855287569573205</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6970,7 +6970,7 @@
         <v>1.15297686019626</v>
       </c>
       <c r="K82">
-        <v>53.55268240510294</v>
+        <v>0.03552682405102936</v>
       </c>
       <c r="L82">
         <v>0.00794005472476457</v>
@@ -7000,13 +7000,13 @@
         <v>0.21875</v>
       </c>
       <c r="U82">
-        <v>1.000030960710858</v>
+        <v>3.096071085795238E-05</v>
       </c>
       <c r="V82">
-        <v>1.000123670541677</v>
+        <v>0.0001236705416769457</v>
       </c>
       <c r="W82">
-        <v>0.9990740740740741</v>
+        <v>-0.0009259259259258856</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7041,7 +7041,7 @@
         <v>1.055867637676744</v>
       </c>
       <c r="K83">
-        <v>51.35873624967117</v>
+        <v>0.01358736249671166</v>
       </c>
       <c r="L83">
         <v>0.008138234897700441</v>
@@ -7071,13 +7071,13 @@
         <v>0.1875</v>
       </c>
       <c r="U83">
-        <v>1.000123839009288</v>
+        <v>0.0001238390092879182</v>
       </c>
       <c r="V83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83">
-        <v>0.9990732159406858</v>
+        <v>-0.000926784059314234</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7112,7 +7112,7 @@
         <v>1.144525300948208</v>
       </c>
       <c r="K84">
-        <v>53.36963385053806</v>
+        <v>0.03369633850538056</v>
       </c>
       <c r="L84">
         <v>0.008305230774040056</v>
@@ -7142,13 +7142,13 @@
         <v>0.21875</v>
       </c>
       <c r="U84">
-        <v>1.000216691431402</v>
+        <v>0.0002166914314016832</v>
       </c>
       <c r="V84">
-        <v>1.000061827624583</v>
+        <v>6.182762458251112E-05</v>
       </c>
       <c r="W84">
-        <v>1.000927643784787</v>
+        <v>0.0009276437847867136</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7183,7 +7183,7 @@
         <v>0.9645030190755539</v>
       </c>
       <c r="K85">
-        <v>49.09654043338783</v>
+        <v>-0.009034595666121692</v>
       </c>
       <c r="L85">
         <v>0.007736461823957362</v>
@@ -7213,13 +7213,13 @@
         <v>0.1875</v>
       </c>
       <c r="U85">
-        <v>1.00012379684937</v>
+        <v>0.0001237968493703612</v>
       </c>
       <c r="V85">
-        <v>0.9999381761978362</v>
+        <v>-6.182380216379624E-05</v>
       </c>
       <c r="W85">
-        <v>0.9981464318813716</v>
+        <v>-0.001853568118628357</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7254,7 +7254,7 @@
         <v>1.130071345661543</v>
       </c>
       <c r="K86">
-        <v>53.05321570393563</v>
+        <v>0.0305321570393563</v>
       </c>
       <c r="L86">
         <v>0.007406057706746448</v>
@@ -7284,13 +7284,13 @@
         <v>0.15625</v>
       </c>
       <c r="U86">
-        <v>1.000123781525607</v>
+        <v>0.0001237815256072139</v>
       </c>
       <c r="V86">
-        <v>1.000061827624583</v>
+        <v>6.182762458251112E-05</v>
       </c>
       <c r="W86">
-        <v>1.001857010213556</v>
+        <v>0.001857010213556221</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7325,7 +7325,7 @@
         <v>1.217212570180484</v>
       </c>
       <c r="K87">
-        <v>54.89832533654639</v>
+        <v>0.04898325336546394</v>
       </c>
       <c r="L87">
         <v>0.007552010025157253</v>
@@ -7355,13 +7355,13 @@
         <v>0.15625</v>
       </c>
       <c r="U87">
-        <v>1.000123766205638</v>
+        <v>0.0001237662056376987</v>
       </c>
       <c r="V87">
-        <v>1.000185471406491</v>
+        <v>0.0001854714064914997</v>
       </c>
       <c r="W87">
-        <v>1.000926784059314</v>
+        <v>0.000926784059314123</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7396,7 +7396,7 @@
         <v>1.492395384450826</v>
       </c>
       <c r="K88">
-        <v>59.87795490881395</v>
+        <v>0.09877954908813957</v>
       </c>
       <c r="L88">
         <v>0.008963297289713897</v>
@@ -7426,13 +7426,13 @@
         <v>0.28125</v>
       </c>
       <c r="U88">
-        <v>1.000309377223649</v>
+        <v>0.0003093772236486547</v>
       </c>
       <c r="V88">
-        <v>1.000370874026456</v>
+        <v>0.0003708740264558585</v>
       </c>
       <c r="W88">
-        <v>1.002777777777778</v>
+        <v>0.002777777777777768</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7467,7 +7467,7 @@
         <v>1.360984972227267</v>
       </c>
       <c r="K89">
-        <v>57.64479605913644</v>
+        <v>0.07644796059136438</v>
       </c>
       <c r="L89">
         <v>0.01068029053301406</v>
@@ -7497,13 +7497,13 @@
         <v>0.25</v>
       </c>
       <c r="U89">
-        <v>1.00021649707729</v>
+        <v>0.0002164970772895458</v>
       </c>
       <c r="V89">
-        <v>1.000185368264953</v>
+        <v>0.0001853682649530786</v>
       </c>
       <c r="W89">
-        <v>0.9990766389658357</v>
+        <v>-0.0009233610341643494</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7538,7 +7538,7 @@
         <v>1.453672708433253</v>
       </c>
       <c r="K90">
-        <v>59.24476819736356</v>
+        <v>0.09244768197363562</v>
       </c>
       <c r="L90">
         <v>0.01277165343676965</v>
@@ -7568,13 +7568,13 @@
         <v>0.375</v>
       </c>
       <c r="U90">
-        <v>1.000309214594929</v>
+        <v>0.0003092145949288305</v>
       </c>
       <c r="V90">
-        <v>1.00030888984988</v>
+        <v>0.0003088898498795345</v>
       </c>
       <c r="W90">
-        <v>1.000924214417745</v>
+        <v>0.0009242144177448175</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7609,7 +7609,7 @@
         <v>1.551238746544817</v>
       </c>
       <c r="K91">
-        <v>60.80335478777454</v>
+        <v>0.1080335478777454</v>
       </c>
       <c r="L91">
         <v>0.01524730676060721</v>
@@ -7639,13 +7639,13 @@
         <v>0.5625</v>
       </c>
       <c r="U91">
-        <v>1.000309119010819</v>
+        <v>0.0003091190108193143</v>
       </c>
       <c r="V91">
-        <v>1.000370553359684</v>
+        <v>0.0003705533596836119</v>
       </c>
       <c r="W91">
-        <v>1.000923361034164</v>
+        <v>0.0009233610341643494</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7680,7 +7680,7 @@
         <v>1.406762681877467</v>
       </c>
       <c r="K92">
-        <v>58.45041110493203</v>
+        <v>0.08450411104932032</v>
       </c>
       <c r="L92">
         <v>0.01740404519384943</v>
@@ -7710,13 +7710,13 @@
         <v>0.65625</v>
       </c>
       <c r="U92">
-        <v>1.000216316440049</v>
+        <v>0.000216316440049491</v>
       </c>
       <c r="V92">
-        <v>1.000308680083961</v>
+        <v>0.0003086800839611215</v>
       </c>
       <c r="W92">
-        <v>0.9990774907749077</v>
+        <v>-0.0009225092250922939</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7751,7 +7751,7 @@
         <v>1.176148589764039</v>
       </c>
       <c r="K93">
-        <v>54.0472555640867</v>
+        <v>0.04047255564086705</v>
       </c>
       <c r="L93">
         <v>0.01849091264586116</v>
@@ -7781,13 +7781,13 @@
         <v>0.8125</v>
       </c>
       <c r="U93">
-        <v>1.000154478326691</v>
+        <v>0.000154478326690688</v>
       </c>
       <c r="V93">
-        <v>1.000123433931988</v>
+        <v>0.0001234339319877709</v>
       </c>
       <c r="W93">
-        <v>0.9981532779316713</v>
+        <v>-0.001846722068328699</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7822,7 +7822,7 @@
         <v>1.262428841236481</v>
       </c>
       <c r="K94">
-        <v>55.79971481209231</v>
+        <v>0.05799714812092316</v>
       </c>
       <c r="L94">
         <v>0.01913065897877119</v>
@@ -7852,13 +7852,13 @@
         <v>0.90625</v>
       </c>
       <c r="U94">
-        <v>1.000092672680094</v>
+        <v>9.26726800940525E-05</v>
       </c>
       <c r="V94">
-        <v>1.000185128046899</v>
+        <v>0.0001851280468991856</v>
       </c>
       <c r="W94">
-        <v>1.000925069380203</v>
+        <v>0.0009250693802034249</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7893,7 +7893,7 @@
         <v>1.353250158575895</v>
       </c>
       <c r="K95">
-        <v>57.50558025649235</v>
+        <v>0.0750558025649235</v>
       </c>
       <c r="L95">
         <v>0.01972649526864174</v>
@@ -7923,13 +7923,13 @@
         <v>0.96875</v>
       </c>
       <c r="U95">
-        <v>1.000185328185328</v>
+        <v>0.0001853281853281263</v>
       </c>
       <c r="V95">
-        <v>1.000308489634748</v>
+        <v>0.0003084896347482768</v>
       </c>
       <c r="W95">
-        <v>1.000924214417745</v>
+        <v>0.0009242144177448175</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7964,7 +7964,7 @@
         <v>1.448851545248961</v>
       </c>
       <c r="K96">
-        <v>59.16453155602229</v>
+        <v>0.09164531556022293</v>
       </c>
       <c r="L96">
         <v>0.02052307365947691</v>
@@ -7994,13 +7994,13 @@
         <v>0.84375</v>
       </c>
       <c r="U96">
-        <v>1.000247058460208</v>
+        <v>0.0002470584602083381</v>
       </c>
       <c r="V96">
-        <v>1.000246715598594</v>
+        <v>0.0002467155985939051</v>
       </c>
       <c r="W96">
-        <v>1.000923361034164</v>
+        <v>0.0009233610341643494</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8035,7 +8035,7 @@
         <v>1.316380205238655</v>
       </c>
       <c r="K97">
-        <v>56.82919419970735</v>
+        <v>0.06829194199707345</v>
       </c>
       <c r="L97">
         <v>0.02097784521957667</v>
@@ -8065,13 +8065,13 @@
         <v>0.8125</v>
       </c>
       <c r="U97">
-        <v>1.000185248078051</v>
+        <v>0.0001852480780510923</v>
       </c>
       <c r="V97">
-        <v>1.000246654745021</v>
+        <v>0.0002466547450206136</v>
       </c>
       <c r="W97">
-        <v>0.9990774907749077</v>
+        <v>-0.0009225092250922939</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8106,7 +8106,7 @@
         <v>1.200809308841633</v>
       </c>
       <c r="K98">
-        <v>54.56216965356544</v>
+        <v>0.0456216965356544</v>
       </c>
       <c r="L98">
         <v>0.02078264152563016</v>
@@ -8136,13 +8136,13 @@
         <v>0.65625</v>
       </c>
       <c r="U98">
-        <v>1.000123475845038</v>
+        <v>0.0001234758450379125</v>
       </c>
       <c r="V98">
-        <v>1.00024659392146</v>
+        <v>0.000246593921459759</v>
       </c>
       <c r="W98">
-        <v>0.9990766389658357</v>
+        <v>-0.0009233610341643494</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8177,7 +8177,7 @@
         <v>1.200809308841633</v>
       </c>
       <c r="K99">
-        <v>54.56216965356544</v>
+        <v>0.0456216965356544</v>
       </c>
       <c r="L99">
         <v>0.02013053683542112</v>
@@ -8207,13 +8207,13 @@
         <v>0.40625</v>
       </c>
       <c r="U99">
-        <v>1.000123460600636</v>
+        <v>0.0001234606006357275</v>
       </c>
       <c r="V99">
-        <v>1.000184899845917</v>
+        <v>0.0001848998459166307</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8248,7 +8248,7 @@
         <v>1.200809308841632</v>
       </c>
       <c r="K100">
-        <v>54.56216965356543</v>
+        <v>0.04562169653565429</v>
       </c>
       <c r="L100">
         <v>0.01916999263583413</v>
@@ -8278,13 +8278,13 @@
         <v>0.25</v>
       </c>
       <c r="U100">
-        <v>1.000123445359998</v>
+        <v>0.0001234453599976426</v>
       </c>
       <c r="V100">
-        <v>1.000308109440473</v>
+        <v>0.0003081094404733253</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8319,7 +8319,7 @@
         <v>1.303208452053597</v>
       </c>
       <c r="K101">
-        <v>56.58230590859566</v>
+        <v>0.06582305908595665</v>
       </c>
       <c r="L101">
         <v>0.01835122828379592</v>
@@ -8349,13 +8349,13 @@
         <v>0.1875</v>
       </c>
       <c r="U101">
-        <v>1.000154287653902</v>
+        <v>0.0001542876539020188</v>
       </c>
       <c r="V101">
-        <v>1.000246411630629</v>
+        <v>0.0002464116306288844</v>
       </c>
       <c r="W101">
-        <v>1.000924214417745</v>
+        <v>0.0009242144177448175</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8390,7 +8390,7 @@
         <v>1.176405394698768</v>
       </c>
       <c r="K102">
-        <v>54.05267775774799</v>
+        <v>0.04052677757747991</v>
       </c>
       <c r="L102">
         <v>0.01726650481067685</v>
@@ -8420,13 +8420,13 @@
         <v>0.09375</v>
       </c>
       <c r="U102">
-        <v>1.000154263852894</v>
+        <v>0.0001542638528937434</v>
       </c>
       <c r="V102">
-        <v>1.000123175463448</v>
+        <v>0.0001231754634476445</v>
       </c>
       <c r="W102">
-        <v>0.9990766389658357</v>
+        <v>-0.0009233610341643494</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8461,7 +8461,7 @@
         <v>1.278827154063845</v>
       </c>
       <c r="K103">
-        <v>56.11777759376377</v>
+        <v>0.06117777593763774</v>
       </c>
       <c r="L103">
         <v>0.01636403018412084</v>
@@ -8491,13 +8491,13 @@
         <v>0</v>
       </c>
       <c r="U103">
-        <v>1.000185088071074</v>
+        <v>0.0001850880710738689</v>
       </c>
       <c r="V103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W103">
-        <v>1.000924214417745</v>
+        <v>0.0009242144177448175</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8532,7 +8532,7 @@
         <v>1.386639532342873</v>
       </c>
       <c r="K104">
-        <v>58.10008229360308</v>
+        <v>0.08100082293603084</v>
       </c>
       <c r="L104">
         <v>0.015906745442617</v>
@@ -8562,13 +8562,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U104">
-        <v>1.000154211516516</v>
+        <v>0.0001542115165160673</v>
       </c>
       <c r="V104">
-        <v>1.000123160293122</v>
+        <v>0.0001231602931215381</v>
       </c>
       <c r="W104">
-        <v>1.000923361034164</v>
+        <v>0.0009233610341643494</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8603,7 +8603,7 @@
         <v>1.386639532342873</v>
       </c>
       <c r="K105">
-        <v>58.10008229360309</v>
+        <v>0.08100082293603084</v>
       </c>
       <c r="L105">
         <v>0.01569012431711081</v>
@@ -8633,13 +8633,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U105">
-        <v>1.000185025286789</v>
+        <v>0.0001850252867892088</v>
       </c>
       <c r="V105">
-        <v>1.000061572563266</v>
+        <v>6.157256326577709E-05</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8674,7 +8674,7 @@
         <v>1.119233046759273</v>
       </c>
       <c r="K106">
-        <v>52.81311786218141</v>
+        <v>0.02813117862181402</v>
       </c>
       <c r="L106">
         <v>0.01490205677427342</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="U106">
-        <v>1.00012332737251</v>
+        <v>0.0001233273725103068</v>
       </c>
       <c r="V106">
-        <v>0.9998768624553628</v>
+        <v>-0.0001231375446372196</v>
       </c>
       <c r="W106">
-        <v>0.9981549815498155</v>
+        <v>-0.001845018450184477</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8745,7 +8745,7 @@
         <v>1.220730409475105</v>
       </c>
       <c r="K107">
-        <v>54.96977049833071</v>
+        <v>0.04969770498330706</v>
       </c>
       <c r="L107">
         <v>0.01410074307339004</v>
@@ -8775,13 +8775,13 @@
         <v>0.09375</v>
       </c>
       <c r="U107">
-        <v>1.000154140205931</v>
+        <v>0.0001541402059312968</v>
       </c>
       <c r="V107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W107">
-        <v>1.000924214417745</v>
+        <v>0.0009242144177448175</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8816,7 +8816,7 @@
         <v>1.102897572663487</v>
       </c>
       <c r="K108">
-        <v>52.44656644244349</v>
+        <v>0.02446566442443487</v>
       </c>
       <c r="L108">
         <v>0.01295435226842192</v>
@@ -8846,13 +8846,13 @@
         <v>0.125</v>
       </c>
       <c r="U108">
-        <v>1.000092469870234</v>
+        <v>9.246987023381337E-05</v>
       </c>
       <c r="V108">
-        <v>1.00006157635468</v>
+        <v>6.157635467984868E-05</v>
       </c>
       <c r="W108">
-        <v>0.9990766389658357</v>
+        <v>-0.0009233610341643494</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8887,7 +8887,7 @@
         <v>1.204504417305126</v>
       </c>
       <c r="K109">
-        <v>54.63833085794221</v>
+        <v>0.04638330857942219</v>
       </c>
       <c r="L109">
         <v>0.01196164513315261</v>
@@ -8917,13 +8917,13 @@
         <v>0.0625</v>
       </c>
       <c r="U109">
-        <v>1.000123281760464</v>
+        <v>0.0001232817604637226</v>
       </c>
       <c r="V109">
-        <v>1.000061572563266</v>
+        <v>6.157256326577709E-05</v>
       </c>
       <c r="W109">
-        <v>1.000924214417745</v>
+        <v>0.0009242144177448175</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8958,7 +8958,7 @@
         <v>1.204504417305125</v>
       </c>
       <c r="K110">
-        <v>54.63833085794221</v>
+        <v>0.04638330857942219</v>
       </c>
       <c r="L110">
         <v>0.01108171361729799</v>
@@ -8988,13 +8988,13 @@
         <v>0.09375</v>
       </c>
       <c r="U110">
-        <v>1.00015408320493</v>
+        <v>0.0001540832049304885</v>
       </c>
       <c r="V110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9029,7 +9029,7 @@
         <v>1.317088178680902</v>
       </c>
       <c r="K111">
-        <v>56.84238479999102</v>
+        <v>0.06842384799991019</v>
       </c>
       <c r="L111">
         <v>0.01062243817507285</v>
@@ -9059,13 +9059,13 @@
         <v>0.125</v>
       </c>
       <c r="U111">
-        <v>1.000123247573564</v>
+        <v>0.000123247573563523</v>
       </c>
       <c r="V111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W111">
-        <v>1.000923361034164</v>
+        <v>0.0009233610341643494</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9100,7 +9100,7 @@
         <v>1.317088178680902</v>
       </c>
       <c r="K112">
-        <v>56.84238479999102</v>
+        <v>0.06842384799991019</v>
       </c>
       <c r="L112">
         <v>0.01040845614004432</v>
@@ -9130,13 +9130,13 @@
         <v>0.125</v>
       </c>
       <c r="U112">
-        <v>1.000154040481839</v>
+        <v>0.0001540404818387575</v>
       </c>
       <c r="V112">
-        <v>1.000061568772319</v>
+        <v>6.156877231866531E-05</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9171,7 +9171,7 @@
         <v>1.317088178680902</v>
       </c>
       <c r="K113">
-        <v>56.84238479999103</v>
+        <v>0.0684238479999103</v>
       </c>
       <c r="L113">
         <v>0.01031870675017348</v>
@@ -9201,13 +9201,13 @@
         <v>0.09375</v>
       </c>
       <c r="U113">
-        <v>1.000184820108428</v>
+        <v>0.0001848201084275747</v>
       </c>
       <c r="V113">
-        <v>1.000123129963677</v>
+        <v>0.0001231299636768046</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9242,7 +9242,7 @@
         <v>1.317088178680902</v>
       </c>
       <c r="K114">
-        <v>56.84238479999103</v>
+        <v>0.0684238479999103</v>
       </c>
       <c r="L114">
         <v>0.01027227962987282</v>
@@ -9272,13 +9272,13 @@
         <v>0.15625</v>
       </c>
       <c r="U114">
-        <v>1.00015398829689</v>
+        <v>0.0001539882968895068</v>
       </c>
       <c r="V114">
-        <v>1.000123114804555</v>
+        <v>0.000123114804555291</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9313,7 +9313,7 @@
         <v>1.455311502781578</v>
       </c>
       <c r="K115">
-        <v>59.27197022181837</v>
+        <v>0.09271970221818371</v>
       </c>
       <c r="L115">
         <v>0.01055407805739567</v>
@@ -9343,13 +9343,13 @@
         <v>0.1875</v>
       </c>
       <c r="U115">
-        <v>1.000246343341032</v>
+        <v>0.0002463433410315741</v>
       </c>
       <c r="V115">
-        <v>1.000184649473749</v>
+        <v>0.0001846494737487436</v>
       </c>
       <c r="W115">
-        <v>1.000922509225092</v>
+        <v>0.0009225092250921829</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9384,7 +9384,7 @@
         <v>1.127277676260989</v>
       </c>
       <c r="K116">
-        <v>52.99156235411398</v>
+        <v>0.02991562354113986</v>
       </c>
       <c r="L116">
         <v>0.01030523646183703</v>
@@ -9414,13 +9414,13 @@
         <v>0.21875</v>
       </c>
       <c r="U116">
-        <v>1.000123141335468</v>
+        <v>0.000123141335467869</v>
       </c>
       <c r="V116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W116">
-        <v>0.9981566820276497</v>
+        <v>-0.001843317972350267</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9455,7 +9455,7 @@
         <v>1.00772701853302</v>
       </c>
       <c r="K117">
-        <v>50.19243200050838</v>
+        <v>0.001924320005083802</v>
       </c>
       <c r="L117">
         <v>0.009376921510848363</v>
@@ -9485,13 +9485,13 @@
         <v>0.1875</v>
       </c>
       <c r="U117">
-        <v>1.000061563086773</v>
+        <v>6.156308677307543E-05</v>
       </c>
       <c r="V117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W117">
-        <v>0.9990766389658357</v>
+        <v>-0.0009233610341643494</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9526,7 +9526,7 @@
         <v>1.00772701853302</v>
       </c>
       <c r="K118">
-        <v>50.19243200050836</v>
+        <v>0.00192432000508358</v>
       </c>
       <c r="L118">
         <v>0.00806216596362311</v>
@@ -9556,13 +9556,13 @@
         <v>0.125</v>
       </c>
       <c r="U118">
-        <v>0.9999692203515036</v>
+        <v>-3.077964849640402E-05</v>
       </c>
       <c r="V118">
-        <v>0.9999384615384616</v>
+        <v>-6.153846153844622E-05</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9597,7 +9597,7 @@
         <v>1.125236755073747</v>
       </c>
       <c r="K119">
-        <v>52.94641890544099</v>
+        <v>0.02946418905440995</v>
       </c>
       <c r="L119">
         <v>0.006904215210102392</v>
@@ -9627,13 +9627,13 @@
         <v>0.0625</v>
       </c>
       <c r="U119">
-        <v>1.000030780595912</v>
+        <v>3.078059591232751E-05</v>
       </c>
       <c r="V119">
-        <v>0.9999384577512462</v>
+        <v>-6.154224875376535E-05</v>
       </c>
       <c r="W119">
-        <v>1.000924214417745</v>
+        <v>0.0009242144177448175</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9668,7 +9668,7 @@
         <v>1.248931214590302</v>
       </c>
       <c r="K120">
-        <v>55.53443371178543</v>
+        <v>0.05534433711785425</v>
       </c>
       <c r="L120">
         <v>0.006226251151335168</v>
@@ -9698,13 +9698,13 @@
         <v>0.0625</v>
       </c>
       <c r="U120">
-        <v>1.000030779648496</v>
+        <v>3.077964849640402E-05</v>
       </c>
       <c r="V120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W120">
-        <v>1.000923361034164</v>
+        <v>0.0009233610341643494</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9739,7 +9739,7 @@
         <v>1.509340603046207</v>
       </c>
       <c r="K121">
-        <v>60.14889334727806</v>
+        <v>0.1014889334727807</v>
       </c>
       <c r="L121">
         <v>0.006532179137428078</v>
@@ -9769,13 +9769,13 @@
         <v>0.125</v>
       </c>
       <c r="U121">
-        <v>1.000061557402278</v>
+        <v>6.155740227753448E-05</v>
       </c>
       <c r="V121">
-        <v>1.000246184145741</v>
+        <v>0.0002461841457410685</v>
       </c>
       <c r="W121">
-        <v>1.001845018450185</v>
+        <v>0.001845018450184588</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9810,7 +9810,7 @@
         <v>1.069564754998946</v>
       </c>
       <c r="K122">
-        <v>51.6806614731652</v>
+        <v>0.01680661473165201</v>
       </c>
       <c r="L122">
         <v>0.006381792793887492</v>
@@ -9840,13 +9840,13 @@
         <v>0.03125</v>
       </c>
       <c r="U122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W122">
-        <v>0.9972375690607734</v>
+        <v>-0.002762430939226568</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9881,7 +9881,7 @@
         <v>1.069564754998946</v>
       </c>
       <c r="K123">
-        <v>51.6806614731652</v>
+        <v>0.01680661473165201</v>
       </c>
       <c r="L123">
         <v>0.005941360285713741</v>
@@ -9911,13 +9911,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U123">
-        <v>1.000061553613197</v>
+        <v>6.155361319715169E-05</v>
       </c>
       <c r="V123">
-        <v>1.000061530888506</v>
+        <v>6.153088850591182E-05</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9952,7 +9952,7 @@
         <v>1.177180459773303</v>
       </c>
       <c r="K124">
-        <v>54.06903476875205</v>
+        <v>0.04069034768752045</v>
       </c>
       <c r="L124">
         <v>0.005667947758374699</v>
@@ -9982,13 +9982,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U124">
-        <v>1.000061549824583</v>
+        <v>6.154982458284053E-05</v>
       </c>
       <c r="V124">
-        <v>1.000061527102689</v>
+        <v>6.152710268869654E-05</v>
       </c>
       <c r="W124">
-        <v>1.000923361034164</v>
+        <v>0.0009233610341643494</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10023,7 +10023,7 @@
         <v>1.177180459773303</v>
       </c>
       <c r="K125">
-        <v>54.06903476875205</v>
+        <v>0.04069034768752045</v>
       </c>
       <c r="L125">
         <v>0.005492474630598048</v>
@@ -10053,13 +10053,13 @@
         <v>0</v>
       </c>
       <c r="U125">
-        <v>1.000030773018218</v>
+        <v>3.077301821763356E-05</v>
       </c>
       <c r="V125">
-        <v>1.000061523317337</v>
+        <v>6.152331733733085E-05</v>
       </c>
       <c r="W125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10094,7 +10094,7 @@
         <v>1.177180459773303</v>
       </c>
       <c r="K126">
-        <v>54.06903476875205</v>
+        <v>0.04069034768752045</v>
       </c>
       <c r="L126">
         <v>0.00536749491741408</v>
@@ -10124,13 +10124,13 @@
         <v>0.09375</v>
       </c>
       <c r="U126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10165,7 +10165,7 @@
         <v>0.9409650060946213</v>
       </c>
       <c r="K127">
-        <v>48.47923600580101</v>
+        <v>-0.01520763994198993</v>
       </c>
       <c r="L127">
         <v>0.004589099768361547</v>
@@ -10195,13 +10195,13 @@
         <v>0.09375</v>
       </c>
       <c r="U127">
-        <v>0.9999692279287319</v>
+        <v>-3.077207126811476E-05</v>
       </c>
       <c r="V127">
-        <v>0.9998769609350968</v>
+        <v>-0.0001230390649031854</v>
       </c>
       <c r="W127">
-        <v>0.9981549815498155</v>
+        <v>-0.001845018450184477</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10236,7 +10236,7 @@
         <v>1.25779983449312</v>
       </c>
       <c r="K128">
-        <v>55.70909410468169</v>
+        <v>0.05709094104681689</v>
       </c>
       <c r="L128">
         <v>0.004456403816658438</v>
@@ -10266,13 +10266,13 @@
         <v>0.125</v>
       </c>
       <c r="U128">
-        <v>1.000092319054653</v>
+        <v>9.231905465290069E-05</v>
       </c>
       <c r="V128">
-        <v>1.000061527102689</v>
+        <v>6.152710268869654E-05</v>
       </c>
       <c r="W128">
-        <v>1.002772643253235</v>
+        <v>0.002772643253234675</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10307,7 +10307,7 @@
         <v>1.25779983449312</v>
       </c>
       <c r="K129">
-        <v>55.70909410468169</v>
+        <v>0.05709094104681689</v>
       </c>
       <c r="L129">
         <v>0.004707036717666131</v>
@@ -10337,13 +10337,13 @@
         <v>0.03125</v>
       </c>
       <c r="U129">
-        <v>1.000092310532632</v>
+        <v>9.231053263181188E-05</v>
       </c>
       <c r="V129">
-        <v>1.000061523317337</v>
+        <v>6.152331733733085E-05</v>
       </c>
       <c r="W129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10378,7 +10378,7 @@
         <v>1.126030431522511</v>
       </c>
       <c r="K130">
-        <v>52.96398465548438</v>
+        <v>0.02963984655484386</v>
       </c>
       <c r="L130">
         <v>0.004820564177110496</v>
@@ -10408,13 +10408,13 @@
         <v>0.09375</v>
       </c>
       <c r="U130">
-        <v>1.000061534674789</v>
+        <v>6.153467478919872E-05</v>
       </c>
       <c r="V130">
-        <v>0.9999384804675483</v>
+        <v>-6.151953245170372E-05</v>
       </c>
       <c r="W130">
-        <v>0.9990783410138249</v>
+        <v>-0.0009216589861751334</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10449,7 +10449,7 @@
         <v>1.236306034128072</v>
       </c>
       <c r="K131">
-        <v>55.28340107574335</v>
+        <v>0.05283401075743344</v>
       </c>
       <c r="L131">
         <v>0.005162379036282121</v>
@@ -10479,13 +10479,13 @@
         <v>0.21875</v>
       </c>
       <c r="U131">
-        <v>1.000061530888506</v>
+        <v>6.153088850591182E-05</v>
       </c>
       <c r="V131">
-        <v>1.000123046634675</v>
+        <v>0.0001230466346746617</v>
       </c>
       <c r="W131">
-        <v>1.000922509225092</v>
+        <v>0.0009225092250921829</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10520,7 +10520,7 @@
         <v>1.003365531719594</v>
       </c>
       <c r="K132">
-        <v>50.08399694579713</v>
+        <v>0.000839969457971268</v>
       </c>
       <c r="L132">
         <v>0.004929607414787218</v>
@@ -10550,13 +10550,13 @@
         <v>0.15625</v>
       </c>
       <c r="U132">
-        <v>1.000030763551344</v>
+        <v>3.076355134434827E-05</v>
       </c>
       <c r="V132">
-        <v>1.000061515748031</v>
+        <v>6.151574803148208E-05</v>
       </c>
       <c r="W132">
-        <v>0.9981566820276497</v>
+        <v>-0.001843317972350267</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10591,7 +10591,7 @@
         <v>0.9128420867733134</v>
       </c>
       <c r="K133">
-        <v>47.72176925033813</v>
+        <v>-0.02278230749661864</v>
       </c>
       <c r="L133">
         <v>0.004009578293501314</v>
@@ -10621,13 +10621,13 @@
         <v>0.03125</v>
       </c>
       <c r="U133">
-        <v>0.9999692373950226</v>
+        <v>-3.076260497736349E-05</v>
       </c>
       <c r="V133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W133">
-        <v>0.9990766389658357</v>
+        <v>-0.0009233610341643494</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10662,7 +10662,7 @@
         <v>0.9128420867733134</v>
       </c>
       <c r="K134">
-        <v>47.72176925033813</v>
+        <v>-0.02278230749661864</v>
       </c>
       <c r="L134">
         <v>0.002717315070162228</v>
@@ -10692,13 +10692,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U134">
-        <v>0.9999384728973113</v>
+        <v>-6.152710268869654E-05</v>
       </c>
       <c r="V134">
-        <v>0.999938488035923</v>
+        <v>-6.151196407699899E-05</v>
       </c>
       <c r="W134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10733,7 +10733,7 @@
         <v>0.9128420867733134</v>
       </c>
       <c r="K135">
-        <v>47.72176925033813</v>
+        <v>-0.02278230749661864</v>
       </c>
       <c r="L135">
         <v>0.001272039076311423</v>
@@ -10763,13 +10763,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U135">
-        <v>0.999938469111494</v>
+        <v>-6.153088850602284E-05</v>
       </c>
       <c r="V135">
-        <v>0.9998769685039369</v>
+        <v>-0.0001230314960630752</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10804,7 +10804,7 @@
         <v>1.123297972058047</v>
       </c>
       <c r="K136">
-        <v>52.90345428857869</v>
+        <v>0.02903454288578688</v>
       </c>
       <c r="L136">
         <v>0.0004936880159262469</v>
@@ -10834,13 +10834,13 @@
         <v>-0.125</v>
       </c>
       <c r="U136">
-        <v>1.000061534674789</v>
+        <v>6.153467478919872E-05</v>
       </c>
       <c r="V136">
-        <v>0.9998769533653256</v>
+        <v>-0.0001230466346744397</v>
       </c>
       <c r="W136">
-        <v>1.00184842883549</v>
+        <v>0.001848428835489857</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10875,7 +10875,7 @@
         <v>1.123297972058047</v>
       </c>
       <c r="K137">
-        <v>52.90345428857869</v>
+        <v>0.02903454288578688</v>
       </c>
       <c r="L137">
         <v>0.000167147148436717</v>
@@ -10905,13 +10905,13 @@
         <v>-0.125</v>
       </c>
       <c r="U137">
-        <v>1.000030765444253</v>
+        <v>3.076544425306693E-05</v>
       </c>
       <c r="V137">
-        <v>1.000061530888506</v>
+        <v>6.153088850591182E-05</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10946,7 +10946,7 @@
         <v>1.123297972058047</v>
       </c>
       <c r="K138">
-        <v>52.90345428857869</v>
+        <v>0.02903454288578688</v>
       </c>
       <c r="L138">
         <v>0.000134515713571719</v>
@@ -10976,13 +10976,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U138">
-        <v>1.000061528995539</v>
+        <v>6.152899553901747E-05</v>
       </c>
       <c r="V138">
-        <v>1.000061527102689</v>
+        <v>6.152710268869654E-05</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11017,7 +11017,7 @@
         <v>1.123297972058047</v>
       </c>
       <c r="K139">
-        <v>52.90345428857869</v>
+        <v>0.02903454288578688</v>
       </c>
       <c r="L139">
         <v>0.0002815301021353699</v>
@@ -11047,13 +11047,13 @@
         <v>-0.25</v>
       </c>
       <c r="U139">
-        <v>1.000030762604977</v>
+        <v>3.076260497736349E-05</v>
       </c>
       <c r="V139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11088,7 +11088,7 @@
         <v>1.123297972058047</v>
       </c>
       <c r="K140">
-        <v>52.90345428857868</v>
+        <v>0.02903454288578677</v>
       </c>
       <c r="L140">
         <v>0.0005269838438639293</v>
@@ -11118,13 +11118,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U140">
-        <v>1.000030761658669</v>
+        <v>3.076165866877645E-05</v>
       </c>
       <c r="V140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11159,7 +11159,7 @@
         <v>1.123297972058047</v>
       </c>
       <c r="K141">
-        <v>52.90345428857866</v>
+        <v>0.02903454288578666</v>
       </c>
       <c r="L141">
         <v>0.000814511754708895</v>
@@ -11189,13 +11189,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11230,7 +11230,7 @@
         <v>1.123297972058047</v>
       </c>
       <c r="K142">
-        <v>52.90345428857868</v>
+        <v>0.02903454288578677</v>
       </c>
       <c r="L142">
         <v>0.001106236751180994</v>
@@ -11260,13 +11260,13 @@
         <v>0.0625</v>
       </c>
       <c r="U142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V142">
-        <v>1.000123046634675</v>
+        <v>0.0001230466346746617</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11301,7 +11301,7 @@
         <v>1.424665071398078</v>
       </c>
       <c r="K143">
-        <v>58.75719035192795</v>
+        <v>0.08757190351927946</v>
       </c>
       <c r="L143">
         <v>0.002050018460145288</v>
@@ -11331,13 +11331,13 @@
         <v>0.1875</v>
       </c>
       <c r="U143">
-        <v>1.000061521424836</v>
+        <v>6.152142483606404E-05</v>
       </c>
       <c r="V143">
-        <v>1.000061515748031</v>
+        <v>6.151574803148208E-05</v>
       </c>
       <c r="W143">
-        <v>1.001845018450185</v>
+        <v>0.001845018450184588</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11372,7 +11372,7 @@
         <v>0.9653230564700348</v>
       </c>
       <c r="K144">
-        <v>49.11778006634061</v>
+        <v>-0.008822199336593839</v>
       </c>
       <c r="L144">
         <v>0.002312991228730418</v>
@@ -11402,13 +11402,13 @@
         <v>0.1875</v>
       </c>
       <c r="U144">
-        <v>0.9999692411799084</v>
+        <v>-3.075882009162534E-05</v>
       </c>
       <c r="V144">
-        <v>0.9998769760718461</v>
+        <v>-0.000123023928153887</v>
       </c>
       <c r="W144">
-        <v>0.9972375690607734</v>
+        <v>-0.002762430939226568</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11443,7 +11443,7 @@
         <v>0.7872088709028597</v>
       </c>
       <c r="K145">
-        <v>44.04683099548284</v>
+        <v>-0.05953169004517156</v>
       </c>
       <c r="L145">
         <v>0.001466244165320285</v>
@@ -11473,13 +11473,13 @@
         <v>0.125</v>
       </c>
       <c r="U145">
-        <v>0.9998769609350968</v>
+        <v>-0.0001230390649031854</v>
       </c>
       <c r="V145">
-        <v>0.9998154414026453</v>
+        <v>-0.0001845585973546671</v>
       </c>
       <c r="W145">
-        <v>0.9981532779316713</v>
+        <v>-0.001846722068328699</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11514,7 +11514,7 @@
         <v>0.7175283638183642</v>
       </c>
       <c r="K146">
-        <v>41.77679850498502</v>
+        <v>-0.08223201495014976</v>
       </c>
       <c r="L146">
         <v>-0.0003401699471197421</v>
@@ -11544,13 +11544,13 @@
         <v>0</v>
       </c>
       <c r="U146">
-        <v>0.999907709345967</v>
+        <v>-9.229065403304482E-05</v>
       </c>
       <c r="V146">
-        <v>0.9996923455574699</v>
+        <v>-0.0003076544425301142</v>
       </c>
       <c r="W146">
-        <v>0.9990749306197965</v>
+        <v>-0.0009250693802035359</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11585,7 +11585,7 @@
         <v>0.8107030026027089</v>
       </c>
       <c r="K147">
-        <v>44.77283140511737</v>
+        <v>-0.05227168594882625</v>
       </c>
       <c r="L147">
         <v>-0.00227559171296966</v>
@@ -11615,13 +11615,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U147">
-        <v>0.9999692336092053</v>
+        <v>-3.076639079468979E-05</v>
       </c>
       <c r="V147">
-        <v>0.9998769003508339</v>
+        <v>-0.0001230996491661251</v>
       </c>
       <c r="W147">
-        <v>1.000925925925926</v>
+        <v>0.0009259259259259967</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11656,7 +11656,7 @@
         <v>0.7382923470705561</v>
       </c>
       <c r="K148">
-        <v>42.47227736547065</v>
+        <v>-0.07527722634529355</v>
       </c>
       <c r="L148">
         <v>-0.004493712016039588</v>
@@ -11686,13 +11686,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U148">
-        <v>0.9999384653252106</v>
+        <v>-6.153467478942076E-05</v>
       </c>
       <c r="V148">
-        <v>0.9998768851954447</v>
+        <v>-0.000123114804555291</v>
       </c>
       <c r="W148">
-        <v>0.9990749306197965</v>
+        <v>-0.0009250693802035359</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11727,7 +11727,7 @@
         <v>0.738292347070556</v>
       </c>
       <c r="K149">
-        <v>42.47227736547064</v>
+        <v>-0.0752772263452936</v>
       </c>
       <c r="L149">
         <v>-0.006725585930224454</v>
@@ -11757,13 +11757,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U149">
-        <v>0.9999076923076924</v>
+        <v>-9.230769230761382E-05</v>
       </c>
       <c r="V149">
-        <v>0.9998768700363234</v>
+        <v>-0.0001231299636765826</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11798,7 +11798,7 @@
         <v>0.8372600492678358</v>
       </c>
       <c r="K150">
-        <v>45.57112367416312</v>
+        <v>-0.04428876325836884</v>
       </c>
       <c r="L150">
         <v>-0.008463235694594024</v>
@@ -11828,13 +11828,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U150">
-        <v>0.9999076837861958</v>
+        <v>-9.231621380423327E-05</v>
       </c>
       <c r="V150">
-        <v>0.9999384274367342</v>
+        <v>-6.157256326577709E-05</v>
       </c>
       <c r="W150">
-        <v>1.000925925925926</v>
+        <v>0.0009259259259259967</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11869,7 +11869,7 @@
         <v>0.6378980392297711</v>
       </c>
       <c r="K151">
-        <v>38.94613852335677</v>
+        <v>-0.1105386147664323</v>
       </c>
       <c r="L151">
         <v>-0.01076845700399131</v>
@@ -11899,13 +11899,13 @@
         <v>-0.9375</v>
       </c>
       <c r="U151">
-        <v>0.9997538007016677</v>
+        <v>-0.0002461992983322503</v>
       </c>
       <c r="V151">
-        <v>0.9996305418719211</v>
+        <v>-0.00036945812807887</v>
       </c>
       <c r="W151">
-        <v>0.9972247918593895</v>
+        <v>-0.002775208140610497</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11940,7 +11940,7 @@
         <v>0.5887121869575077</v>
       </c>
       <c r="K152">
-        <v>37.05593699038287</v>
+        <v>-0.1294406300961713</v>
       </c>
       <c r="L152">
         <v>-0.01356808559461002</v>
@@ -11970,13 +11970,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U152">
-        <v>0.9998153050544851</v>
+        <v>-0.0001846949455148739</v>
       </c>
       <c r="V152">
-        <v>0.9995688062091905</v>
+        <v>-0.0004311937908094698</v>
       </c>
       <c r="W152">
-        <v>0.9990723562152134</v>
+        <v>-0.0009276437847866026</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12011,7 +12011,7 @@
         <v>0.6698765394953203</v>
       </c>
       <c r="K153">
-        <v>40.11533329869849</v>
+        <v>-0.09884666701301503</v>
       </c>
       <c r="L153">
         <v>-0.01610395179364269</v>
@@ -12041,13 +12041,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U153">
-        <v>0.9998460591133004</v>
+        <v>-0.0001539408866996217</v>
       </c>
       <c r="V153">
-        <v>0.9996302458864856</v>
+        <v>-0.0003697541135143645</v>
       </c>
       <c r="W153">
-        <v>1.000928505106778</v>
+        <v>0.0009285051067779992</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12082,7 +12082,7 @@
         <v>0.6698765394953202</v>
       </c>
       <c r="K154">
-        <v>40.11533329869849</v>
+        <v>-0.09884666701301503</v>
       </c>
       <c r="L154">
         <v>-0.01826036427756507</v>
@@ -12112,13 +12112,13 @@
         <v>-1.03125</v>
       </c>
       <c r="U154">
-        <v>0.9998152424942263</v>
+        <v>-0.0001847575057737361</v>
       </c>
       <c r="V154">
-        <v>0.9996301091178101</v>
+        <v>-0.0003698908821898605</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12153,7 +12153,7 @@
         <v>0.6698765394953201</v>
       </c>
       <c r="K155">
-        <v>40.11533329869849</v>
+        <v>-0.09884666701301514</v>
       </c>
       <c r="L155">
         <v>-0.01998350549990998</v>
@@ -12183,13 +12183,13 @@
         <v>-1.03125</v>
       </c>
       <c r="U155">
-        <v>0.9998152083525824</v>
+        <v>-0.0001847916474175815</v>
       </c>
       <c r="V155">
-        <v>0.9996299722479185</v>
+        <v>-0.0003700277520815032</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12224,7 +12224,7 @@
         <v>0.7645426453857564</v>
       </c>
       <c r="K156">
-        <v>43.32809112803366</v>
+        <v>-0.06671908871966337</v>
       </c>
       <c r="L156">
         <v>-0.02092563949066455</v>
@@ -12254,13 +12254,13 @@
         <v>-0.9375</v>
       </c>
       <c r="U156">
-        <v>0.9998459784985986</v>
+        <v>-0.0001540215014014246</v>
       </c>
       <c r="V156">
-        <v>0.9996915293972485</v>
+        <v>-0.0003084706027515205</v>
       </c>
       <c r="W156">
-        <v>1.000927643784787</v>
+        <v>0.0009276437847867136</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12295,7 +12295,7 @@
         <v>0.6952609154456898</v>
       </c>
       <c r="K157">
-        <v>41.0120300132622</v>
+        <v>-0.08987969986737804</v>
       </c>
       <c r="L157">
         <v>-0.02159494602553914</v>
@@ -12325,13 +12325,13 @@
         <v>-0.875</v>
       </c>
       <c r="U157">
-        <v>0.9998767638178568</v>
+        <v>-0.0001232361821431605</v>
       </c>
       <c r="V157">
-        <v>0.9996297210565291</v>
+        <v>-0.0003702789434708587</v>
       </c>
       <c r="W157">
-        <v>0.9990732159406858</v>
+        <v>-0.000926784059314234</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12366,7 +12366,7 @@
         <v>0.6347166144162696</v>
       </c>
       <c r="K158">
-        <v>38.82731776375298</v>
+        <v>-0.1117268223624702</v>
       </c>
       <c r="L158">
         <v>-0.02231450641826118</v>
@@ -12396,13 +12396,13 @@
         <v>-0.90625</v>
       </c>
       <c r="U158">
-        <v>0.9997534972576571</v>
+        <v>-0.0002465027423429467</v>
       </c>
       <c r="V158">
-        <v>0.9994443758488704</v>
+        <v>-0.0005556241511296411</v>
       </c>
       <c r="W158">
-        <v>0.9990723562152134</v>
+        <v>-0.0009276437847866026</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12437,7 +12437,7 @@
         <v>0.6347166144162695</v>
       </c>
       <c r="K159">
-        <v>38.82731776375298</v>
+        <v>-0.1117268223624702</v>
       </c>
       <c r="L159">
         <v>-0.02293789652442639</v>
@@ -12467,13 +12467,13 @@
         <v>-0.6875</v>
       </c>
       <c r="U159">
-        <v>0.9997534364790729</v>
+        <v>-0.0002465635209271122</v>
       </c>
       <c r="V159">
-        <v>0.9996293779726975</v>
+        <v>-0.0003706220273025362</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12508,7 +12508,7 @@
         <v>0.7312057116791816</v>
       </c>
       <c r="K160">
-        <v>42.23678946680167</v>
+        <v>-0.07763210533198328</v>
       </c>
       <c r="L160">
         <v>-0.02304350300938853</v>
@@ -12538,13 +12538,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U160">
-        <v>0.9998150317528823</v>
+        <v>-0.0001849682471176672</v>
       </c>
       <c r="V160">
-        <v>0.9998146202805415</v>
+        <v>-0.0001853797194585338</v>
       </c>
       <c r="W160">
-        <v>1.000928505106778</v>
+        <v>0.0009285051067779992</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12579,7 +12579,7 @@
         <v>0.6637865868952334</v>
       </c>
       <c r="K161">
-        <v>39.89613764911492</v>
+        <v>-0.1010386235088508</v>
       </c>
       <c r="L161">
         <v>-0.02308160259033942</v>
@@ -12609,13 +12609,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U161">
-        <v>0.9997533300444006</v>
+        <v>-0.0002466699555994101</v>
       </c>
       <c r="V161">
-        <v>0.999814585908529</v>
+        <v>-0.0001854140914709923</v>
       </c>
       <c r="W161">
-        <v>0.9990723562152134</v>
+        <v>-0.0009276437847866026</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12650,7 +12650,7 @@
         <v>0.7608420374190036</v>
       </c>
       <c r="K162">
-        <v>43.2089887253161</v>
+        <v>-0.06791011274683895</v>
       </c>
       <c r="L162">
         <v>-0.02265578071710745</v>
@@ -12680,13 +12680,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U162">
-        <v>0.9998457932395758</v>
+        <v>-0.0001542067604242137</v>
       </c>
       <c r="V162">
-        <v>0.9998145515237683</v>
+        <v>-0.0001854484762316977</v>
       </c>
       <c r="W162">
-        <v>1.000928505106778</v>
+        <v>0.0009285051067779992</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12721,7 +12721,7 @@
         <v>0.6903167689796048</v>
       </c>
       <c r="K163">
-        <v>40.83949125088128</v>
+        <v>-0.09160508749118718</v>
       </c>
       <c r="L163">
         <v>-0.02223041197348714</v>
@@ -12751,13 +12751,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U163">
-        <v>0.9998457694561831</v>
+        <v>-0.0001542305438169134</v>
       </c>
       <c r="V163">
-        <v>0.999814517126252</v>
+        <v>-0.0001854828737479775</v>
       </c>
       <c r="W163">
-        <v>0.9990723562152134</v>
+        <v>-0.0009276437847866026</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12792,7 +12792,7 @@
         <v>0.628948776136565</v>
       </c>
       <c r="K164">
-        <v>38.61071541047871</v>
+        <v>-0.1138928458952129</v>
       </c>
       <c r="L164">
         <v>-0.02208867177734214</v>
@@ -12822,13 +12822,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U164">
-        <v>0.9998148947985438</v>
+        <v>-0.0001851052014562038</v>
       </c>
       <c r="V164">
-        <v>0.9997526436212973</v>
+        <v>-0.0002473563787026567</v>
       </c>
       <c r="W164">
-        <v>0.9990714948932219</v>
+        <v>-0.0009285051067781103</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12863,7 +12863,7 @@
         <v>0.6289487761365651</v>
       </c>
       <c r="K165">
-        <v>38.61071541047871</v>
+        <v>-0.1138928458952129</v>
       </c>
       <c r="L165">
         <v>-0.02204777692696767</v>
@@ -12893,13 +12893,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U165">
-        <v>0.9998148605282646</v>
+        <v>-0.0001851394717353738</v>
       </c>
       <c r="V165">
-        <v>0.9996907280262264</v>
+        <v>-0.0003092719737736171</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12934,7 +12934,7 @@
         <v>0.6289487761365651</v>
       </c>
       <c r="K166">
-        <v>38.61071541047871</v>
+        <v>-0.1138928458952129</v>
       </c>
       <c r="L166">
         <v>-0.02199063652111132</v>
@@ -12964,13 +12964,13 @@
         <v>-0.25</v>
       </c>
       <c r="U166">
-        <v>0.9997531016603913</v>
+        <v>-0.0002468983396086699</v>
       </c>
       <c r="V166">
-        <v>0.9998762529389926</v>
+        <v>-0.0001237470610073732</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13005,7 +13005,7 @@
         <v>0.569861743220849</v>
       </c>
       <c r="K167">
-        <v>36.30012296826069</v>
+        <v>-0.1369987703173931</v>
       </c>
       <c r="L167">
         <v>-0.02218470280547263</v>
@@ -13035,13 +13035,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U167">
-        <v>0.9997221707723652</v>
+        <v>-0.0002778292276347516</v>
       </c>
       <c r="V167">
-        <v>0.9998762376237625</v>
+        <v>-0.0001237623762374573</v>
       </c>
       <c r="W167">
-        <v>0.9990706319702602</v>
+        <v>-0.0009293680297397522</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13076,7 +13076,7 @@
         <v>0.5698617432208489</v>
       </c>
       <c r="K168">
-        <v>36.30012296826068</v>
+        <v>-0.1369987703173932</v>
       </c>
       <c r="L168">
         <v>-0.02243828098540441</v>
@@ -13106,13 +13106,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U168">
-        <v>0.9997220935618343</v>
+        <v>-0.0002779064381657204</v>
       </c>
       <c r="V168">
-        <v>0.999814333457111</v>
+        <v>-0.0001856665428889848</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13147,7 +13147,7 @@
         <v>0.5161347209962434</v>
       </c>
       <c r="K169">
-        <v>34.04280067256121</v>
+        <v>-0.1595719932743879</v>
       </c>
       <c r="L169">
         <v>-0.02296780451019545</v>
@@ -13177,13 +13177,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U169">
-        <v>0.9996911292315294</v>
+        <v>-0.0003088707684706371</v>
       </c>
       <c r="V169">
-        <v>0.9997523986381925</v>
+        <v>-0.0002476013618074591</v>
       </c>
       <c r="W169">
-        <v>0.9990697674418605</v>
+        <v>-0.0009302325581395099</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13218,7 +13218,7 @@
         <v>0.5161347209962434</v>
       </c>
       <c r="K170">
-        <v>34.04280067256121</v>
+        <v>-0.1595719932743879</v>
       </c>
       <c r="L170">
         <v>-0.02354771765421867</v>
@@ -13248,13 +13248,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U170">
-        <v>0.9996910338009023</v>
+        <v>-0.0003089661990977044</v>
       </c>
       <c r="V170">
-        <v>0.9997523373165749</v>
+        <v>-0.0002476626834251316</v>
       </c>
       <c r="W170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13289,7 +13289,7 @@
         <v>0.5161347209962434</v>
       </c>
       <c r="K171">
-        <v>34.04280067256121</v>
+        <v>-0.1595719932743879</v>
       </c>
       <c r="L171">
         <v>-0.02403596023081395</v>
@@ -13319,13 +13319,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U171">
-        <v>0.999690938311287</v>
+        <v>-0.0003090616887130304</v>
       </c>
       <c r="V171">
-        <v>0.9996903449557194</v>
+        <v>-0.000309655044280599</v>
       </c>
       <c r="W171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13360,7 +13360,7 @@
         <v>0.5161347209962434</v>
       </c>
       <c r="K172">
-        <v>34.04280067256121</v>
+        <v>-0.1595719932743879</v>
       </c>
       <c r="L172">
         <v>-0.02435044569189296</v>
@@ -13390,13 +13390,13 @@
         <v>-0.625</v>
       </c>
       <c r="U172">
-        <v>0.999690842762629</v>
+        <v>-0.0003091572373710161</v>
       </c>
       <c r="V172">
-        <v>0.9997521992318175</v>
+        <v>-0.0002478007681825378</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13431,7 +13431,7 @@
         <v>0.4625890687285245</v>
       </c>
       <c r="K173">
-        <v>31.62809558878133</v>
+        <v>-0.1837190441121866</v>
       </c>
       <c r="L173">
         <v>-0.02478897334939275</v>
@@ -13461,13 +13461,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U173">
-        <v>0.9995979713013361</v>
+        <v>-0.0004020286986639032</v>
       </c>
       <c r="V173">
-        <v>0.9997521378113768</v>
+        <v>-0.0002478621886231602</v>
       </c>
       <c r="W173">
-        <v>0.9990689013035382</v>
+        <v>-0.0009310986964617962</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13502,7 +13502,7 @@
         <v>0.4625890687285246</v>
       </c>
       <c r="K174">
-        <v>31.62809558878133</v>
+        <v>-0.1837190441121866</v>
       </c>
       <c r="L174">
         <v>-0.02518499216642381</v>
@@ -13532,13 +13532,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U174">
-        <v>0.999690622776351</v>
+        <v>-0.0003093772236489878</v>
       </c>
       <c r="V174">
-        <v>0.999752076360481</v>
+        <v>-0.0002479236395189766</v>
       </c>
       <c r="W174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13573,7 +13573,7 @@
         <v>0.4148962060778503</v>
       </c>
       <c r="K175">
-        <v>29.32343759885818</v>
+        <v>-0.2067656240114182</v>
       </c>
       <c r="L175">
         <v>-0.02577662512410821</v>
@@ -13603,13 +13603,13 @@
         <v>-0.75</v>
       </c>
       <c r="U175">
-        <v>0.9997214743292174</v>
+        <v>-0.0002785256707825701</v>
       </c>
       <c r="V175">
-        <v>0.999628022318661</v>
+        <v>-0.0003719776813390085</v>
       </c>
       <c r="W175">
-        <v>0.9990680335507922</v>
+        <v>-0.0009319664492077884</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13644,7 +13644,7 @@
         <v>0.5234223618179493</v>
       </c>
       <c r="K176">
-        <v>34.35832208694458</v>
+        <v>-0.1564167791305542</v>
       </c>
       <c r="L176">
         <v>-0.02601793806799015</v>
@@ -13674,13 +13674,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U176">
-        <v>0.9997833085685983</v>
+        <v>-0.0002166914314016832</v>
       </c>
       <c r="V176">
-        <v>0.9997519225998511</v>
+        <v>-0.0002480774001488717</v>
       </c>
       <c r="W176">
-        <v>1.000932835820896</v>
+        <v>0.000932835820895539</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13715,7 +13715,7 @@
         <v>0.5234223618179493</v>
       </c>
       <c r="K177">
-        <v>34.35832208694458</v>
+        <v>-0.1564167791305542</v>
       </c>
       <c r="L177">
         <v>-0.02593715248356333</v>
@@ -13745,13 +13745,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U177">
-        <v>0.9997522989751371</v>
+        <v>-0.0002477010248629341</v>
       </c>
       <c r="V177">
-        <v>0.9996898263027294</v>
+        <v>-0.0003101736972705993</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13786,7 +13786,7 @@
         <v>0.6436729498956213</v>
       </c>
       <c r="K178">
-        <v>39.16064627920638</v>
+        <v>-0.1083935372079363</v>
       </c>
       <c r="L178">
         <v>-0.02523399779427717</v>
@@ -13816,13 +13816,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U178">
-        <v>0.9998141782031031</v>
+        <v>-0.0001858217968968567</v>
       </c>
       <c r="V178">
-        <v>0.9998138380390942</v>
+        <v>-0.0001861619609058174</v>
       </c>
       <c r="W178">
-        <v>1.000931966449208</v>
+        <v>0.0009319664492077884</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13857,7 +13857,7 @@
         <v>0.770252516293171</v>
       </c>
       <c r="K179">
-        <v>43.51088385435797</v>
+        <v>-0.06489116145642027</v>
       </c>
       <c r="L179">
         <v>-0.02376833832989844</v>
@@ -13887,13 +13887,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U179">
-        <v>0.9998451197224547</v>
+        <v>-0.0001548802775452884</v>
       </c>
       <c r="V179">
-        <v>0.9999379344587883</v>
+        <v>-6.206554121168661E-05</v>
       </c>
       <c r="W179">
-        <v>1.000931098696462</v>
+        <v>0.0009310986964619072</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13928,7 +13928,7 @@
         <v>1.036735813972223</v>
       </c>
       <c r="K180">
-        <v>50.90183060857012</v>
+        <v>0.0090183060857012</v>
       </c>
       <c r="L180">
         <v>-0.02117057449044597</v>
@@ -13958,13 +13958,13 @@
         <v>-0.25</v>
       </c>
       <c r="U180">
-        <v>0.9998760765846706</v>
+        <v>-0.0001239234153294078</v>
       </c>
       <c r="V180">
-        <v>1.000062069393582</v>
+        <v>6.20693935822203E-05</v>
       </c>
       <c r="W180">
-        <v>1.001860465116279</v>
+        <v>0.00186046511627902</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13999,7 +13999,7 @@
         <v>1.317244548371224</v>
       </c>
       <c r="K181">
-        <v>56.84529711363899</v>
+        <v>0.06845297113638993</v>
       </c>
       <c r="L181">
         <v>-0.0172978565834392</v>
@@ -14029,13 +14029,13 @@
         <v>0.03125</v>
       </c>
       <c r="U181">
-        <v>1.000030984693561</v>
+        <v>3.098469356133116E-05</v>
       </c>
       <c r="V181">
-        <v>1.000186196623634</v>
+        <v>0.0001861966236342827</v>
       </c>
       <c r="W181">
-        <v>1.001857010213556</v>
+        <v>0.001857010213556221</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14070,7 +14070,7 @@
         <v>1.464880724370699</v>
       </c>
       <c r="K182">
-        <v>59.43008559753711</v>
+        <v>0.09430085597537108</v>
       </c>
       <c r="L182">
         <v>-0.01249718589453512</v>
@@ -14100,13 +14100,13 @@
         <v>0.34375</v>
       </c>
       <c r="U182">
-        <v>1.00009295120062</v>
+        <v>9.295120061980633E-05</v>
       </c>
       <c r="V182">
-        <v>1.000310269934843</v>
+        <v>0.000310269934843399</v>
       </c>
       <c r="W182">
-        <v>1.000926784059314</v>
+        <v>0.000926784059314123</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14141,7 +14141,7 @@
         <v>1.117536004006085</v>
       </c>
       <c r="K183">
-        <v>52.77530119402275</v>
+        <v>0.0277530119402275</v>
       </c>
       <c r="L183">
         <v>-0.008071084737504463</v>
@@ -14171,13 +14171,13 @@
         <v>0.625</v>
       </c>
       <c r="U183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V183">
-        <v>1.000186104218362</v>
+        <v>0.0001861042183621819</v>
       </c>
       <c r="W183">
-        <v>0.9981481481481481</v>
+        <v>-0.001851851851851882</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14212,7 +14212,7 @@
         <v>0.993544441055016</v>
       </c>
       <c r="K184">
-        <v>49.8380884114736</v>
+        <v>-0.001619115885264033</v>
       </c>
       <c r="L184">
         <v>-0.004463146093492736</v>
@@ -14242,13 +14242,13 @@
         <v>0.8125</v>
       </c>
       <c r="U184">
-        <v>0.9999690191461676</v>
+        <v>-3.098085383235194E-05</v>
       </c>
       <c r="V184">
-        <v>1.000186069590027</v>
+        <v>0.0001860695900266496</v>
       </c>
       <c r="W184">
-        <v>0.9990723562152134</v>
+        <v>-0.0009276437847866026</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14283,7 +14283,7 @@
         <v>1.227125165465619</v>
       </c>
       <c r="K185">
-        <v>55.09906602887616</v>
+        <v>0.05099066028876154</v>
       </c>
       <c r="L185">
         <v>-0.0008877643730548846</v>
@@ -14313,13 +14313,13 @@
         <v>1.03125</v>
       </c>
       <c r="U185">
-        <v>1.000030981813675</v>
+        <v>3.098181367544584E-05</v>
       </c>
       <c r="V185">
-        <v>1.000310058290959</v>
+        <v>0.000310058290958759</v>
       </c>
       <c r="W185">
-        <v>1.001857010213556</v>
+        <v>0.001857010213556221</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14354,7 +14354,7 @@
         <v>1.092781626544155</v>
       </c>
       <c r="K186">
-        <v>52.21670587526534</v>
+        <v>0.02216705875265346</v>
       </c>
       <c r="L186">
         <v>0.002104628234745295</v>
@@ -14384,13 +14384,13 @@
         <v>1.15625</v>
       </c>
       <c r="U186">
-        <v>0.9999690191461676</v>
+        <v>-3.098085383235194E-05</v>
       </c>
       <c r="V186">
-        <v>1.000247969747691</v>
+        <v>0.0002479697476907017</v>
       </c>
       <c r="W186">
-        <v>0.9990732159406858</v>
+        <v>-0.000926784059314234</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14425,7 +14425,7 @@
         <v>1.208021909667694</v>
       </c>
       <c r="K187">
-        <v>54.71059432782081</v>
+        <v>0.04710594327820805</v>
       </c>
       <c r="L187">
         <v>0.004883751178935865</v>
@@ -14455,13 +14455,13 @@
         <v>1.25</v>
       </c>
       <c r="U187">
-        <v>1.000030981813675</v>
+        <v>3.098181367544584E-05</v>
       </c>
       <c r="V187">
-        <v>1.000309885342423</v>
+        <v>0.0003098853424232662</v>
       </c>
       <c r="W187">
-        <v>1.000927643784787</v>
+        <v>0.0009276437847867136</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14496,7 +14496,7 @@
         <v>0.8857006620999849</v>
       </c>
       <c r="K188">
-        <v>46.96931384187119</v>
+        <v>-0.03030686158128809</v>
       </c>
       <c r="L188">
         <v>0.006323107210441947</v>
@@ -14526,13 +14526,13 @@
         <v>1.125</v>
       </c>
       <c r="U188">
-        <v>0.9999690191461676</v>
+        <v>-3.098085383235194E-05</v>
       </c>
       <c r="V188">
-        <v>1.000185873605948</v>
+        <v>0.000185873605947906</v>
       </c>
       <c r="W188">
-        <v>0.9972196478220574</v>
+        <v>-0.002780352177942591</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14567,7 +14567,7 @@
         <v>1.072940932628309</v>
       </c>
       <c r="K189">
-        <v>51.75935868408529</v>
+        <v>0.01759358684085288</v>
       </c>
       <c r="L189">
         <v>0.007512952431474031</v>
@@ -14597,13 +14597,13 @@
         <v>0.90625</v>
       </c>
       <c r="U189">
-        <v>1.000030981813675</v>
+        <v>3.098181367544584E-05</v>
       </c>
       <c r="V189">
-        <v>1.000309731772285</v>
+        <v>0.0003097317722851045</v>
       </c>
       <c r="W189">
-        <v>1.00185873605948</v>
+        <v>0.001858736059479504</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14638,7 +14638,7 @@
         <v>1.171488443432691</v>
       </c>
       <c r="K190">
-        <v>53.94863817837321</v>
+        <v>0.03948638178373209</v>
       </c>
       <c r="L190">
         <v>0.008786781080690457</v>
@@ -14668,13 +14668,13 @@
         <v>0.65625</v>
       </c>
       <c r="U190">
-        <v>1.000030980853832</v>
+        <v>3.098085383235194E-05</v>
       </c>
       <c r="V190">
-        <v>1.000433490215507</v>
+        <v>0.0004334902155065379</v>
       </c>
       <c r="W190">
-        <v>1.000927643784787</v>
+        <v>0.0009276437847867136</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14709,7 +14709,7 @@
         <v>1.378956887231388</v>
       </c>
       <c r="K191">
-        <v>57.9647699642093</v>
+        <v>0.07964769964209306</v>
       </c>
       <c r="L191">
         <v>0.01067492354064682</v>
@@ -14739,13 +14739,13 @@
         <v>0.5625</v>
       </c>
       <c r="U191">
-        <v>1.000123919576195</v>
+        <v>0.000123919576194842</v>
       </c>
       <c r="V191">
-        <v>1.000495202723615</v>
+        <v>0.0004952027236149181</v>
       </c>
       <c r="W191">
-        <v>1.001853568118628</v>
+        <v>0.001853568118628468</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14780,7 +14780,7 @@
         <v>1.24320631867544</v>
       </c>
       <c r="K192">
-        <v>55.42095296029319</v>
+        <v>0.05420952960293191</v>
       </c>
       <c r="L192">
         <v>0.0124372332543239</v>
@@ -14810,13 +14810,13 @@
         <v>0.53125</v>
       </c>
       <c r="U192">
-        <v>1.000061952111018</v>
+        <v>6.195211101833742E-05</v>
       </c>
       <c r="V192">
-        <v>1.000433087916847</v>
+        <v>0.0004330879168470414</v>
       </c>
       <c r="W192">
-        <v>0.9990749306197965</v>
+        <v>-0.0009250693802035359</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14851,7 +14851,7 @@
         <v>1.450457664450217</v>
       </c>
       <c r="K193">
-        <v>59.19129660930668</v>
+        <v>0.09191296609306676</v>
       </c>
       <c r="L193">
         <v>0.01464203897560053</v>
@@ -14881,13 +14881,13 @@
         <v>0.4375</v>
       </c>
       <c r="U193">
-        <v>1.000154870682979</v>
+        <v>0.0001548706829794799</v>
       </c>
       <c r="V193">
-        <v>1.000494743351886</v>
+        <v>0.0004947433518862621</v>
       </c>
       <c r="W193">
-        <v>1.001851851851852</v>
+        <v>0.001851851851851771</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14922,7 +14922,7 @@
         <v>1.450457664450216</v>
       </c>
       <c r="K194">
-        <v>59.19129660930667</v>
+        <v>0.09191296609306665</v>
       </c>
       <c r="L194">
         <v>0.01692045661905067</v>
@@ -14952,13 +14952,13 @@
         <v>0.4375</v>
       </c>
       <c r="U194">
-        <v>1.000185816042118</v>
+        <v>0.0001858160421184252</v>
       </c>
       <c r="V194">
-        <v>1.000432686364198</v>
+        <v>0.0004326863641983536</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14993,7 +14993,7 @@
         <v>1.450457664450216</v>
       </c>
       <c r="K195">
-        <v>59.19129660930667</v>
+        <v>0.09191296609306665</v>
       </c>
       <c r="L195">
         <v>0.01903601246145215</v>
@@ -15023,13 +15023,13 @@
         <v>0.40625</v>
       </c>
       <c r="U195">
-        <v>1.000185781520931</v>
+        <v>0.0001857815209314051</v>
       </c>
       <c r="V195">
-        <v>1.000308928019771</v>
+        <v>0.0003089280197712263</v>
       </c>
       <c r="W195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15064,7 +15064,7 @@
         <v>1.294053349954033</v>
       </c>
       <c r="K196">
-        <v>56.40903468875135</v>
+        <v>0.06409034688751347</v>
       </c>
       <c r="L196">
         <v>0.0205100066065029</v>
@@ -15094,13 +15094,13 @@
         <v>0.59375</v>
       </c>
       <c r="U196">
-        <v>1.000154789177141</v>
+        <v>0.000154789177140735</v>
       </c>
       <c r="V196">
-        <v>1.00012353304509</v>
+        <v>0.0001235330450897187</v>
       </c>
       <c r="W196">
-        <v>0.9990757855822551</v>
+        <v>-0.0009242144177449285</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15135,7 +15135,7 @@
         <v>1.294053349954033</v>
       </c>
       <c r="K197">
-        <v>56.40903468875135</v>
+        <v>0.06409034688751347</v>
       </c>
       <c r="L197">
         <v>0.02142641707324809</v>
@@ -15165,13 +15165,13 @@
         <v>0.71875</v>
       </c>
       <c r="U197">
-        <v>1.000185718265391</v>
+        <v>0.0001857182653912659</v>
       </c>
       <c r="V197">
-        <v>1.000061758893281</v>
+        <v>6.175889328052797E-05</v>
       </c>
       <c r="W197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15206,7 +15206,7 @@
         <v>1.044466837590994</v>
       </c>
       <c r="K198">
-        <v>51.08749226872737</v>
+        <v>0.01087492268727375</v>
       </c>
       <c r="L198">
         <v>0.02119238367076218</v>
@@ -15236,13 +15236,13 @@
         <v>0.75</v>
       </c>
       <c r="U198">
-        <v>1.000123789187015</v>
+        <v>0.0001237891870147223</v>
       </c>
       <c r="V198">
-        <v>1.000061755079355</v>
+        <v>6.175507935513025E-05</v>
       </c>
       <c r="W198">
-        <v>0.9981498612395929</v>
+        <v>-0.001850138760407072</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15277,7 +15277,7 @@
         <v>1.247489877253157</v>
       </c>
       <c r="K199">
-        <v>55.50591750730452</v>
+        <v>0.05505917507304525</v>
       </c>
       <c r="L199">
         <v>0.02087536846162313</v>
@@ -15307,13 +15307,13 @@
         <v>0.65625</v>
       </c>
       <c r="U199">
-        <v>1.00021660426401</v>
+        <v>0.0002166042640097121</v>
       </c>
       <c r="V199">
-        <v>1.000247005063604</v>
+        <v>0.0002470050636038668</v>
       </c>
       <c r="W199">
-        <v>1.001853568118628</v>
+        <v>0.001853568118628468</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15348,7 +15348,7 @@
         <v>1.247489877253157</v>
       </c>
       <c r="K200">
-        <v>55.50591750730452</v>
+        <v>0.05505917507304525</v>
       </c>
       <c r="L200">
         <v>0.02045211263739733</v>
@@ -15378,13 +15378,13 @@
         <v>0.59375</v>
       </c>
       <c r="U200">
-        <v>1.000216557356763</v>
+        <v>0.0002165573567627366</v>
       </c>
       <c r="V200">
-        <v>1.000123472033585</v>
+        <v>0.0001234720335845374</v>
       </c>
       <c r="W200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15419,7 +15419,7 @@
         <v>1.247489877253157</v>
       </c>
       <c r="K201">
-        <v>55.50591750730452</v>
+        <v>0.05505917507304525</v>
       </c>
       <c r="L201">
         <v>0.01991687739872941</v>
@@ -15449,13 +15449,13 @@
         <v>0.46875</v>
       </c>
       <c r="U201">
-        <v>1.000216510469828</v>
+        <v>0.0002165104698277354</v>
       </c>
       <c r="V201">
-        <v>1.000185185185185</v>
+        <v>0.0001851851851852881</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15490,7 +15490,7 @@
         <v>1.115425664444988</v>
       </c>
       <c r="K202">
-        <v>52.72819003723468</v>
+        <v>0.02728190037234679</v>
       </c>
       <c r="L202">
         <v>0.0189375740374116</v>
@@ -15520,13 +15520,13 @@
         <v>0.28125</v>
       </c>
       <c r="U202">
-        <v>1.000185540231307</v>
+        <v>0.0001855402313069021</v>
       </c>
       <c r="V202">
-        <v>1.000061716965994</v>
+        <v>6.171696599399645E-05</v>
       </c>
       <c r="W202">
-        <v>0.9990749306197965</v>
+        <v>-0.0009250693802035359</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15561,7 +15561,7 @@
         <v>1.115425664444988</v>
       </c>
       <c r="K203">
-        <v>52.72819003723468</v>
+        <v>0.02728190037234679</v>
       </c>
       <c r="L203">
         <v>0.01768285873970632</v>
@@ -15591,13 +15591,13 @@
         <v>0.125</v>
       </c>
       <c r="U203">
-        <v>1.000216423447934</v>
+        <v>0.0002164234479344884</v>
       </c>
       <c r="V203">
-        <v>1.00024685262898</v>
+        <v>0.0002468526289804984</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15632,7 +15632,7 @@
         <v>0.9983217435590498</v>
       </c>
       <c r="K204">
-        <v>49.95800835259988</v>
+        <v>-0.0004199164740011918</v>
       </c>
       <c r="L204">
         <v>0.0159393875944747</v>
@@ -15662,13 +15662,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U204">
-        <v>1.000185465673395</v>
+        <v>0.0001854656733950577</v>
       </c>
       <c r="V204">
-        <v>1.00006169792695</v>
+        <v>6.169792694965537E-05</v>
       </c>
       <c r="W204">
-        <v>0.9990740740740741</v>
+        <v>-0.0009259259259258856</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15703,7 +15703,7 @@
         <v>1.108833173475294</v>
       </c>
       <c r="K205">
-        <v>52.58041211709366</v>
+        <v>0.02580412117093656</v>
       </c>
       <c r="L205">
         <v>0.0142907175340859</v>
@@ -15733,13 +15733,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U205">
-        <v>1.000247241709676</v>
+        <v>0.0002472417096763824</v>
       </c>
       <c r="V205">
-        <v>1.00006169412055</v>
+        <v>6.169412055045953E-05</v>
       </c>
       <c r="W205">
-        <v>1.000926784059314</v>
+        <v>0.000926784059314123</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15774,7 +15774,7 @@
         <v>1.108833173475294</v>
       </c>
       <c r="K206">
-        <v>52.58041211709366</v>
+        <v>0.02580412117093656</v>
       </c>
       <c r="L206">
         <v>0.01275253473494307</v>
@@ -15804,13 +15804,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U206">
-        <v>1.000216283021783</v>
+        <v>0.0002162830217828926</v>
       </c>
       <c r="V206">
-        <v>0.9999383096853792</v>
+        <v>-6.169031462077701E-05</v>
       </c>
       <c r="W206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15845,7 +15845,7 @@
         <v>0.6877543877568453</v>
       </c>
       <c r="K207">
-        <v>40.74967262688758</v>
+        <v>-0.09250327373112421</v>
       </c>
       <c r="L207">
         <v>0.009645586821571918</v>
@@ -15875,13 +15875,13 @@
         <v>-0.375</v>
       </c>
       <c r="U207">
-        <v>1.000061781786729</v>
+        <v>6.178178672944235E-05</v>
       </c>
       <c r="V207">
-        <v>0.9996915293972485</v>
+        <v>-0.0003084706027515205</v>
       </c>
       <c r="W207">
-        <v>0.9953703703703703</v>
+        <v>-0.00462962962962965</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15916,7 +15916,7 @@
         <v>0.6368407219231175</v>
       </c>
       <c r="K208">
-        <v>38.90670077995713</v>
+        <v>-0.1109329922004287</v>
       </c>
       <c r="L208">
         <v>0.005414270639886328</v>
@@ -15946,13 +15946,13 @@
         <v>-0.625</v>
       </c>
       <c r="U208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V208">
-        <v>0.999506294742039</v>
+        <v>-0.0004937052579609968</v>
       </c>
       <c r="W208">
-        <v>0.9990697674418605</v>
+        <v>-0.0009302325581395099</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15987,7 +15987,7 @@
         <v>0.5161723655306663</v>
       </c>
       <c r="K209">
-        <v>34.0444383017101</v>
+        <v>-0.159555616982899</v>
       </c>
       <c r="L209">
         <v>-0.0002603024851524196</v>
@@ -16017,13 +16017,13 @@
         <v>-0.90625</v>
       </c>
       <c r="U209">
-        <v>0.9998764440600481</v>
+        <v>-0.000123555939951947</v>
       </c>
       <c r="V209">
-        <v>0.9993208199555446</v>
+        <v>-0.0006791800444554408</v>
       </c>
       <c r="W209">
-        <v>0.9972067039106145</v>
+        <v>-0.0027932960893855</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16058,7 +16058,7 @@
         <v>0.5826564528624768</v>
       </c>
       <c r="K210">
-        <v>36.81509349730659</v>
+        <v>-0.1318490650269341</v>
       </c>
       <c r="L210">
         <v>-0.006109544210882337</v>
@@ -16088,13 +16088,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U210">
-        <v>0.9998455359901143</v>
+        <v>-0.0001544640098857242</v>
       </c>
       <c r="V210">
-        <v>0.9993821439604571</v>
+        <v>-0.0006178560395428967</v>
       </c>
       <c r="W210">
-        <v>1.00093370681606</v>
+        <v>0.0009337068160597539</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16129,7 +16129,7 @@
         <v>0.5111171714637707</v>
       </c>
       <c r="K211">
-        <v>33.82379481325515</v>
+        <v>-0.1617620518674485</v>
       </c>
       <c r="L211">
         <v>-0.01234536920044064</v>
@@ -16159,13 +16159,13 @@
         <v>-1.34375</v>
       </c>
       <c r="U211">
-        <v>0.9997219218291364</v>
+        <v>-0.0002780781708635605</v>
       </c>
       <c r="V211">
-        <v>0.9993199381761978</v>
+        <v>-0.0006800618238022027</v>
       </c>
       <c r="W211">
-        <v>0.9981343283582089</v>
+        <v>-0.001865671641791078</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16200,7 +16200,7 @@
         <v>0.4526191315426304</v>
       </c>
       <c r="K212">
-        <v>31.15883039912636</v>
+        <v>-0.1884116960087364</v>
       </c>
       <c r="L212">
         <v>-0.01904949923160214</v>
@@ -16230,13 +16230,13 @@
         <v>-1.625</v>
       </c>
       <c r="U212">
-        <v>0.9996291259735445</v>
+        <v>-0.0003708740264555255</v>
       </c>
       <c r="V212">
-        <v>0.999195743627815</v>
+        <v>-0.0008042563721849527</v>
       </c>
       <c r="W212">
-        <v>0.9981308411214953</v>
+        <v>-0.001869158878504695</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16271,7 +16271,7 @@
         <v>0.4269035132493705</v>
       </c>
       <c r="K213">
-        <v>29.9181766170873</v>
+        <v>-0.200818233829127</v>
       </c>
       <c r="L213">
         <v>-0.02588057884757759</v>
@@ -16301,13 +16301,13 @@
         <v>-2</v>
       </c>
       <c r="U213">
-        <v>0.9996599060103882</v>
+        <v>-0.0003400939896117672</v>
       </c>
       <c r="V213">
-        <v>0.9992570119497245</v>
+        <v>-0.000742988050275506</v>
       </c>
       <c r="W213">
-        <v>0.9990636704119851</v>
+        <v>-0.000936329588014928</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16342,7 +16342,7 @@
         <v>0.4028131107616764</v>
       </c>
       <c r="K214">
-        <v>28.71466681281326</v>
+        <v>-0.2128533318718674</v>
       </c>
       <c r="L214">
         <v>-0.0325995567921603</v>
@@ -16372,13 +16372,13 @@
         <v>-2.46875</v>
       </c>
       <c r="U214">
-        <v>0.9996597903071167</v>
+        <v>-0.0003402096928832865</v>
       </c>
       <c r="V214">
-        <v>0.99907057438503</v>
+        <v>-0.0009294256149700031</v>
       </c>
       <c r="W214">
-        <v>0.9990627928772259</v>
+        <v>-0.0009372071227741197</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16413,7 +16413,7 @@
         <v>0.4622136957207566</v>
       </c>
       <c r="K215">
-        <v>31.61054345705068</v>
+        <v>-0.1838945654294932</v>
       </c>
       <c r="L215">
         <v>-0.03836943927761823</v>
@@ -16443,13 +16443,13 @@
         <v>-2.53125</v>
       </c>
       <c r="U215">
-        <v>0.999628735845554</v>
+        <v>-0.0003712641544459938</v>
       </c>
       <c r="V215">
-        <v>0.999131729099479</v>
+        <v>-0.0008682709005209954</v>
       </c>
       <c r="W215">
-        <v>1.00093808630394</v>
+        <v>0.0009380863039398779</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16484,7 +16484,7 @@
         <v>0.4108369482495435</v>
       </c>
       <c r="K216">
-        <v>29.12008710569127</v>
+        <v>-0.2087991289430873</v>
       </c>
       <c r="L216">
         <v>-0.04373553395467521</v>
@@ -16514,13 +16514,13 @@
         <v>-2.59375</v>
       </c>
       <c r="U216">
-        <v>0.9995976477870627</v>
+        <v>-0.0004023522129372736</v>
       </c>
       <c r="V216">
-        <v>0.9990068280571074</v>
+        <v>-0.0009931719428926122</v>
       </c>
       <c r="W216">
-        <v>0.9981255857544518</v>
+        <v>-0.001874414245548239</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16555,7 +16555,7 @@
         <v>0.3678026215921901</v>
       </c>
       <c r="K217">
-        <v>26.8900363097747</v>
+        <v>-0.231099636902253</v>
       </c>
       <c r="L217">
         <v>-0.04903536778503916</v>
@@ -16585,13 +16585,13 @@
         <v>-2.53125</v>
       </c>
       <c r="U217">
-        <v>0.999504597950274</v>
+        <v>-0.0004954020497259792</v>
       </c>
       <c r="V217">
-        <v>0.9989437057288429</v>
+        <v>-0.001056294271157054</v>
       </c>
       <c r="W217">
-        <v>0.9981220657276996</v>
+        <v>-0.00187793427230043</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16626,7 +16626,7 @@
         <v>0.4229331197268805</v>
       </c>
       <c r="K218">
-        <v>29.72262813083293</v>
+        <v>-0.2027737186916707</v>
       </c>
       <c r="L218">
         <v>-0.05344497051716277</v>
@@ -16656,13 +16656,13 @@
         <v>-2.53125</v>
       </c>
       <c r="U218">
-        <v>0.9996282643040799</v>
+        <v>-0.0003717356959200835</v>
       </c>
       <c r="V218">
-        <v>0.9990047894507682</v>
+        <v>-0.0009952105492317953</v>
       </c>
       <c r="W218">
-        <v>1.000940733772342</v>
+        <v>0.0009407337723423836</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16697,7 +16697,7 @@
         <v>0.4809652230265548</v>
       </c>
       <c r="K219">
-        <v>32.47646977446483</v>
+        <v>-0.1752353022553517</v>
       </c>
       <c r="L219">
         <v>-0.05650458964456923</v>
@@ -16727,13 +16727,13 @@
         <v>-2.375</v>
       </c>
       <c r="U219">
-        <v>0.9995971365707025</v>
+        <v>-0.0004028634292975175</v>
       </c>
       <c r="V219">
-        <v>0.9991283232675424</v>
+        <v>-0.0008716767324575825</v>
       </c>
       <c r="W219">
-        <v>1.00093984962406</v>
+        <v>0.0009398496240602405</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16768,7 +16768,7 @@
         <v>0.4809652230265548</v>
       </c>
       <c r="K220">
-        <v>32.47646977446483</v>
+        <v>-0.1752353022553517</v>
       </c>
       <c r="L220">
         <v>-0.05834768351677403</v>
@@ -16798,13 +16798,13 @@
         <v>-2.125</v>
       </c>
       <c r="U220">
-        <v>0.9995659722222222</v>
+        <v>-0.0004340277777777901</v>
       </c>
       <c r="V220">
-        <v>0.999065245840344</v>
+        <v>-0.0009347541596560482</v>
       </c>
       <c r="W220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16839,7 +16839,7 @@
         <v>0.4809652230265547</v>
       </c>
       <c r="K221">
-        <v>32.47646977446483</v>
+        <v>-0.1752353022553517</v>
       </c>
       <c r="L221">
         <v>-0.0591253739005836</v>
@@ -16869,13 +16869,13 @@
         <v>-1.78125</v>
       </c>
       <c r="U221">
-        <v>0.9995037528689288</v>
+        <v>-0.0004962471310712147</v>
       </c>
       <c r="V221">
-        <v>0.999064371257485</v>
+        <v>-0.0009356287425149601</v>
       </c>
       <c r="W221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16910,7 +16910,7 @@
         <v>0.5486510119750012</v>
       </c>
       <c r="K222">
-        <v>35.42767271209182</v>
+        <v>-0.1457232728790818</v>
       </c>
       <c r="L222">
         <v>-0.05865487693824099</v>
@@ -16940,13 +16940,13 @@
         <v>-1.34375</v>
       </c>
       <c r="U222">
-        <v>0.9995655681747657</v>
+        <v>-0.0004344318252342827</v>
       </c>
       <c r="V222">
-        <v>0.9994380970219143</v>
+        <v>-0.000561902978085671</v>
       </c>
       <c r="W222">
-        <v>1.00093896713615</v>
+        <v>0.0009389671361501595</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16981,7 +16981,7 @@
         <v>0.4802212182358854</v>
       </c>
       <c r="K223">
-        <v>32.44253036773847</v>
+        <v>-0.1755746963226153</v>
       </c>
       <c r="L223">
         <v>-0.05792289698243114</v>
@@ -17011,13 +17011,13 @@
         <v>-1.1875</v>
       </c>
       <c r="U223">
-        <v>0.9994412020365082</v>
+        <v>-0.0005587979634917861</v>
       </c>
       <c r="V223">
-        <v>0.999375312343828</v>
+        <v>-0.0006246876561719628</v>
       </c>
       <c r="W223">
-        <v>0.99812382739212</v>
+        <v>-0.001876172607879978</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17052,7 +17052,7 @@
         <v>0.4506394165443083</v>
       </c>
       <c r="K224">
-        <v>31.06488155532233</v>
+        <v>-0.1893511844467767</v>
       </c>
       <c r="L224">
         <v>-0.05720880141727739</v>
@@ -17082,13 +17082,13 @@
         <v>-0.96875</v>
       </c>
       <c r="U224">
-        <v>0.9994098279182455</v>
+        <v>-0.000590172081754492</v>
       </c>
       <c r="V224">
-        <v>0.9994999374921866</v>
+        <v>-0.0005000625078134258</v>
       </c>
       <c r="W224">
-        <v>0.9990601503759399</v>
+        <v>-0.0009398496240601295</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17123,7 +17123,7 @@
         <v>0.4506394165443083</v>
       </c>
       <c r="K225">
-        <v>31.06488155532233</v>
+        <v>-0.1893511844467767</v>
       </c>
       <c r="L225">
         <v>-0.0563443186617853</v>
@@ -17153,13 +17153,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U225">
-        <v>0.9994094794094793</v>
+        <v>-0.0005905205905206712</v>
       </c>
       <c r="V225">
-        <v>0.9994371482176361</v>
+        <v>-0.0005628517823639267</v>
       </c>
       <c r="W225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17194,7 +17194,7 @@
         <v>0.4506394165443084</v>
       </c>
       <c r="K226">
-        <v>31.06488155532233</v>
+        <v>-0.1893511844467767</v>
       </c>
       <c r="L226">
         <v>-0.05523986874109624</v>
@@ -17224,13 +17224,13 @@
         <v>-0.5</v>
       </c>
       <c r="U226">
-        <v>0.9994402288841897</v>
+        <v>-0.0005597711158102925</v>
       </c>
       <c r="V226">
-        <v>0.9995619798510731</v>
+        <v>-0.0004380201489269098</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17265,7 +17265,7 @@
         <v>0.4506394165443084</v>
       </c>
       <c r="K227">
-        <v>31.06488155532233</v>
+        <v>-0.1893511844467767</v>
       </c>
       <c r="L227">
         <v>-0.05386018643272578</v>
@@ -17295,13 +17295,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U227">
-        <v>0.9994399153649886</v>
+        <v>-0.0005600846350114486</v>
       </c>
       <c r="V227">
-        <v>0.9996869913609614</v>
+        <v>-0.0003130086390386033</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17336,7 +17336,7 @@
         <v>0.4506394165443084</v>
       </c>
       <c r="K228">
-        <v>31.06488155532233</v>
+        <v>-0.1893511844467767</v>
       </c>
       <c r="L228">
         <v>-0.05220621665887695</v>
@@ -17366,13 +17366,13 @@
         <v>-0.375</v>
       </c>
       <c r="U228">
-        <v>0.9995018679950187</v>
+        <v>-0.0004981320049812776</v>
       </c>
       <c r="V228">
-        <v>0.9997495146847016</v>
+        <v>-0.0002504853152983655</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17407,7 +17407,7 @@
         <v>0.4506394165443084</v>
       </c>
       <c r="K229">
-        <v>31.06488155532233</v>
+        <v>-0.1893511844467767</v>
       </c>
       <c r="L229">
         <v>-0.05030183116773849</v>
@@ -17437,13 +17437,13 @@
         <v>-0.375</v>
       </c>
       <c r="U229">
-        <v>0.9994393222028406</v>
+        <v>-0.0005606777971594035</v>
       </c>
       <c r="V229">
-        <v>0.9998120889445664</v>
+        <v>-0.0001879110554335872</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17478,7 +17478,7 @@
         <v>0.4506394165443084</v>
       </c>
       <c r="K230">
-        <v>31.06488155532233</v>
+        <v>-0.1893511844467767</v>
       </c>
       <c r="L230">
         <v>-0.04818422774571433</v>
@@ -17508,13 +17508,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U230">
-        <v>0.9994390076668953</v>
+        <v>-0.0005609923331046929</v>
       </c>
       <c r="V230">
-        <v>0.9997494048364864</v>
+        <v>-0.0002505951635135562</v>
       </c>
       <c r="W230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17549,7 +17549,7 @@
         <v>0.4141106939683814</v>
       </c>
       <c r="K231">
-        <v>29.28417808695538</v>
+        <v>-0.2071582191304462</v>
       </c>
       <c r="L231">
         <v>-0.0462377364743974</v>
@@ -17579,13 +17579,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U231">
-        <v>0.9994075090432829</v>
+        <v>-0.0005924909567170955</v>
       </c>
       <c r="V231">
-        <v>0.9998120065171076</v>
+        <v>-0.0001879934828924457</v>
       </c>
       <c r="W231">
-        <v>0.9990592662276576</v>
+        <v>-0.0009407337723423836</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17620,7 +17620,7 @@
         <v>0.3815541783805638</v>
       </c>
       <c r="K232">
-        <v>27.61774994794744</v>
+        <v>-0.2238225005205255</v>
       </c>
       <c r="L232">
         <v>-0.04469199976824879</v>
@@ -17650,13 +17650,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U232">
-        <v>0.9994071577896347</v>
+        <v>-0.0005928422103652631</v>
       </c>
       <c r="V232">
-        <v>0.9998746474459416</v>
+        <v>-0.0001253525540584333</v>
       </c>
       <c r="W232">
-        <v>0.9990583804143126</v>
+        <v>-0.0009416195856873921</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17691,7 +17691,7 @@
         <v>0.4643098688454079</v>
       </c>
       <c r="K233">
-        <v>31.70844359681269</v>
+        <v>-0.1829155640318731</v>
       </c>
       <c r="L233">
         <v>-0.04298489129171817</v>
@@ -17721,13 +17721,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U233">
-        <v>0.9994380268498282</v>
+        <v>-0.0005619731501718128</v>
       </c>
       <c r="V233">
-        <v>0.9998746317307091</v>
+        <v>-0.000125368269290882</v>
       </c>
       <c r="W233">
-        <v>1.000942507068803</v>
+        <v>0.0009425070688029447</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17762,7 +17762,7 @@
         <v>0.3954189826692052</v>
       </c>
       <c r="K234">
-        <v>28.33693590098898</v>
+        <v>-0.2166306409901103</v>
       </c>
       <c r="L234">
         <v>-0.04181466863483897</v>
@@ -17792,13 +17792,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U234">
-        <v>0.9994064725727854</v>
+        <v>-0.0005935274272146351</v>
       </c>
       <c r="V234">
-        <v>0.9996865400288382</v>
+        <v>-0.0003134599711618336</v>
       </c>
       <c r="W234">
-        <v>0.9981167608286252</v>
+        <v>-0.001883239171374784</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17833,7 +17833,7 @@
         <v>0.3954189826692051</v>
       </c>
       <c r="K235">
-        <v>28.33693590098898</v>
+        <v>-0.2166306409901103</v>
       </c>
       <c r="L235">
         <v>-0.0408931644873575</v>
@@ -17863,13 +17863,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U235">
-        <v>0.9993748632513362</v>
+        <v>-0.0006251367486638237</v>
       </c>
       <c r="V235">
-        <v>0.9996864417408755</v>
+        <v>-0.0003135582591244912</v>
       </c>
       <c r="W235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17904,7 +17904,7 @@
         <v>0.3653840772845203</v>
       </c>
       <c r="K236">
-        <v>26.76053451650009</v>
+        <v>-0.2323946548349991</v>
       </c>
       <c r="L236">
         <v>-0.0403744051445329</v>
@@ -17934,13 +17934,13 @@
         <v>-0.625</v>
       </c>
       <c r="U236">
-        <v>0.9993431958214744</v>
+        <v>-0.0006568041785256495</v>
       </c>
       <c r="V236">
-        <v>0.9996236120695062</v>
+        <v>-0.0003763879304937712</v>
       </c>
       <c r="W236">
-        <v>0.9990566037735849</v>
+        <v>-0.0009433962264151496</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17975,7 +17975,7 @@
         <v>0.3150107619211673</v>
       </c>
       <c r="K237">
-        <v>23.95499497364963</v>
+        <v>-0.2604500502635037</v>
       </c>
       <c r="L237">
         <v>-0.04066983647810033</v>
@@ -18005,13 +18005,13 @@
         <v>-0.75</v>
       </c>
       <c r="U237">
-        <v>0.9994366549824738</v>
+        <v>-0.0005633450175261956</v>
       </c>
       <c r="V237">
-        <v>0.9994352055224349</v>
+        <v>-0.0005647944775650782</v>
       </c>
       <c r="W237">
-        <v>0.9981114258734656</v>
+        <v>-0.001888574126534426</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18046,7 +18046,7 @@
         <v>0.2936998954225296</v>
       </c>
       <c r="K238">
-        <v>22.70232041153606</v>
+        <v>-0.2729767958846394</v>
       </c>
       <c r="L238">
         <v>-0.04163514934572529</v>
@@ -18076,13 +18076,13 @@
         <v>-0.875</v>
       </c>
       <c r="U238">
-        <v>0.9994363374459823</v>
+        <v>-0.0005636625540177409</v>
       </c>
       <c r="V238">
-        <v>0.9994976767549919</v>
+        <v>-0.0005023232450080961</v>
       </c>
       <c r="W238">
-        <v>0.9990539262062441</v>
+        <v>-0.0009460737937558861</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18117,7 +18117,7 @@
         <v>0.2936998954225296</v>
       </c>
       <c r="K239">
-        <v>22.70232041153606</v>
+        <v>-0.2729767958846394</v>
       </c>
       <c r="L239">
         <v>-0.04279528507356743</v>
@@ -18147,13 +18147,13 @@
         <v>-1</v>
       </c>
       <c r="U239">
-        <v>0.9995300162927685</v>
+        <v>-0.0004699837072315027</v>
       </c>
       <c r="V239">
-        <v>0.9995602462620932</v>
+        <v>-0.0004397537379068339</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18188,7 +18188,7 @@
         <v>0.3686597105441926</v>
       </c>
       <c r="K240">
-        <v>26.93581959810957</v>
+        <v>-0.2306418040189043</v>
       </c>
       <c r="L240">
         <v>-0.04350357799766005</v>
@@ -18218,13 +18218,13 @@
         <v>-1.0625</v>
       </c>
       <c r="U240">
-        <v>0.9995297953042225</v>
+        <v>-0.0004702046957775208</v>
       </c>
       <c r="V240">
-        <v>0.9996229023945697</v>
+        <v>-0.0003770976054302544</v>
       </c>
       <c r="W240">
-        <v>1.00094696969697</v>
+        <v>0.0009469696969697239</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18259,7 +18259,7 @@
         <v>0.5264698476424302</v>
       </c>
       <c r="K241">
-        <v>34.48937091391232</v>
+        <v>-0.1551062908608767</v>
       </c>
       <c r="L241">
         <v>-0.04305143519070251</v>
@@ -18289,13 +18289,13 @@
         <v>-1.125</v>
       </c>
       <c r="U241">
-        <v>0.9996550210123566</v>
+        <v>-0.0003449789876434073</v>
       </c>
       <c r="V241">
-        <v>0.9997485067588808</v>
+        <v>-0.0002514932411191717</v>
       </c>
       <c r="W241">
-        <v>1.001892147587512</v>
+        <v>0.001892147587511772</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18330,7 +18330,7 @@
         <v>0.5264698476424302</v>
       </c>
       <c r="K242">
-        <v>34.48937091391232</v>
+        <v>-0.1551062908608767</v>
       </c>
       <c r="L242">
         <v>-0.04176801960299217</v>
@@ -18360,13 +18360,13 @@
         <v>-1.0625</v>
       </c>
       <c r="U242">
-        <v>0.9997176470588236</v>
+        <v>-0.0002823529411764003</v>
       </c>
       <c r="V242">
-        <v>0.9997484434941198</v>
+        <v>-0.0002515565058801572</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18401,7 +18401,7 @@
         <v>0.4841416176907719</v>
       </c>
       <c r="K243">
-        <v>32.62098521595702</v>
+        <v>-0.1737901478404298</v>
       </c>
       <c r="L243">
         <v>-0.04025271597811545</v>
@@ -18431,13 +18431,13 @@
         <v>-1.03125</v>
       </c>
       <c r="U243">
-        <v>0.9997175673131238</v>
+        <v>-0.0002824326868762217</v>
       </c>
       <c r="V243">
-        <v>0.999685475246902</v>
+        <v>-0.0003145247530980111</v>
       </c>
       <c r="W243">
-        <v>0.9990557129367328</v>
+        <v>-0.0009442870632672129</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18472,7 +18472,7 @@
         <v>0.4841416176907719</v>
       </c>
       <c r="K244">
-        <v>32.62098521595702</v>
+        <v>-0.1737901478404298</v>
       </c>
       <c r="L244">
         <v>-0.0385470801646213</v>
@@ -18502,13 +18502,13 @@
         <v>-0.9375</v>
       </c>
       <c r="U244">
-        <v>0.9997488777976583</v>
+        <v>-0.0002511222023416915</v>
       </c>
       <c r="V244">
-        <v>0.9996853762899572</v>
+        <v>-0.0003146237100427607</v>
       </c>
       <c r="W244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18543,7 +18543,7 @@
         <v>0.4445393877298121</v>
       </c>
       <c r="K245">
-        <v>30.77378100630642</v>
+        <v>-0.1922621899369358</v>
       </c>
       <c r="L245">
         <v>-0.03703718490694595</v>
@@ -18573,13 +18573,13 @@
         <v>-0.75</v>
       </c>
       <c r="U245">
-        <v>0.9996860183993217</v>
+        <v>-0.0003139816006783036</v>
       </c>
       <c r="V245">
-        <v>0.9996223327248693</v>
+        <v>-0.0003776672751306664</v>
       </c>
       <c r="W245">
-        <v>0.999054820415879</v>
+        <v>-0.000945179584120992</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18614,7 +18614,7 @@
         <v>0.4092972349379138</v>
       </c>
       <c r="K246">
-        <v>29.04264798021443</v>
+        <v>-0.2095735201978557</v>
       </c>
       <c r="L246">
         <v>-0.03595046709124802</v>
@@ -18644,13 +18644,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U246">
-        <v>0.9997173278055216</v>
+        <v>-0.0002826721944784172</v>
       </c>
       <c r="V246">
-        <v>0.9996221900384106</v>
+        <v>-0.0003778099615894259</v>
       </c>
       <c r="W246">
-        <v>0.9990539262062441</v>
+        <v>-0.0009460737937558861</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18685,7 +18685,7 @@
         <v>0.3273457935178583</v>
       </c>
       <c r="K247">
-        <v>24.66168161427591</v>
+        <v>-0.2533831838572409</v>
       </c>
       <c r="L247">
         <v>-0.0360878846962753</v>
@@ -18715,13 +18715,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U247">
-        <v>0.9996858309770658</v>
+        <v>-0.0003141690229342409</v>
       </c>
       <c r="V247">
-        <v>0.999496062992126</v>
+        <v>-0.0005039370078739891</v>
       </c>
       <c r="W247">
-        <v>0.9971590909090909</v>
+        <v>-0.002840909090909061</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18756,7 +18756,7 @@
         <v>0.3273457935178583</v>
       </c>
       <c r="K248">
-        <v>24.66168161427591</v>
+        <v>-0.2533831838572409</v>
       </c>
       <c r="L248">
         <v>-0.03682865705815628</v>
@@ -18786,13 +18786,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U248">
-        <v>0.9996543054682588</v>
+        <v>-0.0003456945317411586</v>
       </c>
       <c r="V248">
-        <v>0.9994327850255248</v>
+        <v>-0.0005672149744752053</v>
       </c>
       <c r="W248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Aker 16.12.2020.xlsx
+++ b/data_clean/Aker 16.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1181,13 +1184,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W248"/>
+  <dimension ref="A1:X248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,10 +1260,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>527</v>
@@ -1317,7 +1323,7 @@
         <v>527</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1328,10 +1334,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>531</v>
@@ -1388,7 +1397,7 @@
         <v>529</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1399,10 +1408,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>530.5</v>
@@ -1459,21 +1471,24 @@
         <v>529.5</v>
       </c>
       <c r="T4">
+        <v>529.5</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.000945179584120881</v>
       </c>
       <c r="V4">
         <v>0.000945179584120881</v>
       </c>
       <c r="W4">
+        <v>0.000945179584120881</v>
+      </c>
+      <c r="X4">
         <v>-0.0009416195856873921</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>531.5</v>
@@ -1530,21 +1545,24 @@
         <v>530</v>
       </c>
       <c r="T5">
+        <v>531</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.0009442870632672129</v>
       </c>
       <c r="V5">
         <v>0.0009442870632672129</v>
       </c>
       <c r="W5">
+        <v>0.0009442870632672129</v>
+      </c>
+      <c r="X5">
         <v>0.001885014137606111</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>531</v>
@@ -1601,21 +1619,24 @@
         <v>530.2</v>
       </c>
       <c r="T6">
+        <v>531</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.0003773584905661931</v>
       </c>
       <c r="V6">
         <v>0.0003773584905661931</v>
       </c>
       <c r="W6">
+        <v>0.0003773584905661931</v>
+      </c>
+      <c r="X6">
         <v>-0.0009407337723423836</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>532</v>
@@ -1672,21 +1693,24 @@
         <v>530.5</v>
       </c>
       <c r="T7">
+        <v>531.5</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.0005658242172763561</v>
       </c>
       <c r="V7">
         <v>0.0005658242172763561</v>
       </c>
       <c r="W7">
+        <v>0.0005658242172763561</v>
+      </c>
+      <c r="X7">
         <v>0.001883239171374784</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>533.5</v>
@@ -1743,21 +1767,24 @@
         <v>530.9285714285714</v>
       </c>
       <c r="T8">
+        <v>532.1666666666666</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.0008078632018311271</v>
       </c>
       <c r="V8">
         <v>0.0008078632018311271</v>
       </c>
       <c r="W8">
+        <v>0.0008078632018311271</v>
+      </c>
+      <c r="X8">
         <v>0.0028195488721805</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>534.5</v>
@@ -1814,21 +1841,24 @@
         <v>531.375</v>
       </c>
       <c r="T9">
+        <v>533.3333333333334</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.0008408448809362756</v>
       </c>
       <c r="V9">
         <v>0.0008408448809362756</v>
       </c>
       <c r="W9">
+        <v>0.0008408448809362756</v>
+      </c>
+      <c r="X9">
         <v>0.001874414245548239</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>533</v>
@@ -1885,21 +1915,24 @@
         <v>531.5555555555555</v>
       </c>
       <c r="T10">
+        <v>533.6666666666666</v>
+      </c>
+      <c r="U10">
         <v>0.5694444444444571</v>
-      </c>
-      <c r="U10">
-        <v>0.0003397893306149591</v>
       </c>
       <c r="V10">
         <v>0.0003397893306149591</v>
       </c>
       <c r="W10">
+        <v>0.0003397893306149591</v>
+      </c>
+      <c r="X10">
         <v>-0.00280636108512633</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>532.5</v>
@@ -1956,21 +1989,24 @@
         <v>531.65</v>
       </c>
       <c r="T11">
+        <v>533.3333333333334</v>
+      </c>
+      <c r="U11">
         <v>0.6625000000000227</v>
-      </c>
-      <c r="U11">
-        <v>0.0001776755852842538</v>
       </c>
       <c r="V11">
         <v>0.0001776755852842538</v>
       </c>
       <c r="W11">
+        <v>0.0001776755852842538</v>
+      </c>
+      <c r="X11">
         <v>-0.0009380863039399889</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>532.5</v>
@@ -2027,21 +2063,24 @@
         <v>531.7272727272727</v>
       </c>
       <c r="T12">
+        <v>532.6666666666666</v>
+      </c>
+      <c r="U12">
         <v>0.8352272727272521</v>
-      </c>
-      <c r="U12">
-        <v>0.0001453451091371072</v>
       </c>
       <c r="V12">
         <v>0.0001453451091371072</v>
       </c>
       <c r="W12">
+        <v>0.0001453451091371072</v>
+      </c>
+      <c r="X12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>533.5</v>
@@ -2098,21 +2137,24 @@
         <v>531.875</v>
       </c>
       <c r="T13">
+        <v>532.8333333333334</v>
+      </c>
+      <c r="U13">
         <v>0.9375</v>
-      </c>
-      <c r="U13">
-        <v>0.0002778252692767769</v>
       </c>
       <c r="V13">
         <v>0.0002778252692767769</v>
       </c>
       <c r="W13">
+        <v>0.0002778252692767769</v>
+      </c>
+      <c r="X13">
         <v>0.001877934272300541</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>534.5</v>
@@ -2169,21 +2211,24 @@
         <v>532.0769230769231</v>
       </c>
       <c r="T14">
+        <v>533.5</v>
+      </c>
+      <c r="U14">
         <v>1.173076923076906</v>
-      </c>
-      <c r="U14">
-        <v>0.0003796438579046768</v>
       </c>
       <c r="V14">
         <v>0.0003796438579046768</v>
       </c>
       <c r="W14">
+        <v>0.0003796438579046768</v>
+      </c>
+      <c r="X14">
         <v>0.001874414245548239</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>534.5</v>
@@ -2240,21 +2285,24 @@
         <v>532.25</v>
       </c>
       <c r="T15">
+        <v>534.1666666666666</v>
+      </c>
+      <c r="U15">
         <v>1.3125</v>
-      </c>
-      <c r="U15">
-        <v>0.0003252855284081591</v>
       </c>
       <c r="V15">
         <v>0.0003252855284081591</v>
       </c>
       <c r="W15">
+        <v>0.0003252855284081591</v>
+      </c>
+      <c r="X15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>534</v>
@@ -2311,21 +2359,24 @@
         <v>532.3666666666667</v>
       </c>
       <c r="T16">
+        <v>534.3333333333334</v>
+      </c>
+      <c r="U16">
         <v>1.258333333333326</v>
-      </c>
-      <c r="U16">
-        <v>0.0002191952403318709</v>
       </c>
       <c r="V16">
         <v>0.0002191952403318709</v>
       </c>
       <c r="W16">
+        <v>0.0002191952403318709</v>
+      </c>
+      <c r="X16">
         <v>-0.00093545369504211</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>535</v>
@@ -2382,21 +2433,24 @@
         <v>532.9</v>
       </c>
       <c r="T17">
+        <v>534.5</v>
+      </c>
+      <c r="U17">
         <v>1.15625</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.0003091540917914415</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.001001815791121352</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.001872659176029856</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>537</v>
@@ -2453,21 +2507,24 @@
         <v>533.3</v>
       </c>
       <c r="T18">
+        <v>535.3333333333334</v>
+      </c>
+      <c r="U18">
         <v>1.03125</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.0004936191952280566</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0007506098705196695</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.003738317757009391</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>538</v>
@@ -2524,21 +2581,24 @@
         <v>533.8</v>
       </c>
       <c r="T19">
+        <v>536.6666666666666</v>
+      </c>
+      <c r="U19">
         <v>1.28125</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.0005428282270678597</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0009375585974122913</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.001862197392923592</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>537.5</v>
@@ -2595,21 +2655,24 @@
         <v>534.2</v>
       </c>
       <c r="T20">
+        <v>537.5</v>
+      </c>
+      <c r="U20">
         <v>1.46875</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.0004360596661261429</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0007493443237169828</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-0.0009293680297397522</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>536.5</v>
@@ -2666,21 +2729,24 @@
         <v>534.5666666666667</v>
       </c>
       <c r="T21">
+        <v>537.3333333333334</v>
+      </c>
+      <c r="U21">
         <v>1.53125</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0002985295568933566</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0006863846249844929</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-0.00186046511627902</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>538</v>
@@ -2737,21 +2803,24 @@
         <v>534.9666666666667</v>
       </c>
       <c r="T22">
+        <v>537.3333333333334</v>
+      </c>
+      <c r="U22">
         <v>1.53125</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0004039105683979471</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0007482696264886624</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.002795899347623587</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>539.5</v>
@@ -2808,21 +2877,24 @@
         <v>535.3666666666667</v>
       </c>
       <c r="T23">
+        <v>538</v>
+      </c>
+      <c r="U23">
         <v>1.6875</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.000494798531827545</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0007477101377031392</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.002788104089219257</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>540</v>
@@ -2879,21 +2951,24 @@
         <v>535.7333333333333</v>
       </c>
       <c r="T24">
+        <v>539.1666666666666</v>
+      </c>
+      <c r="U24">
         <v>2.03125</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.0004922625943348802</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0006848888612165371</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.000926784059314123</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>541</v>
@@ -2950,21 +3025,24 @@
         <v>536.2666666666667</v>
       </c>
       <c r="T25">
+        <v>540.1666666666666</v>
+      </c>
+      <c r="U25">
         <v>2.375</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0005290144054690415</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0009955201592830587</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.001851851851851771</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>542</v>
@@ -3021,21 +3099,24 @@
         <v>536.9</v>
       </c>
       <c r="T26">
+        <v>541</v>
+      </c>
+      <c r="U26">
         <v>2.4375</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0005612722170251772</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.001181004475385272</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.001848428835489857</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>542.5</v>
@@ -3092,21 +3173,24 @@
         <v>537.5666666666667</v>
       </c>
       <c r="T27">
+        <v>541.8333333333334</v>
+      </c>
+      <c r="U27">
         <v>2.375</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0005537656061216367</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.001241696156950578</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.0009225092250921829</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>542.5</v>
@@ -3163,21 +3247,24 @@
         <v>538.1666666666666</v>
       </c>
       <c r="T28">
+        <v>542.3333333333334</v>
+      </c>
+      <c r="U28">
         <v>2.375</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.0005124621476821911</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.001116140633719676</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>544</v>
@@ -3234,21 +3321,24 @@
         <v>538.8</v>
       </c>
       <c r="T29">
+        <v>543</v>
+      </c>
+      <c r="U29">
         <v>2.65625</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.0005756782131740579</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.001176834933415805</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.0027649769585254</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>546</v>
@@ -3305,21 +3395,24 @@
         <v>539.5666666666667</v>
       </c>
       <c r="T30">
+        <v>544.1666666666666</v>
+      </c>
+      <c r="U30">
         <v>2.9375</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.0006644121102326039</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.001422915120020019</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.003676470588235281</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>544.5</v>
@@ -3376,21 +3469,24 @@
         <v>540.2666666666667</v>
       </c>
       <c r="T31">
+        <v>544.8333333333334</v>
+      </c>
+      <c r="U31">
         <v>2.9375</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.0005264286480113345</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.001297337369494</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.002747252747252737</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>544</v>
@@ -3447,21 +3543,24 @@
         <v>540.8666666666667</v>
       </c>
       <c r="T32">
+        <v>544.8333333333334</v>
+      </c>
+      <c r="U32">
         <v>2.8125</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.001056589701357913</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.001110562685093797</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-0.0009182736455464191</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>539</v>
@@ -3518,21 +3617,24 @@
         <v>541</v>
       </c>
       <c r="T33">
+        <v>542.5</v>
+      </c>
+      <c r="U33">
         <v>2.3125</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0004966938813522059</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0002465179341797352</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.009191176470588203</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>540.5</v>
@@ -3589,21 +3691,24 @@
         <v>541.1666666666666</v>
       </c>
       <c r="T34">
+        <v>541.1666666666666</v>
+      </c>
+      <c r="U34">
         <v>1.90625</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0006205591237706809</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0003080714725816058</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.002782931354359919</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>540</v>
@@ -3660,21 +3765,24 @@
         <v>541.3333333333334</v>
       </c>
       <c r="T35">
+        <v>539.8333333333334</v>
+      </c>
+      <c r="U35">
         <v>1.46875</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.0005271481286239776</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.0003079765937790135</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0009250693802035359</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>539</v>
@@ -3731,21 +3839,24 @@
         <v>541.5</v>
       </c>
       <c r="T36">
+        <v>539.8333333333334</v>
+      </c>
+      <c r="U36">
         <v>0.9375</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.0004958780140085217</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.0003078817733990213</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-0.001851851851851882</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>540</v>
@@ -3802,21 +3913,24 @@
         <v>541.6333333333333</v>
       </c>
       <c r="T37">
+        <v>539.6666666666666</v>
+      </c>
+      <c r="U37">
         <v>0.21875</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.0004956322408773417</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.000246229609110582</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.001855287569573205</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>538.5</v>
@@ -3873,21 +3987,24 @@
         <v>541.5666666666667</v>
       </c>
       <c r="T38">
+        <v>539.1666666666666</v>
+      </c>
+      <c r="U38">
         <v>-0.75</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.0003096166945322221</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-0.0001230844975074197</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.002777777777777768</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>539</v>
@@ -3944,21 +4061,24 @@
         <v>541.5</v>
       </c>
       <c r="T39">
+        <v>539.1666666666666</v>
+      </c>
+      <c r="U39">
         <v>-1.40625</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.0002785687755353372</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-0.0001230996491661251</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.0009285051067779992</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>539.5</v>
@@ -4015,21 +4135,24 @@
         <v>541.4</v>
       </c>
       <c r="T40">
+        <v>539</v>
+      </c>
+      <c r="U40">
         <v>-1.9375</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>0.0004022650617323542</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-0.0001846722068329365</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.0009276437847867136</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>540</v>
@@ -4086,21 +4209,24 @@
         <v>541.2666666666667</v>
       </c>
       <c r="T41">
+        <v>539.5</v>
+      </c>
+      <c r="U41">
         <v>-1.75</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>0.0004639653572533486</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-0.0002462750892746612</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.000926784059314123</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>539.5</v>
@@ -4157,21 +4283,24 @@
         <v>541.0666666666667</v>
       </c>
       <c r="T42">
+        <v>539.6666666666666</v>
+      </c>
+      <c r="U42">
         <v>-1.71875</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.0004328335136807304</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-0.0003695036334522284</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>-0.0009259259259258856</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>539</v>
@@ -4228,21 +4357,24 @@
         <v>540.8333333333334</v>
       </c>
       <c r="T43">
+        <v>539.5</v>
+      </c>
+      <c r="U43">
         <v>-1.625</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0.000339936339194491</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-0.000431246919664896</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>-0.000926784059314234</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>539.5</v>
@@ -4299,21 +4431,24 @@
         <v>540.5333333333333</v>
       </c>
       <c r="T44">
+        <v>539.3333333333334</v>
+      </c>
+      <c r="U44">
         <v>-1.375</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0.0003089280197712263</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-0.0005546995377505581</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.0009276437847867136</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>542.5</v>
@@ -4370,21 +4505,24 @@
         <v>540.3</v>
       </c>
       <c r="T45">
+        <v>540.3333333333334</v>
+      </c>
+      <c r="U45">
         <v>-0.96875</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>0.0004941321803582088</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-0.0004316724222990231</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0.005560704355885182</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>541</v>
@@ -4441,21 +4579,24 @@
         <v>540.0666666666667</v>
       </c>
       <c r="T46">
+        <v>541</v>
+      </c>
+      <c r="U46">
         <v>-0.34375</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.0004321521175454368</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-0.0004318588438519955</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.0027649769585254</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>541.5</v>
@@ -4512,21 +4653,24 @@
         <v>539.9</v>
       </c>
       <c r="T47">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="U47">
         <v>0.15625</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.0004011107682815318</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-0.0003086038760647947</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0009242144177448175</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>541</v>
@@ -4583,21 +4727,24 @@
         <v>540.0333333333333</v>
       </c>
       <c r="T48">
+        <v>541.1666666666666</v>
+      </c>
+      <c r="U48">
         <v>0.53125</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>0.0002467384264257522</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>0.0002469593134530879</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.0009233610341643494</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>539.5</v>
@@ -4654,21 +4801,24 @@
         <v>539.9666666666667</v>
       </c>
       <c r="T49">
+        <v>540.6666666666666</v>
+      </c>
+      <c r="U49">
         <v>0.4375</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>9.250408559724477E-05</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>-0.0001234491698042239</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>-0.002772643253234786</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>539</v>
@@ -4725,21 +4875,24 @@
         <v>539.9</v>
       </c>
       <c r="T50">
+        <v>539.8333333333334</v>
+      </c>
+      <c r="U50">
         <v>0.46875</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>9.249552938261907E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-0.0001234644113835559</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>-0.000926784059314234</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>538</v>
@@ -4796,21 +4949,24 @@
         <v>539.8333333333334</v>
       </c>
       <c r="T51">
+        <v>538.8333333333334</v>
+      </c>
+      <c r="U51">
         <v>0.46875</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>9.248697475094936E-05</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-0.0001234796567264329</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>-0.001855287569573316</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>539</v>
@@ -4867,21 +5023,24 @@
         <v>539.7666666666667</v>
       </c>
       <c r="T52">
+        <v>538.6666666666666</v>
+      </c>
+      <c r="U52">
         <v>0.40625</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>6.16522811345277E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-0.0001234949058351864</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.001858736059479504</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>537</v>
@@ -4938,21 +5097,24 @@
         <v>539.6666666666666</v>
       </c>
       <c r="T53">
+        <v>538</v>
+      </c>
+      <c r="U53">
         <v>-0.09375</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-0.0001541212009125159</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-0.0001852652380658348</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>-0.003710575139146521</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>536</v>
@@ -5009,21 +5171,24 @@
         <v>539.4666666666667</v>
       </c>
       <c r="T54">
+        <v>537.3333333333334</v>
+      </c>
+      <c r="U54">
         <v>-0.5625</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-0.0002466319326694943</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>-0.0003705991352686011</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>-0.001862197392923703</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>536.5</v>
@@ -5080,21 +5245,24 @@
         <v>539.2666666666667</v>
       </c>
       <c r="T55">
+        <v>536.5</v>
+      </c>
+      <c r="U55">
         <v>-1.03125</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>-0.0002775293718584315</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-0.0003707365299061571</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.000932835820895539</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>537.5</v>
@@ -5151,21 +5319,24 @@
         <v>539.1</v>
       </c>
       <c r="T56">
+        <v>536.6666666666666</v>
+      </c>
+      <c r="U56">
         <v>-1.34375</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>-0.0002776064157928859</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>-0.0003090616887130304</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.001863932898415577</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>538</v>
@@ -5222,21 +5393,24 @@
         <v>539</v>
       </c>
       <c r="T57">
+        <v>537.3333333333334</v>
+      </c>
+      <c r="U57">
         <v>-1.40625</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>-0.0002776835025145585</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-0.000185494342422543</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0.0009302325581395099</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>536.5</v>
@@ -5293,21 +5467,24 @@
         <v>538.8333333333334</v>
       </c>
       <c r="T58">
+        <v>537.3333333333334</v>
+      </c>
+      <c r="U58">
         <v>-1.53125</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-0.0003703475094128938</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-0.0003092145949288305</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.002788104089219368</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>537.5</v>
@@ -5364,21 +5541,24 @@
         <v>538.7</v>
       </c>
       <c r="T59">
+        <v>537.3333333333334</v>
+      </c>
+      <c r="U59">
         <v>-1.5</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-0.0004013584439642726</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-0.0002474481905351267</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.001863932898415577</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>536.5</v>
@@ -5435,21 +5615,24 @@
         <v>538.3</v>
       </c>
       <c r="T60">
+        <v>536.8333333333334</v>
+      </c>
+      <c r="U60">
         <v>-1.625</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-0.0005868363344350147</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>-0.0007425283088919876</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>-0.00186046511627902</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>537</v>
@@ -5506,21 +5689,24 @@
         <v>538.0333333333333</v>
       </c>
       <c r="T61">
+        <v>537</v>
+      </c>
+      <c r="U61">
         <v>-1.28125</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-0.0004635638791025132</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>-0.0004953867112514887</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.0009319664492077884</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>538</v>
@@ -5577,21 +5763,24 @@
         <v>537.8</v>
       </c>
       <c r="T62">
+        <v>537.1666666666666</v>
+      </c>
+      <c r="U62">
         <v>-0.84375</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-0.0003710230961876393</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-0.000433678210767674</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.001862197392923592</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>538</v>
@@ -5648,21 +5837,24 @@
         <v>537.6</v>
       </c>
       <c r="T63">
+        <v>537.6666666666666</v>
+      </c>
+      <c r="U63">
         <v>-0.4375</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-6.186013423647996E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-0.0003718854592784648</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>539.5</v>
@@ -5719,21 +5911,24 @@
         <v>537.6</v>
       </c>
       <c r="T64">
+        <v>538.5</v>
+      </c>
+      <c r="U64">
         <v>-0.09375</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-6.186396114959969E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0.002788104089219257</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>538.5</v>
@@ -5790,21 +5985,24 @@
         <v>537.5666666666667</v>
       </c>
       <c r="T65">
+        <v>538.6666666666666</v>
+      </c>
+      <c r="U65">
         <v>0.03125</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-9.28016828037892E-05</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>-6.200396825395416E-05</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>-0.001853568118628357</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>538</v>
@@ -5861,21 +6059,24 @@
         <v>537.5666666666667</v>
       </c>
       <c r="T66">
+        <v>538.6666666666666</v>
+      </c>
+      <c r="U66">
         <v>0.28125</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-6.187353050357558E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>0</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>-0.0009285051067781103</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>538.5</v>
@@ -5932,21 +6133,24 @@
         <v>537.5333333333333</v>
       </c>
       <c r="T67">
+        <v>538.3333333333334</v>
+      </c>
+      <c r="U67">
         <v>0.375</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-9.281603861155396E-05</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>-6.200781298459912E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0.0009293680297397522</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>539</v>
@@ -6003,21 +6207,24 @@
         <v>537.6666666666666</v>
       </c>
       <c r="T68">
+        <v>538.5</v>
+      </c>
+      <c r="U68">
         <v>0.6875</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>3.094155140925814E-05</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>0.0002480466327670072</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0.0009285051067779992</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>539</v>
@@ -6074,21 +6281,24 @@
         <v>537.8666666666667</v>
       </c>
       <c r="T69">
+        <v>538.8333333333334</v>
+      </c>
+      <c r="U69">
         <v>0.8125</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>0</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>0.0003719776813391196</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>539</v>
@@ -6145,21 +6355,24 @@
         <v>538.0333333333333</v>
       </c>
       <c r="T70">
+        <v>539</v>
+      </c>
+      <c r="U70">
         <v>0.75</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-3.094059405939209E-05</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>0.0003098661378284628</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>539</v>
@@ -6216,21 +6429,24 @@
         <v>538.1333333333333</v>
       </c>
       <c r="T71">
+        <v>539</v>
+      </c>
+      <c r="U71">
         <v>0.71875</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-6.188310281873832E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>0.0001858620903290031</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>538.5</v>
@@ -6287,21 +6503,24 @@
         <v>538.1666666666666</v>
       </c>
       <c r="T72">
+        <v>538.8333333333334</v>
+      </c>
+      <c r="U72">
         <v>0.53125</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>-6.188693257414002E-05</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>6.194251734381595E-05</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.0009276437847866026</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>538.5</v>
@@ -6358,21 +6577,24 @@
         <v>538.3</v>
       </c>
       <c r="T73">
+        <v>538.6666666666666</v>
+      </c>
+      <c r="U73">
         <v>0.5</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-3.094538140180347E-05</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.0002477547228243449</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>539.5</v>
@@ -6429,21 +6651,24 @@
         <v>538.4333333333333</v>
       </c>
       <c r="T74">
+        <v>538.8333333333334</v>
+      </c>
+      <c r="U74">
         <v>0.5</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>0</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.0002476933556256888</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0.001857010213556221</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>539</v>
@@ -6500,21 +6725,24 @@
         <v>538.6</v>
       </c>
       <c r="T75">
+        <v>539</v>
+      </c>
+      <c r="U75">
         <v>0.46875</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-0.0002166243733366935</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.0003095400235251233</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>-0.000926784059314234</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>539</v>
@@ -6571,21 +6799,24 @@
         <v>538.7333333333333</v>
       </c>
       <c r="T76">
+        <v>539.1666666666666</v>
+      </c>
+      <c r="U76">
         <v>0.3125</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-0.0001238121769276956</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.0002475553905185723</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>539</v>
@@ -6642,21 +6873,24 @@
         <v>538.8</v>
       </c>
       <c r="T77">
+        <v>539</v>
+      </c>
+      <c r="U77">
         <v>0.1875</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-0.0001547843853513253</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>0.0001237470610071512</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>539.5</v>
@@ -6713,21 +6947,24 @@
         <v>538.9</v>
       </c>
       <c r="T78">
+        <v>539.1666666666666</v>
+      </c>
+      <c r="U78">
         <v>0.15625</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-9.28850083595778E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>0.000185597624350553</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.0009276437847867136</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>539.5</v>
@@ -6784,10 +7021,10 @@
         <v>538.9</v>
       </c>
       <c r="T79">
+        <v>539.3333333333334</v>
+      </c>
+      <c r="U79">
         <v>0.125</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
       </c>
       <c r="V79">
         <v>0</v>
@@ -6795,10 +7032,13 @@
       <c r="W79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>539</v>
@@ -6855,21 +7095,24 @@
         <v>538.9333333333333</v>
       </c>
       <c r="T80">
+        <v>539.3333333333334</v>
+      </c>
+      <c r="U80">
         <v>0.21875</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>0</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>6.18543947545902E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.000926784059314234</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>540</v>
@@ -6926,21 +7169,24 @@
         <v>539.0666666666667</v>
       </c>
       <c r="T81">
+        <v>539.5</v>
+      </c>
+      <c r="U81">
         <v>0.3125</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>0.0001238581823812535</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>0.0002474022761012051</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0.001855287569573205</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>539.5</v>
@@ -6997,21 +7243,24 @@
         <v>539.1333333333333</v>
       </c>
       <c r="T82">
+        <v>539.5</v>
+      </c>
+      <c r="U82">
         <v>0.21875</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>3.096071085795238E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>0.0001236705416769457</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>-0.0009259259259258856</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>539</v>
@@ -7068,21 +7317,24 @@
         <v>539.1333333333333</v>
       </c>
       <c r="T83">
+        <v>539.5</v>
+      </c>
+      <c r="U83">
         <v>0.1875</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>0.0001238390092879182</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>0</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>-0.000926784059314234</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>539.5</v>
@@ -7139,21 +7391,24 @@
         <v>539.1666666666666</v>
       </c>
       <c r="T84">
+        <v>539.3333333333334</v>
+      </c>
+      <c r="U84">
         <v>0.21875</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>0.0002166914314016832</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>6.182762458251112E-05</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0.0009276437847867136</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>538.5</v>
@@ -7210,21 +7465,24 @@
         <v>539.1333333333333</v>
       </c>
       <c r="T85">
+        <v>539</v>
+      </c>
+      <c r="U85">
         <v>0.1875</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>0.0001237968493703612</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-6.182380216379624E-05</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>-0.001853568118628357</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>539.5</v>
@@ -7281,21 +7539,24 @@
         <v>539.1666666666666</v>
       </c>
       <c r="T86">
+        <v>539.1666666666666</v>
+      </c>
+      <c r="U86">
         <v>0.15625</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>0.0001237815256072139</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>6.182762458251112E-05</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.001857010213556221</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>540</v>
@@ -7352,21 +7613,24 @@
         <v>539.2666666666667</v>
       </c>
       <c r="T87">
+        <v>539.3333333333334</v>
+      </c>
+      <c r="U87">
         <v>0.15625</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>0.0001237662056376987</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>0.0001854714064914997</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>0.000926784059314123</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>541.5</v>
@@ -7423,21 +7687,24 @@
         <v>539.4666666666667</v>
       </c>
       <c r="T88">
+        <v>540.3333333333334</v>
+      </c>
+      <c r="U88">
         <v>0.28125</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>0.0003093772236486547</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>0.0003708740264558585</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0.002777777777777768</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>541</v>
@@ -7494,21 +7761,24 @@
         <v>539.5666666666667</v>
       </c>
       <c r="T89">
+        <v>540.8333333333334</v>
+      </c>
+      <c r="U89">
         <v>0.25</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>0.0002164970772895458</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>0.0001853682649530786</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>-0.0009233610341643494</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>541.5</v>
@@ -7565,21 +7835,24 @@
         <v>539.7333333333333</v>
       </c>
       <c r="T90">
+        <v>541.3333333333334</v>
+      </c>
+      <c r="U90">
         <v>0.375</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>0.0003092145949288305</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>0.0003088898498795345</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0.0009242144177448175</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>542</v>
@@ -7636,21 +7909,24 @@
         <v>539.9333333333333</v>
       </c>
       <c r="T91">
+        <v>541.5</v>
+      </c>
+      <c r="U91">
         <v>0.5625</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>0.0003091190108193143</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>0.0003705533596836119</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0.0009233610341643494</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>541.5</v>
@@ -7707,21 +7983,24 @@
         <v>540.1</v>
       </c>
       <c r="T92">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="U92">
         <v>0.65625</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>0.000216316440049491</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0.0003086800839611215</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>-0.0009225092250922939</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>540.5</v>
@@ -7778,21 +8057,24 @@
         <v>540.1666666666666</v>
       </c>
       <c r="T93">
+        <v>541.3333333333334</v>
+      </c>
+      <c r="U93">
         <v>0.8125</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>0.000154478326690688</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>0.0001234339319877709</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>-0.001846722068328699</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>541</v>
@@ -7849,21 +8131,24 @@
         <v>540.2666666666667</v>
       </c>
       <c r="T94">
+        <v>541</v>
+      </c>
+      <c r="U94">
         <v>0.90625</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>9.26726800940525E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>0.0001851280468991856</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0.0009250693802034249</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>541.5</v>
@@ -7920,21 +8205,24 @@
         <v>540.4333333333333</v>
       </c>
       <c r="T95">
+        <v>541</v>
+      </c>
+      <c r="U95">
         <v>0.96875</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>0.0001853281853281263</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>0.0003084896347482768</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.0009242144177448175</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>542</v>
@@ -7991,21 +8279,24 @@
         <v>540.5666666666667</v>
       </c>
       <c r="T96">
+        <v>541.5</v>
+      </c>
+      <c r="U96">
         <v>0.84375</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>0.0002470584602083381</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>0.0002467155985939051</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0.0009233610341643494</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>541.5</v>
@@ -8062,21 +8353,24 @@
         <v>540.7</v>
       </c>
       <c r="T97">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="U97">
         <v>0.8125</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>0.0001852480780510923</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>0.0002466547450206136</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>-0.0009225092250922939</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>541</v>
@@ -8133,21 +8427,24 @@
         <v>540.8333333333334</v>
       </c>
       <c r="T98">
+        <v>541.5</v>
+      </c>
+      <c r="U98">
         <v>0.65625</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>0.0001234758450379125</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>0.000246593921459759</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.0009233610341643494</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>541</v>
@@ -8204,21 +8501,24 @@
         <v>540.9333333333333</v>
       </c>
       <c r="T99">
+        <v>541.1666666666666</v>
+      </c>
+      <c r="U99">
         <v>0.40625</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>0.0001234606006357275</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>0.0001848998459166307</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>541</v>
@@ -8275,21 +8575,24 @@
         <v>541.1</v>
       </c>
       <c r="T100">
+        <v>541</v>
+      </c>
+      <c r="U100">
         <v>0.25</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>0.0001234453599976426</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>0.0003081094404733253</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>541.5</v>
@@ -8346,21 +8649,24 @@
         <v>541.2333333333333</v>
       </c>
       <c r="T101">
+        <v>541.1666666666666</v>
+      </c>
+      <c r="U101">
         <v>0.1875</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>0.0001542876539020188</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>0.0002464116306288844</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>0.0009242144177448175</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>541</v>
@@ -8417,21 +8723,24 @@
         <v>541.3</v>
       </c>
       <c r="T102">
+        <v>541.1666666666666</v>
+      </c>
+      <c r="U102">
         <v>0.09375</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>0.0001542638528937434</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>0.0001231754634476445</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>-0.0009233610341643494</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>541.5</v>
@@ -8488,21 +8797,24 @@
         <v>541.3</v>
       </c>
       <c r="T103">
+        <v>541.3333333333334</v>
+      </c>
+      <c r="U103">
         <v>0</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>0.0001850880710738689</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>0</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.0009242144177448175</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>542</v>
@@ -8559,21 +8871,24 @@
         <v>541.3666666666667</v>
       </c>
       <c r="T104">
+        <v>541.5</v>
+      </c>
+      <c r="U104">
         <v>-0.03125</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>0.0001542115165160673</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>0.0001231602931215381</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0.0009233610341643494</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>542</v>
@@ -8630,21 +8945,24 @@
         <v>541.4</v>
       </c>
       <c r="T105">
+        <v>541.8333333333334</v>
+      </c>
+      <c r="U105">
         <v>-0.03125</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>0.0001850252867892088</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>6.157256326577709E-05</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>541</v>
@@ -8701,21 +9019,24 @@
         <v>541.3333333333334</v>
       </c>
       <c r="T106">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="U106">
         <v>0</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>0.0001233273725103068</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-0.0001231375446372196</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>-0.001845018450184477</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>541.5</v>
@@ -8772,21 +9093,24 @@
         <v>541.3333333333334</v>
       </c>
       <c r="T107">
+        <v>541.5</v>
+      </c>
+      <c r="U107">
         <v>0.09375</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>0.0001541402059312968</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>0</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.0009242144177448175</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>541</v>
@@ -8843,21 +9167,24 @@
         <v>541.3666666666667</v>
       </c>
       <c r="T108">
+        <v>541.1666666666666</v>
+      </c>
+      <c r="U108">
         <v>0.125</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>9.246987023381337E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>6.157635467984868E-05</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>-0.0009233610341643494</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>541.5</v>
@@ -8914,21 +9241,24 @@
         <v>541.4</v>
       </c>
       <c r="T109">
+        <v>541.3333333333334</v>
+      </c>
+      <c r="U109">
         <v>0.0625</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>0.0001232817604637226</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>6.157256326577709E-05</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>0.0009242144177448175</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>541.5</v>
@@ -8985,21 +9315,24 @@
         <v>541.4</v>
       </c>
       <c r="T110">
+        <v>541.3333333333334</v>
+      </c>
+      <c r="U110">
         <v>0.09375</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>0.0001540832049304885</v>
-      </c>
-      <c r="V110">
-        <v>0</v>
       </c>
       <c r="W110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="X110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>542</v>
@@ -9056,21 +9389,24 @@
         <v>541.4</v>
       </c>
       <c r="T111">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="U111">
         <v>0.125</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>0.000123247573563523</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>0</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0.0009233610341643494</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>542</v>
@@ -9127,21 +9463,24 @@
         <v>541.4333333333333</v>
       </c>
       <c r="T112">
+        <v>541.8333333333334</v>
+      </c>
+      <c r="U112">
         <v>0.125</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>0.0001540404818387575</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>6.156877231866531E-05</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>542</v>
@@ -9198,21 +9537,24 @@
         <v>541.5</v>
       </c>
       <c r="T113">
+        <v>542</v>
+      </c>
+      <c r="U113">
         <v>0.09375</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>0.0001848201084275747</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>0.0001231299636768046</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>542</v>
@@ -9269,21 +9611,24 @@
         <v>541.5666666666667</v>
       </c>
       <c r="T114">
+        <v>542</v>
+      </c>
+      <c r="U114">
         <v>0.15625</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>0.0001539882968895068</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>0.000123114804555291</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>542.5</v>
@@ -9340,21 +9685,24 @@
         <v>541.6666666666666</v>
       </c>
       <c r="T115">
+        <v>542.1666666666666</v>
+      </c>
+      <c r="U115">
         <v>0.1875</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>0.0002463433410315741</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>0.0001846494737487436</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>0.0009225092250921829</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>541.5</v>
@@ -9411,21 +9759,24 @@
         <v>541.6666666666666</v>
       </c>
       <c r="T116">
+        <v>542</v>
+      </c>
+      <c r="U116">
         <v>0.21875</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>0.000123141335467869</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>0</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>-0.001843317972350267</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>541</v>
@@ -9482,21 +9833,24 @@
         <v>541.6666666666666</v>
       </c>
       <c r="T117">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="U117">
         <v>0.1875</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>6.156308677307543E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>0</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>-0.0009233610341643494</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>541</v>
@@ -9553,21 +9907,24 @@
         <v>541.6333333333333</v>
       </c>
       <c r="T118">
+        <v>541.1666666666666</v>
+      </c>
+      <c r="U118">
         <v>0.125</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-3.077964849640402E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>-6.153846153844622E-05</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>541.5</v>
@@ -9624,21 +9981,24 @@
         <v>541.6</v>
       </c>
       <c r="T119">
+        <v>541.1666666666666</v>
+      </c>
+      <c r="U119">
         <v>0.0625</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>3.078059591232751E-05</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>-6.154224875376535E-05</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0.0009242144177448175</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>542</v>
@@ -9695,21 +10055,24 @@
         <v>541.6</v>
       </c>
       <c r="T120">
+        <v>541.5</v>
+      </c>
+      <c r="U120">
         <v>0.0625</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>3.077964849640402E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>0</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>0.0009233610341643494</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>543</v>
@@ -9766,21 +10129,24 @@
         <v>541.7333333333333</v>
       </c>
       <c r="T121">
+        <v>542.1666666666666</v>
+      </c>
+      <c r="U121">
         <v>0.125</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>6.155740227753448E-05</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>0.0002461841457410685</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>0.001845018450184588</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>541.5</v>
@@ -9837,21 +10203,24 @@
         <v>541.7333333333333</v>
       </c>
       <c r="T122">
+        <v>542.1666666666666</v>
+      </c>
+      <c r="U122">
         <v>0.03125</v>
-      </c>
-      <c r="U122">
-        <v>0</v>
       </c>
       <c r="V122">
         <v>0</v>
       </c>
       <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
         <v>-0.002762430939226568</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>541.5</v>
@@ -9908,21 +10277,24 @@
         <v>541.7666666666667</v>
       </c>
       <c r="T123">
+        <v>542</v>
+      </c>
+      <c r="U123">
         <v>-0.09375</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>6.155361319715169E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>6.153088850591182E-05</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>542</v>
@@ -9979,21 +10351,24 @@
         <v>541.8</v>
       </c>
       <c r="T124">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="U124">
         <v>-0.09375</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>6.154982458284053E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>6.152710268869654E-05</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0.0009233610341643494</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>542</v>
@@ -10050,21 +10425,24 @@
         <v>541.8333333333334</v>
       </c>
       <c r="T125">
+        <v>541.8333333333334</v>
+      </c>
+      <c r="U125">
         <v>0</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>3.077301821763356E-05</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>6.152331733733085E-05</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>542</v>
@@ -10121,10 +10499,10 @@
         <v>541.8333333333334</v>
       </c>
       <c r="T126">
+        <v>542</v>
+      </c>
+      <c r="U126">
         <v>0.09375</v>
-      </c>
-      <c r="U126">
-        <v>0</v>
       </c>
       <c r="V126">
         <v>0</v>
@@ -10132,10 +10510,13 @@
       <c r="W126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:23">
+      <c r="X126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>541</v>
@@ -10192,21 +10573,24 @@
         <v>541.7666666666667</v>
       </c>
       <c r="T127">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="U127">
         <v>0.09375</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-3.077207126811476E-05</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-0.0001230390649031854</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>-0.001845018450184477</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>542.5</v>
@@ -10263,21 +10647,24 @@
         <v>541.8</v>
       </c>
       <c r="T128">
+        <v>541.8333333333334</v>
+      </c>
+      <c r="U128">
         <v>0.125</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>9.231905465290069E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>6.152710268869654E-05</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0.002772643253234675</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>542.5</v>
@@ -10334,21 +10721,24 @@
         <v>541.8333333333334</v>
       </c>
       <c r="T129">
+        <v>542</v>
+      </c>
+      <c r="U129">
         <v>0.03125</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>9.231053263181188E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>6.152331733733085E-05</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>542</v>
@@ -10405,21 +10795,24 @@
         <v>541.8</v>
       </c>
       <c r="T130">
+        <v>542.3333333333334</v>
+      </c>
+      <c r="U130">
         <v>0.09375</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>6.153467478919872E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-6.151953245170372E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0009216589861751334</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>542.5</v>
@@ -10476,21 +10869,24 @@
         <v>541.8666666666667</v>
       </c>
       <c r="T131">
+        <v>542.3333333333334</v>
+      </c>
+      <c r="U131">
         <v>0.21875</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>6.153088850591182E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>0.0001230466346746617</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>0.0009225092250921829</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>541.5</v>
@@ -10547,21 +10943,24 @@
         <v>541.9</v>
       </c>
       <c r="T132">
+        <v>542</v>
+      </c>
+      <c r="U132">
         <v>0.15625</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>3.076355134434827E-05</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>6.151574803148208E-05</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.001843317972350267</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>541</v>
@@ -10618,21 +11017,24 @@
         <v>541.9</v>
       </c>
       <c r="T133">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="U133">
         <v>0.03125</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>-3.076260497736349E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>0</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>-0.0009233610341643494</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>541</v>
@@ -10689,21 +11091,24 @@
         <v>541.8666666666667</v>
       </c>
       <c r="T134">
+        <v>541.1666666666666</v>
+      </c>
+      <c r="U134">
         <v>-0.09375</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-6.152710268869654E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-6.151196407699899E-05</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>541</v>
@@ -10760,21 +11165,24 @@
         <v>541.8</v>
       </c>
       <c r="T135">
+        <v>541</v>
+      </c>
+      <c r="U135">
         <v>-0.0625</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-6.153088850602284E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-0.0001230314960630752</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>542</v>
@@ -10831,21 +11239,24 @@
         <v>541.7333333333333</v>
       </c>
       <c r="T136">
+        <v>541.3333333333334</v>
+      </c>
+      <c r="U136">
         <v>-0.125</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>6.153467478919872E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>-0.0001230466346744397</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0.001848428835489857</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>542</v>
@@ -10902,21 +11313,24 @@
         <v>541.7666666666667</v>
       </c>
       <c r="T137">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="U137">
         <v>-0.125</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>3.076544425306693E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>6.153088850591182E-05</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>542</v>
@@ -10973,21 +11387,24 @@
         <v>541.8</v>
       </c>
       <c r="T138">
+        <v>542</v>
+      </c>
+      <c r="U138">
         <v>-0.15625</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>6.152899553901747E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>6.152710268869654E-05</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>542</v>
@@ -11044,21 +11461,24 @@
         <v>541.8</v>
       </c>
       <c r="T139">
+        <v>542</v>
+      </c>
+      <c r="U139">
         <v>-0.25</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>3.076260497736349E-05</v>
-      </c>
-      <c r="V139">
-        <v>0</v>
       </c>
       <c r="W139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="X139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>542</v>
@@ -11115,21 +11535,24 @@
         <v>541.8</v>
       </c>
       <c r="T140">
+        <v>542</v>
+      </c>
+      <c r="U140">
         <v>-0.1875</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>3.076165866877645E-05</v>
-      </c>
-      <c r="V140">
-        <v>0</v>
       </c>
       <c r="W140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:23">
+      <c r="X140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>542</v>
@@ -11186,10 +11609,10 @@
         <v>541.8</v>
       </c>
       <c r="T141">
+        <v>542</v>
+      </c>
+      <c r="U141">
         <v>-0.0625</v>
-      </c>
-      <c r="U141">
-        <v>0</v>
       </c>
       <c r="V141">
         <v>0</v>
@@ -11197,10 +11620,13 @@
       <c r="W141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="X141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>542</v>
@@ -11257,21 +11683,24 @@
         <v>541.8666666666667</v>
       </c>
       <c r="T142">
+        <v>542</v>
+      </c>
+      <c r="U142">
         <v>0.0625</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>0</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>0.0001230466346746617</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>543</v>
@@ -11328,21 +11757,24 @@
         <v>541.9</v>
       </c>
       <c r="T143">
+        <v>542.3333333333334</v>
+      </c>
+      <c r="U143">
         <v>0.1875</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>6.152142483606404E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>6.151574803148208E-05</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0.001845018450184588</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>541.5</v>
@@ -11399,21 +11831,24 @@
         <v>541.8333333333334</v>
       </c>
       <c r="T144">
+        <v>542.1666666666666</v>
+      </c>
+      <c r="U144">
         <v>0.1875</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-3.075882009162534E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-0.000123023928153887</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>-0.002762430939226568</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>540.5</v>
@@ -11470,21 +11905,24 @@
         <v>541.7333333333333</v>
       </c>
       <c r="T145">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="U145">
         <v>0.125</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-0.0001230390649031854</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-0.0001845585973546671</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>-0.001846722068328699</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>540</v>
@@ -11541,21 +11979,24 @@
         <v>541.5666666666667</v>
       </c>
       <c r="T146">
+        <v>540.6666666666666</v>
+      </c>
+      <c r="U146">
         <v>0</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-9.229065403304482E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-0.0003076544425301142</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>-0.0009250693802035359</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>540.5</v>
@@ -11612,21 +12053,24 @@
         <v>541.5</v>
       </c>
       <c r="T147">
+        <v>540.3333333333334</v>
+      </c>
+      <c r="U147">
         <v>-0.0625</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-3.076639079468979E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-0.0001230996491661251</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0.0009259259259259967</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>540</v>
@@ -11683,21 +12127,24 @@
         <v>541.4333333333333</v>
       </c>
       <c r="T148">
+        <v>540.1666666666666</v>
+      </c>
+      <c r="U148">
         <v>-0.21875</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-6.153467478942076E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>-0.000123114804555291</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>-0.0009250693802035359</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>540</v>
@@ -11754,21 +12201,24 @@
         <v>541.3666666666667</v>
       </c>
       <c r="T149">
+        <v>540.1666666666666</v>
+      </c>
+      <c r="U149">
         <v>-0.40625</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-9.230769230761382E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-0.0001231299636765826</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>540.5</v>
@@ -11825,21 +12275,24 @@
         <v>541.3333333333334</v>
       </c>
       <c r="T150">
+        <v>540.1666666666666</v>
+      </c>
+      <c r="U150">
         <v>-0.5625</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-9.231621380423327E-05</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>-6.157256326577709E-05</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>0.0009259259259259967</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>539</v>
@@ -11896,21 +12349,24 @@
         <v>541.1333333333333</v>
       </c>
       <c r="T151">
+        <v>539.8333333333334</v>
+      </c>
+      <c r="U151">
         <v>-0.9375</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>-0.0002461992983322503</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>-0.00036945812807887</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>-0.002775208140610497</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>538.5</v>
@@ -11967,21 +12423,24 @@
         <v>540.9</v>
       </c>
       <c r="T152">
+        <v>539.3333333333334</v>
+      </c>
+      <c r="U152">
         <v>-1.09375</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>-0.0001846949455148739</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>-0.0004311937908094698</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>-0.0009276437847866026</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>539</v>
@@ -12038,21 +12497,24 @@
         <v>540.7</v>
       </c>
       <c r="T153">
+        <v>538.8333333333334</v>
+      </c>
+      <c r="U153">
         <v>-1.09375</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>-0.0001539408866996217</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>-0.0003697541135143645</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0.0009285051067779992</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>539</v>
@@ -12109,21 +12571,24 @@
         <v>540.5</v>
       </c>
       <c r="T154">
+        <v>538.8333333333334</v>
+      </c>
+      <c r="U154">
         <v>-1.03125</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>-0.0001847575057737361</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>-0.0003698908821898605</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>539</v>
@@ -12180,21 +12645,24 @@
         <v>540.3</v>
       </c>
       <c r="T155">
+        <v>539</v>
+      </c>
+      <c r="U155">
         <v>-1.03125</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-0.0001847916474175815</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>-0.0003700277520815032</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>539.5</v>
@@ -12251,21 +12719,24 @@
         <v>540.1333333333333</v>
       </c>
       <c r="T156">
+        <v>539.1666666666666</v>
+      </c>
+      <c r="U156">
         <v>-0.9375</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-0.0001540215014014246</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>-0.0003084706027515205</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0.0009276437847867136</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>539</v>
@@ -12322,21 +12793,24 @@
         <v>539.9333333333333</v>
       </c>
       <c r="T157">
+        <v>539.1666666666666</v>
+      </c>
+      <c r="U157">
         <v>-0.875</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-0.0001232361821431605</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-0.0003702789434708587</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>-0.000926784059314234</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>538.5</v>
@@ -12393,21 +12867,24 @@
         <v>539.6333333333333</v>
       </c>
       <c r="T158">
+        <v>539</v>
+      </c>
+      <c r="U158">
         <v>-0.90625</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-0.0002465027423429467</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>-0.0005556241511296411</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>-0.0009276437847866026</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>538.5</v>
@@ -12464,21 +12941,24 @@
         <v>539.4333333333333</v>
       </c>
       <c r="T159">
+        <v>538.6666666666666</v>
+      </c>
+      <c r="U159">
         <v>-0.6875</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-0.0002465635209271122</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>-0.0003706220273025362</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>539</v>
@@ -12535,21 +13015,24 @@
         <v>539.3333333333334</v>
       </c>
       <c r="T160">
+        <v>538.6666666666666</v>
+      </c>
+      <c r="U160">
         <v>-0.46875</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-0.0001849682471176672</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>-0.0001853797194585338</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0.0009285051067779992</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>538.5</v>
@@ -12606,21 +13089,24 @@
         <v>539.2333333333333</v>
       </c>
       <c r="T161">
+        <v>538.6666666666666</v>
+      </c>
+      <c r="U161">
         <v>-0.40625</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-0.0002466699555994101</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-0.0001854140914709923</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>-0.0009276437847866026</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>539</v>
@@ -12677,21 +13163,24 @@
         <v>539.1333333333333</v>
       </c>
       <c r="T162">
+        <v>538.8333333333334</v>
+      </c>
+      <c r="U162">
         <v>-0.34375</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>-0.0001542067604242137</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-0.0001854484762316977</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0.0009285051067779992</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>538.5</v>
@@ -12748,21 +13237,24 @@
         <v>539.0333333333333</v>
       </c>
       <c r="T163">
+        <v>538.6666666666666</v>
+      </c>
+      <c r="U163">
         <v>-0.28125</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>-0.0001542305438169134</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>-0.0001854828737479775</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.0009276437847866026</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>538</v>
@@ -12819,21 +13311,24 @@
         <v>538.9</v>
       </c>
       <c r="T164">
+        <v>538.5</v>
+      </c>
+      <c r="U164">
         <v>-0.34375</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>-0.0001851052014562038</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>-0.0002473563787026567</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>-0.0009285051067781103</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>538</v>
@@ -12890,21 +13385,24 @@
         <v>538.7333333333333</v>
       </c>
       <c r="T165">
+        <v>538.1666666666666</v>
+      </c>
+      <c r="U165">
         <v>-0.34375</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>-0.0001851394717353738</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>-0.0003092719737736171</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>538</v>
@@ -12961,21 +13459,24 @@
         <v>538.6666666666666</v>
       </c>
       <c r="T166">
+        <v>538</v>
+      </c>
+      <c r="U166">
         <v>-0.25</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>-0.0002468983396086699</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>-0.0001237470610073732</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>537.5</v>
@@ -13032,21 +13533,24 @@
         <v>538.6</v>
       </c>
       <c r="T167">
+        <v>537.8333333333334</v>
+      </c>
+      <c r="U167">
         <v>-0.28125</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>-0.0002778292276347516</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>-0.0001237623762374573</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>-0.0009293680297397522</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>537.5</v>
@@ -13103,21 +13607,24 @@
         <v>538.5</v>
       </c>
       <c r="T168">
+        <v>537.6666666666666</v>
+      </c>
+      <c r="U168">
         <v>-0.40625</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>-0.0002779064381657204</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>-0.0001856665428889848</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>537</v>
@@ -13174,21 +13681,24 @@
         <v>538.3666666666667</v>
       </c>
       <c r="T169">
+        <v>537.3333333333334</v>
+      </c>
+      <c r="U169">
         <v>-0.46875</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>-0.0003088707684706371</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-0.0002476013618074591</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>-0.0009302325581395099</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>537</v>
@@ -13245,21 +13755,24 @@
         <v>538.2333333333333</v>
       </c>
       <c r="T170">
+        <v>537.1666666666666</v>
+      </c>
+      <c r="U170">
         <v>-0.59375</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>-0.0003089661990977044</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-0.0002476626834251316</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>537</v>
@@ -13316,21 +13829,24 @@
         <v>538.0666666666667</v>
       </c>
       <c r="T171">
+        <v>537</v>
+      </c>
+      <c r="U171">
         <v>-0.65625</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-0.0003090616887130304</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-0.000309655044280599</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>537</v>
@@ -13387,21 +13903,24 @@
         <v>537.9333333333333</v>
       </c>
       <c r="T172">
+        <v>537</v>
+      </c>
+      <c r="U172">
         <v>-0.625</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-0.0003091572373710161</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-0.0002478007681825378</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>536.5</v>
@@ -13458,21 +13977,24 @@
         <v>537.8</v>
       </c>
       <c r="T173">
+        <v>536.8333333333334</v>
+      </c>
+      <c r="U173">
         <v>-0.65625</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-0.0004020286986639032</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-0.0002478621886231602</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>-0.0009310986964617962</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>536.5</v>
@@ -13529,21 +14051,24 @@
         <v>537.6666666666666</v>
       </c>
       <c r="T174">
+        <v>536.6666666666666</v>
+      </c>
+      <c r="U174">
         <v>-0.71875</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>-0.0003093772236489878</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>-0.0002479236395189766</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>536</v>
@@ -13600,21 +14125,24 @@
         <v>537.4666666666667</v>
       </c>
       <c r="T175">
+        <v>536.3333333333334</v>
+      </c>
+      <c r="U175">
         <v>-0.75</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-0.0002785256707825701</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-0.0003719776813390085</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>-0.0009319664492077884</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>536.5</v>
@@ -13671,21 +14199,24 @@
         <v>537.3333333333334</v>
       </c>
       <c r="T176">
+        <v>536.3333333333334</v>
+      </c>
+      <c r="U176">
         <v>-0.71875</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>-0.0002166914314016832</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-0.0002480774001488717</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>0.000932835820895539</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>536.5</v>
@@ -13742,21 +14273,24 @@
         <v>537.1666666666666</v>
       </c>
       <c r="T177">
+        <v>536.3333333333334</v>
+      </c>
+      <c r="U177">
         <v>-0.65625</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-0.0002477010248629341</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>-0.0003101736972705993</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>537</v>
@@ -13813,21 +14347,24 @@
         <v>537.0666666666667</v>
       </c>
       <c r="T178">
+        <v>536.6666666666666</v>
+      </c>
+      <c r="U178">
         <v>-0.53125</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>-0.0001858217968968567</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>-0.0001861619609058174</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0.0009319664492077884</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>537.5</v>
@@ -13884,21 +14421,24 @@
         <v>537.0333333333333</v>
       </c>
       <c r="T179">
+        <v>537</v>
+      </c>
+      <c r="U179">
         <v>-0.40625</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-0.0001548802775452884</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-6.206554121168661E-05</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0.0009310986964619072</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>538.5</v>
@@ -13955,21 +14495,24 @@
         <v>537.0666666666667</v>
       </c>
       <c r="T180">
+        <v>537.6666666666666</v>
+      </c>
+      <c r="U180">
         <v>-0.25</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>-0.0001239234153294078</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>6.20693935822203E-05</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>0.00186046511627902</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>539.5</v>
@@ -14026,21 +14569,24 @@
         <v>537.1666666666666</v>
       </c>
       <c r="T181">
+        <v>538.5</v>
+      </c>
+      <c r="U181">
         <v>0.03125</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>3.098469356133116E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>0.0001861966236342827</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0.001857010213556221</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>540</v>
@@ -14097,21 +14643,24 @@
         <v>537.3333333333334</v>
       </c>
       <c r="T182">
+        <v>539.3333333333334</v>
+      </c>
+      <c r="U182">
         <v>0.34375</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>9.295120061980633E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>0.000310269934843399</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0.000926784059314123</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>539</v>
@@ -14168,21 +14717,24 @@
         <v>537.4333333333333</v>
       </c>
       <c r="T183">
+        <v>539.5</v>
+      </c>
+      <c r="U183">
         <v>0.625</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>0</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>0.0001861042183621819</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>-0.001851851851851882</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>538.5</v>
@@ -14239,21 +14791,24 @@
         <v>537.5333333333333</v>
       </c>
       <c r="T184">
+        <v>539.1666666666666</v>
+      </c>
+      <c r="U184">
         <v>0.8125</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-3.098085383235194E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>0.0001860695900266496</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>-0.0009276437847866026</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>539.5</v>
@@ -14310,21 +14865,24 @@
         <v>537.7</v>
       </c>
       <c r="T185">
+        <v>539</v>
+      </c>
+      <c r="U185">
         <v>1.03125</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>3.098181367544584E-05</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>0.000310058290958759</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>0.001857010213556221</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>539</v>
@@ -14381,21 +14939,24 @@
         <v>537.8333333333334</v>
       </c>
       <c r="T186">
+        <v>539</v>
+      </c>
+      <c r="U186">
         <v>1.15625</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-3.098085383235194E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>0.0002479697476907017</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>-0.000926784059314234</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>539.5</v>
@@ -14452,21 +15013,24 @@
         <v>538</v>
       </c>
       <c r="T187">
+        <v>539.3333333333334</v>
+      </c>
+      <c r="U187">
         <v>1.25</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>3.098181367544584E-05</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>0.0003098853424232662</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0.0009276437847867136</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>538</v>
@@ -14523,21 +15087,24 @@
         <v>538.1</v>
       </c>
       <c r="T188">
+        <v>538.8333333333334</v>
+      </c>
+      <c r="U188">
         <v>1.125</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>-3.098085383235194E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>0.000185873605947906</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>-0.002780352177942591</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>539</v>
@@ -14594,21 +15161,24 @@
         <v>538.2666666666667</v>
       </c>
       <c r="T189">
+        <v>538.8333333333334</v>
+      </c>
+      <c r="U189">
         <v>0.90625</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>3.098181367544584E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>0.0003097317722851045</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0.001858736059479504</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>539.5</v>
@@ -14665,21 +15235,24 @@
         <v>538.5</v>
       </c>
       <c r="T190">
+        <v>538.8333333333334</v>
+      </c>
+      <c r="U190">
         <v>0.65625</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>3.098085383235194E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>0.0004334902155065379</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>0.0009276437847867136</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>540.5</v>
@@ -14736,21 +15309,24 @@
         <v>538.7666666666667</v>
       </c>
       <c r="T191">
+        <v>539.6666666666666</v>
+      </c>
+      <c r="U191">
         <v>0.5625</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>0.000123919576194842</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>0.0004952027236149181</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>0.001853568118628468</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>540</v>
@@ -14807,21 +15383,24 @@
         <v>539</v>
       </c>
       <c r="T192">
+        <v>540</v>
+      </c>
+      <c r="U192">
         <v>0.53125</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>6.195211101833742E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>0.0004330879168470414</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>-0.0009250693802035359</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>541</v>
@@ -14878,21 +15457,24 @@
         <v>539.2666666666667</v>
       </c>
       <c r="T193">
+        <v>540.5</v>
+      </c>
+      <c r="U193">
         <v>0.4375</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>0.0001548706829794799</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>0.0004947433518862621</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>0.001851851851851771</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>541</v>
@@ -14949,21 +15531,24 @@
         <v>539.5</v>
       </c>
       <c r="T194">
+        <v>540.6666666666666</v>
+      </c>
+      <c r="U194">
         <v>0.4375</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>0.0001858160421184252</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>0.0004326863641983536</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>541</v>
@@ -15020,21 +15605,24 @@
         <v>539.6666666666666</v>
       </c>
       <c r="T195">
+        <v>541</v>
+      </c>
+      <c r="U195">
         <v>0.40625</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>0.0001857815209314051</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>0.0003089280197712263</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>540.5</v>
@@ -15091,21 +15679,24 @@
         <v>539.7333333333333</v>
       </c>
       <c r="T196">
+        <v>540.8333333333334</v>
+      </c>
+      <c r="U196">
         <v>0.59375</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>0.000154789177140735</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>0.0001235330450897187</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>-0.0009242144177449285</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>540.5</v>
@@ -15162,21 +15753,24 @@
         <v>539.7666666666667</v>
       </c>
       <c r="T197">
+        <v>540.6666666666666</v>
+      </c>
+      <c r="U197">
         <v>0.71875</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>0.0001857182653912659</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>6.175889328052797E-05</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>539.5</v>
@@ -15233,21 +15827,24 @@
         <v>539.8</v>
       </c>
       <c r="T198">
+        <v>540.1666666666666</v>
+      </c>
+      <c r="U198">
         <v>0.75</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>0.0001237891870147223</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>6.175507935513025E-05</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>-0.001850138760407072</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>540.5</v>
@@ -15304,21 +15901,24 @@
         <v>539.9333333333333</v>
       </c>
       <c r="T199">
+        <v>540.1666666666666</v>
+      </c>
+      <c r="U199">
         <v>0.65625</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>0.0002166042640097121</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>0.0002470050636038668</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>0.001853568118628468</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>540.5</v>
@@ -15375,21 +15975,24 @@
         <v>540</v>
       </c>
       <c r="T200">
+        <v>540.1666666666666</v>
+      </c>
+      <c r="U200">
         <v>0.59375</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>0.0002165573567627366</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>0.0001234720335845374</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>540.5</v>
@@ -15446,21 +16049,24 @@
         <v>540.1</v>
       </c>
       <c r="T201">
+        <v>540.5</v>
+      </c>
+      <c r="U201">
         <v>0.46875</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>0.0002165104698277354</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>0.0001851851851852881</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>540</v>
@@ -15517,21 +16123,24 @@
         <v>540.1333333333333</v>
       </c>
       <c r="T202">
+        <v>540.3333333333334</v>
+      </c>
+      <c r="U202">
         <v>0.28125</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>0.0001855402313069021</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>6.171696599399645E-05</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>-0.0009250693802035359</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>540</v>
@@ -15588,21 +16197,24 @@
         <v>540.2666666666667</v>
       </c>
       <c r="T203">
+        <v>540.1666666666666</v>
+      </c>
+      <c r="U203">
         <v>0.125</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>0.0002164234479344884</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>0.0002468526289804984</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>539.5</v>
@@ -15659,21 +16271,24 @@
         <v>540.3</v>
       </c>
       <c r="T204">
+        <v>539.8333333333334</v>
+      </c>
+      <c r="U204">
         <v>-0.09375</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>0.0001854656733950577</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>6.169792694965537E-05</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>-0.0009259259259258856</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>540</v>
@@ -15730,21 +16345,24 @@
         <v>540.3333333333334</v>
       </c>
       <c r="T205">
+        <v>539.8333333333334</v>
+      </c>
+      <c r="U205">
         <v>-0.21875</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>0.0002472417096763824</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>6.169412055045953E-05</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>0.000926784059314123</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>540</v>
@@ -15801,21 +16419,24 @@
         <v>540.3</v>
       </c>
       <c r="T206">
+        <v>539.8333333333334</v>
+      </c>
+      <c r="U206">
         <v>-0.1875</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>0.0002162830217828926</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>-6.169031462077701E-05</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>537.5</v>
@@ -15872,21 +16493,24 @@
         <v>540.1333333333333</v>
       </c>
       <c r="T207">
+        <v>539.1666666666666</v>
+      </c>
+      <c r="U207">
         <v>-0.375</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>6.178178672944235E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-0.0003084706027515205</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>-0.00462962962962965</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>537</v>
@@ -15943,21 +16567,24 @@
         <v>539.8666666666667</v>
       </c>
       <c r="T208">
+        <v>538.1666666666666</v>
+      </c>
+      <c r="U208">
         <v>-0.625</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>0</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>-0.0004937052579609968</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>-0.0009302325581395099</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>535.5</v>
@@ -16014,21 +16641,24 @@
         <v>539.5</v>
       </c>
       <c r="T209">
+        <v>536.6666666666666</v>
+      </c>
+      <c r="U209">
         <v>-0.90625</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-0.000123555939951947</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>-0.0006791800444554408</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>-0.0027932960893855</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>536</v>
@@ -16085,21 +16715,24 @@
         <v>539.1666666666666</v>
       </c>
       <c r="T210">
+        <v>536.1666666666666</v>
+      </c>
+      <c r="U210">
         <v>-1.09375</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-0.0001544640098857242</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>-0.0006178560395428967</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>0.0009337068160597539</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>535</v>
@@ -16156,21 +16789,24 @@
         <v>538.8</v>
       </c>
       <c r="T211">
+        <v>535.5</v>
+      </c>
+      <c r="U211">
         <v>-1.34375</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>-0.0002780781708635605</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>-0.0006800618238022027</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>-0.001865671641791078</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>534</v>
@@ -16227,21 +16863,24 @@
         <v>538.3666666666667</v>
       </c>
       <c r="T212">
+        <v>535</v>
+      </c>
+      <c r="U212">
         <v>-1.625</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-0.0003708740264555255</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-0.0008042563721849527</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>-0.001869158878504695</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>533.5</v>
@@ -16298,21 +16937,24 @@
         <v>537.9666666666667</v>
       </c>
       <c r="T213">
+        <v>534.1666666666666</v>
+      </c>
+      <c r="U213">
         <v>-2</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>-0.0003400939896117672</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-0.000742988050275506</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>-0.000936329588014928</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>533</v>
@@ -16369,21 +17011,24 @@
         <v>537.4666666666667</v>
       </c>
       <c r="T214">
+        <v>533.5</v>
+      </c>
+      <c r="U214">
         <v>-2.46875</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>-0.0003402096928832865</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>-0.0009294256149700031</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>-0.0009372071227741197</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>533.5</v>
@@ -16440,21 +17085,24 @@
         <v>537</v>
       </c>
       <c r="T215">
+        <v>533.3333333333334</v>
+      </c>
+      <c r="U215">
         <v>-2.53125</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>-0.0003712641544459938</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>-0.0008682709005209954</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0.0009380863039398779</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>532.5</v>
@@ -16511,21 +17159,24 @@
         <v>536.4666666666667</v>
       </c>
       <c r="T216">
+        <v>533</v>
+      </c>
+      <c r="U216">
         <v>-2.59375</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>-0.0004023522129372736</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>-0.0009931719428926122</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>-0.001874414245548239</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>531.5</v>
@@ -16582,21 +17233,24 @@
         <v>535.9</v>
       </c>
       <c r="T217">
+        <v>532.5</v>
+      </c>
+      <c r="U217">
         <v>-2.53125</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>-0.0004954020497259792</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>-0.001056294271157054</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>-0.00187793427230043</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>532</v>
@@ -16653,21 +17307,24 @@
         <v>535.3666666666667</v>
       </c>
       <c r="T218">
+        <v>532</v>
+      </c>
+      <c r="U218">
         <v>-2.53125</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-0.0003717356959200835</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>-0.0009952105492317953</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>0.0009407337723423836</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>532.5</v>
@@ -16724,21 +17381,24 @@
         <v>534.9</v>
       </c>
       <c r="T219">
+        <v>532</v>
+      </c>
+      <c r="U219">
         <v>-2.375</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-0.0004028634292975175</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>-0.0008716767324575825</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0.0009398496240602405</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>532.5</v>
@@ -16795,21 +17455,24 @@
         <v>534.4</v>
       </c>
       <c r="T220">
+        <v>532.3333333333334</v>
+      </c>
+      <c r="U220">
         <v>-2.125</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-0.0004340277777777901</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>-0.0009347541596560482</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>532.5</v>
@@ -16866,21 +17529,24 @@
         <v>533.9</v>
       </c>
       <c r="T221">
+        <v>532.5</v>
+      </c>
+      <c r="U221">
         <v>-1.78125</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>-0.0004962471310712147</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>-0.0009356287425149601</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>533</v>
@@ -16937,21 +17603,24 @@
         <v>533.6</v>
       </c>
       <c r="T222">
+        <v>532.6666666666666</v>
+      </c>
+      <c r="U222">
         <v>-1.34375</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-0.0004344318252342827</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>-0.000561902978085671</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0.0009389671361501595</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>532</v>
@@ -17008,21 +17677,24 @@
         <v>533.2666666666667</v>
       </c>
       <c r="T223">
+        <v>532.5</v>
+      </c>
+      <c r="U223">
         <v>-1.1875</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>-0.0005587979634917861</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>-0.0006246876561719628</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>-0.001876172607879978</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>531.5</v>
@@ -17079,21 +17751,24 @@
         <v>533</v>
       </c>
       <c r="T224">
+        <v>532.1666666666666</v>
+      </c>
+      <c r="U224">
         <v>-0.96875</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>-0.000590172081754492</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>-0.0005000625078134258</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>-0.0009398496240601295</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>531.5</v>
@@ -17150,21 +17825,24 @@
         <v>532.7</v>
       </c>
       <c r="T225">
+        <v>531.6666666666666</v>
+      </c>
+      <c r="U225">
         <v>-0.71875</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>-0.0005905205905206712</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>-0.0005628517823639267</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>531.5</v>
@@ -17221,21 +17899,24 @@
         <v>532.4666666666667</v>
       </c>
       <c r="T226">
+        <v>531.5</v>
+      </c>
+      <c r="U226">
         <v>-0.5</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>-0.0005597711158102925</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>-0.0004380201489269098</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>531.5</v>
@@ -17292,21 +17973,24 @@
         <v>532.3</v>
       </c>
       <c r="T227">
+        <v>531.5</v>
+      </c>
+      <c r="U227">
         <v>-0.40625</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>-0.0005600846350114486</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>-0.0003130086390386033</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>531.5</v>
@@ -17363,21 +18047,24 @@
         <v>532.1666666666666</v>
       </c>
       <c r="T228">
+        <v>531.5</v>
+      </c>
+      <c r="U228">
         <v>-0.375</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>-0.0004981320049812776</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>-0.0002504853152983655</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>531.5</v>
@@ -17434,21 +18121,24 @@
         <v>532.0666666666667</v>
       </c>
       <c r="T229">
+        <v>531.5</v>
+      </c>
+      <c r="U229">
         <v>-0.375</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>-0.0005606777971594035</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>-0.0001879110554335872</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>531.5</v>
@@ -17505,21 +18195,24 @@
         <v>531.9333333333333</v>
       </c>
       <c r="T230">
+        <v>531.5</v>
+      </c>
+      <c r="U230">
         <v>-0.46875</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>-0.0005609923331046929</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>-0.0002505951635135562</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>531</v>
@@ -17576,21 +18269,24 @@
         <v>531.8333333333334</v>
       </c>
       <c r="T231">
+        <v>531.3333333333334</v>
+      </c>
+      <c r="U231">
         <v>-0.4375</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>-0.0005924909567170955</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>-0.0001879934828924457</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>-0.0009407337723423836</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>530.5</v>
@@ -17647,21 +18343,24 @@
         <v>531.7666666666667</v>
       </c>
       <c r="T232">
+        <v>531</v>
+      </c>
+      <c r="U232">
         <v>-0.4375</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>-0.0005928422103652631</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>-0.0001253525540584333</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>-0.0009416195856873921</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>531</v>
@@ -17718,21 +18417,24 @@
         <v>531.7</v>
       </c>
       <c r="T233">
+        <v>530.8333333333334</v>
+      </c>
+      <c r="U233">
         <v>-0.46875</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>-0.0005619731501718128</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>-0.000125368269290882</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>0.0009425070688029447</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>530</v>
@@ -17789,21 +18491,24 @@
         <v>531.5333333333333</v>
       </c>
       <c r="T234">
+        <v>530.5</v>
+      </c>
+      <c r="U234">
         <v>-0.53125</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-0.0005935274272146351</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>-0.0003134599711618336</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>-0.001883239171374784</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>530</v>
@@ -17860,21 +18565,24 @@
         <v>531.3666666666667</v>
       </c>
       <c r="T235">
+        <v>530.3333333333334</v>
+      </c>
+      <c r="U235">
         <v>-0.5625</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>-0.0006251367486638237</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>-0.0003135582591244912</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>529.5</v>
@@ -17931,21 +18639,24 @@
         <v>531.1666666666666</v>
       </c>
       <c r="T236">
+        <v>529.8333333333334</v>
+      </c>
+      <c r="U236">
         <v>-0.625</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>-0.0006568041785256495</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>-0.0003763879304937712</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>-0.0009433962264151496</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>528.5</v>
@@ -18002,21 +18713,24 @@
         <v>530.8666666666667</v>
       </c>
       <c r="T237">
+        <v>529.3333333333334</v>
+      </c>
+      <c r="U237">
         <v>-0.75</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>-0.0005633450175261956</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>-0.0005647944775650782</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>-0.001888574126534426</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>528</v>
@@ -18073,21 +18787,24 @@
         <v>530.6</v>
       </c>
       <c r="T238">
+        <v>528.6666666666666</v>
+      </c>
+      <c r="U238">
         <v>-0.875</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>-0.0005636625540177409</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>-0.0005023232450080961</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>-0.0009460737937558861</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>528</v>
@@ -18144,21 +18861,24 @@
         <v>530.3666666666667</v>
       </c>
       <c r="T239">
+        <v>528.1666666666666</v>
+      </c>
+      <c r="U239">
         <v>-1</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>-0.0004699837072315027</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>-0.0004397537379068339</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>528.5</v>
@@ -18215,21 +18935,24 @@
         <v>530.1666666666666</v>
       </c>
       <c r="T240">
+        <v>528.1666666666666</v>
+      </c>
+      <c r="U240">
         <v>-1.0625</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>-0.0004702046957775208</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-0.0003770976054302544</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>0.0009469696969697239</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>529.5</v>
@@ -18286,21 +19009,24 @@
         <v>530.0333333333333</v>
       </c>
       <c r="T241">
+        <v>528.6666666666666</v>
+      </c>
+      <c r="U241">
         <v>-1.125</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>-0.0003449789876434073</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-0.0002514932411191717</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0.001892147587511772</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>529.5</v>
@@ -18357,21 +19083,24 @@
         <v>529.9</v>
       </c>
       <c r="T242">
+        <v>529.1666666666666</v>
+      </c>
+      <c r="U242">
         <v>-1.0625</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>-0.0002823529411764003</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>-0.0002515565058801572</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>529</v>
@@ -18428,21 +19157,24 @@
         <v>529.7333333333333</v>
       </c>
       <c r="T243">
+        <v>529.3333333333334</v>
+      </c>
+      <c r="U243">
         <v>-1.03125</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>-0.0002824326868762217</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>-0.0003145247530980111</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>-0.0009442870632672129</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>529</v>
@@ -18499,21 +19231,24 @@
         <v>529.5666666666667</v>
       </c>
       <c r="T244">
+        <v>529.1666666666666</v>
+      </c>
+      <c r="U244">
         <v>-0.9375</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>-0.0002511222023416915</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>-0.0003146237100427607</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>528.5</v>
@@ -18570,21 +19305,24 @@
         <v>529.3666666666667</v>
       </c>
       <c r="T245">
+        <v>528.8333333333334</v>
+      </c>
+      <c r="U245">
         <v>-0.75</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>-0.0003139816006783036</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>-0.0003776672751306664</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>-0.000945179584120992</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>528</v>
@@ -18641,21 +19379,24 @@
         <v>529.1666666666666</v>
       </c>
       <c r="T246">
+        <v>528.5</v>
+      </c>
+      <c r="U246">
         <v>-0.53125</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>-0.0002826721944784172</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>-0.0003778099615894259</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>-0.0009460737937558861</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>526.5</v>
@@ -18712,21 +19453,24 @@
         <v>528.9</v>
       </c>
       <c r="T247">
+        <v>527.6666666666666</v>
+      </c>
+      <c r="U247">
         <v>-0.4375</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>-0.0003141690229342409</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>-0.0005039370078739891</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>-0.002840909090909061</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>526.5</v>
@@ -18783,15 +19527,18 @@
         <v>528.6</v>
       </c>
       <c r="T248">
+        <v>527</v>
+      </c>
+      <c r="U248">
         <v>-0.4375</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>-0.0003456945317411586</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>-0.0005672149744752053</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>0</v>
       </c>
     </row>
